--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/기획/졸업작품/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00681726-7E0C-4423-9926-D245E4C90248}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F1DD17-66B9-48F7-96E3-67977117168A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>남상현</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{778A27F5-9218-4649-AC76-1DCFF6F81538}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{778A27F5-9218-4649-AC76-1DCFF6F81538}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{45B2B68A-D9DE-4874-8619-4452538DFF71}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{45B2B68A-D9DE-4874-8619-4452538DFF71}">
       <text>
         <r>
           <rPr>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,18 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,6 +1008,64 @@
   </si>
   <si>
     <t>시스템실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>튜토리얼2(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 획득장소)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>튜토리얼3(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 획득장소)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1029,7 +1075,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -1052,61 +1098,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>튜토리얼2(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그랜드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 획득장소)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>튜토리얼3(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 획득장소)</t>
-    </r>
+    <t>결국 잭을 막지 못했던 '이브'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
+잭을 상대하게 하고 정거장을 폭파시키려 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1123,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1275,23 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1770,7 +1792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,53 +1904,146 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1939,122 +2054,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3553,15 +3587,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>20395</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>2880501</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1662730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3925,58 +3959,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4006,11 +4040,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -4036,13 +4070,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4060,8 +4094,8 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -4325,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="25"/>
@@ -4473,799 +4507,830 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
-  <dimension ref="B1:V53"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:K12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="12" max="12" width="28.59765625" customWidth="1"/>
-    <col min="16" max="16" width="38.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" customWidth="1"/>
+    <col min="15" max="15" width="38.59765625" customWidth="1"/>
+    <col min="16" max="16" width="28.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="80"/>
+      <c r="B3" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="81"/>
+      <c r="B5" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="81"/>
+      <c r="B6" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="82"/>
+      <c r="B8" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="82"/>
+      <c r="B9" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47" t="s">
+      <c r="C9" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="83"/>
+      <c r="B11" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="83"/>
+      <c r="B12" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="50" t="s">
+      <c r="D17" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="41"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="2:16" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="69"/>
-      <c r="C6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="69"/>
-      <c r="C7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="42"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="77" t="s">
+      <c r="L31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="42"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B17" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="42"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B18" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="45"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K32" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" t="s">
-        <v>81</v>
+      <c r="L32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32">
+      <c r="T32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33">
         <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" t="s">
-        <v>87</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33">
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="U33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K34" t="s">
-        <v>85</v>
-      </c>
-      <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34">
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="36">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="36">
         <v>1</v>
       </c>
-      <c r="P34">
+      <c r="S35" t="s">
+        <v>78</v>
+      </c>
+      <c r="U35">
         <v>1</v>
       </c>
-      <c r="Q34">
+    </row>
+    <row r="36" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="36">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q36" s="36">
         <v>1</v>
       </c>
-      <c r="R34">
+      <c r="S36" t="s">
+        <v>78</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="36">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="36">
         <v>1</v>
       </c>
-      <c r="S34">
+      <c r="S37" t="s">
+        <v>78</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="L38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="S38" t="s">
+        <v>79</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I35" t="s">
+      <c r="Q39" s="36">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="36">
+        <v>2</v>
+      </c>
+      <c r="S40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="36">
+        <v>2</v>
+      </c>
+      <c r="S41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I36">
+    <row r="42" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="36">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" s="36">
+      <c r="Q42" s="36">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="L43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="S43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="36">
         <v>3</v>
       </c>
-      <c r="N36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="S44" t="s">
+        <v>71</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
         <v>76</v>
       </c>
-      <c r="R36" s="36">
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="36">
         <v>1</v>
       </c>
-      <c r="T36" t="s">
-        <v>81</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="36">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" s="36">
-        <v>1</v>
-      </c>
-      <c r="T37" t="s">
-        <v>81</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K38" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="36">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="36">
-        <v>1</v>
-      </c>
-      <c r="T38" t="s">
-        <v>81</v>
-      </c>
-      <c r="V38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="M39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="T39" t="s">
-        <v>82</v>
-      </c>
-      <c r="V39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M40" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>77</v>
-      </c>
-      <c r="R40" s="36">
-        <v>2</v>
-      </c>
-      <c r="T40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K41" t="s">
+      <c r="Q45" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="S45" t="s">
         <v>72</v>
       </c>
-      <c r="M41" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>77</v>
-      </c>
-      <c r="R41" s="36">
-        <v>2</v>
-      </c>
-      <c r="T41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K42" t="s">
+    </row>
+    <row r="46" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="S46" t="s">
         <v>73</v>
       </c>
-      <c r="M42" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>77</v>
-      </c>
-      <c r="R42" s="36">
-        <v>2</v>
-      </c>
-      <c r="T42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="J43" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" t="s">
+    </row>
+    <row r="47" spans="8:21" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47">
+        <f>SUM(L35:L45)</f>
+        <v>15</v>
+      </c>
+      <c r="S47" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>78</v>
-      </c>
-      <c r="R43" s="36">
-        <v>4</v>
-      </c>
-      <c r="T43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="M44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="T44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="J45" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" s="36">
-        <v>1</v>
-      </c>
-      <c r="R45" s="36">
-        <v>3</v>
-      </c>
-      <c r="T45" t="s">
-        <v>71</v>
-      </c>
-      <c r="V45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="J46" t="s">
-        <v>79</v>
-      </c>
-      <c r="K46" t="s">
-        <v>67</v>
-      </c>
-      <c r="M46" s="36">
-        <v>1</v>
-      </c>
-      <c r="R46" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="T46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="T47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="K48" t="s">
-        <v>75</v>
-      </c>
-      <c r="M48">
-        <f>SUM(M36:M46)</f>
-        <v>15</v>
-      </c>
-      <c r="T48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.4">
-      <c r="M50">
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="L49">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.4">
-      <c r="K52" t="s">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.4">
-      <c r="K53" t="s">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/기획/졸업작품/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F1DD17-66B9-48F7-96E3-67977117168A}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EB40EF-7198-434C-8C4A-6007DB23D785}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="960" windowWidth="17250" windowHeight="8865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -38,6 +38,75 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={32E44EDA-25B7-4776-8035-79D1AFDA5440}</author>
+    <author>tc={46FF62E2-D372-4EAF-B814-3A6081B297BD}</author>
+    <author>tc={8983154E-C582-4C70-B009-7168E1694B74}</author>
+    <author>tc={914C5D93-BD66-4857-8379-E464D9166189}</author>
+    <author>tc={F74D44DD-1EB3-4195-A9F6-C4B1F0740E5C}</author>
+    <author>tc={7628780D-DC72-498E-9CEF-27E3767A896E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{32E44EDA-25B7-4776-8035-79D1AFDA5440}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{46FF62E2-D372-4EAF-B814-3A6081B297BD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{8983154E-C582-4C70-B009-7168E1694B74}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{914C5D93-BD66-4857-8379-E464D9166189}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{F74D44DD-1EB3-4195-A9F6-C4B1F0740E5C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{7628780D-DC72-498E-9CEF-27E3767A896E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    None : 없음
+Null : 아직 결정되지 않음</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>남상현</author>
@@ -427,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,35 +598,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서진 발판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서진 발판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj크기 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,15 +696,6 @@
   </si>
   <si>
     <t>1m x 1m x 0.1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start0, start1
-tutorial, stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,19 +727,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1m x </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1m x 2.5m x 0.2m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.5m x 2m x 1.8m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,10 +747,6 @@
   <si>
     <t>본 오브젝트가 문서에 포함되어 있다면, 무빙워크의 방향이 있을겁니다.
 그 방향대로 0.5m/s의 속력으로 움직이게 해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재까지는 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1114,6 +1142,95 @@
     <t>무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m x 3m x 1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m x 3m x 2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj크기 (m)
+(x, y, z)(가로, 높이, 세로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m x 3m x 0.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠긴 캐비닛은 깔끔해야
+합니다. 살짝 색이 바랜,
+페인트의 색이 바랜
+그런 부분이 있지만
+흠집이나 기능적으로는
+문제가 없어 보여야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠집등이 있고, 페인트의
+색이 바라는 등 오랜 시간
+동안 사용하였지만, 어느날
+부터 사용을 안 하여 문이
+열린 상태로 먼지가 쌓여 있게 부탁드리겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어 벨트와 같은
+외형입니다. 하단부에 깔린
+벨트가 지정된 방향으로 
+움직입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m x 1m x 3m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면보다는 모서리를 강조한
+외형에 면에는 "이브"의
+아이콘을 넣어주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 고정된 패널에 버튼이
+부착된 외형으로 부탁드립
+니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1123,7 +1240,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,22 +1299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1216,15 +1317,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1292,8 +1384,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,8 +1457,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1384,34 +1499,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1455,34 +1542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left/>
       <right style="medium">
@@ -1786,13 +1845,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1805,169 +1993,184 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,119 +2179,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2118,16 +2297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2012575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105335</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5599344</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4289611</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1790700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9050632</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2803641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2164,8 +2343,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11470340" y="9854453"/>
-          <a:ext cx="2277036" cy="1685365"/>
+          <a:off x="21410844" y="67548051"/>
+          <a:ext cx="3436048" cy="2542441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2186,74 +2365,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>448236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2169013</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1909482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9547413" y="9984442"/>
-          <a:ext cx="2079365" cy="1461246"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>302558</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>246529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2382369</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2323893</xdr:rowOff>
@@ -2272,7 +2390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2308,13 +2426,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2559424</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>168091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>5104838</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2244845</xdr:rowOff>
@@ -2333,7 +2451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2369,16 +2487,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254205</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>423415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2008747</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3742371</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1869141</xdr:rowOff>
+      <xdr:rowOff>3798291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2394,7 +2512,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2408,8 +2526,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9558618" y="9771530"/>
-          <a:ext cx="1907894" cy="1846729"/>
+          <a:off x="16041893" y="63597978"/>
+          <a:ext cx="3484356" cy="3378686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,16 +2548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>94129</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>940815</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>499305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3371306</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4208467</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1826559</xdr:rowOff>
+      <xdr:rowOff>2305581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2455,7 +2573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2469,8 +2587,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9551894" y="9995647"/>
-          <a:ext cx="3277177" cy="1792941"/>
+          <a:off x="16752315" y="67780441"/>
+          <a:ext cx="3275272" cy="1798656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,16 +2609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4687769</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1930905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8195211</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3031531</xdr:rowOff>
+      <xdr:rowOff>3031532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2516,7 +2634,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2562,16 +2680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>270690</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>103398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4520045</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4512425</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2508837</xdr:rowOff>
+      <xdr:rowOff>2499312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2587,7 +2705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2623,16 +2741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>311729</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2649682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4537365</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4938881</xdr:rowOff>
+      <xdr:rowOff>4931261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2648,7 +2766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2684,16 +2802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4789715</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2612571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8939893</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8932273</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4942760</xdr:rowOff>
+      <xdr:rowOff>4937045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2709,7 +2827,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2745,14 +2863,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>162411</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>404017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4699576</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4707196</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>4912179</xdr:rowOff>
     </xdr:to>
@@ -2770,7 +2888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2806,16 +2924,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4966607</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8735786</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8741501</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2564917</xdr:rowOff>
+      <xdr:rowOff>2572537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2831,7 +2949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2867,13 +2985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4925786</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2691637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9239250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>5126156</xdr:rowOff>
@@ -2892,7 +3010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2928,16 +3046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3329940</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5042807</xdr:rowOff>
+      <xdr:rowOff>5050427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2953,7 +3071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2989,16 +3107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3633108</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>340177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9189348</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9198873</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4905373</xdr:rowOff>
+      <xdr:rowOff>4899658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3014,7 +3132,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3050,13 +3168,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1292806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4708071</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>4342463</xdr:rowOff>
@@ -3075,7 +3193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3111,14 +3229,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4857749</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8844643</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8859883</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2402839</xdr:rowOff>
     </xdr:to>
@@ -3136,7 +3254,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3172,13 +3290,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>5034644</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2585354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8668208</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>5143499</xdr:rowOff>
@@ -3197,7 +3315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3233,14 +3351,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>432956</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4087091</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4092806</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>5066645</xdr:rowOff>
     </xdr:to>
@@ -3258,7 +3376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3294,16 +3412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>301831</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474343</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>253587</xdr:rowOff>
+      <xdr:rowOff>198342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6982938</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4474052</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5056909</xdr:rowOff>
+      <xdr:rowOff>5011189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3318,23 +3436,21 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="40333"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15299376" y="8566314"/>
-          <a:ext cx="6681107" cy="4803322"/>
+          <a:off x="16262031" y="9056592"/>
+          <a:ext cx="3990184" cy="4805227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3355,23 +3471,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>368558</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>495567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3728358</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3562349</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7108249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3714749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25" descr="무빙 워크 및 에스컬레이터 컬렉션 3D 모델 $49 - .max .obj .fbx .3ds - Free3D">
+        <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3394,8 +3510,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15552965" y="29855237"/>
-          <a:ext cx="3170464" cy="3193791"/>
+          <a:off x="17352819" y="38006749"/>
+          <a:ext cx="5784273" cy="3219182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3416,23 +3532,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4558394</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>517071</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8811987</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3374571</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2231898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26" descr="무빙워크 사진, 이미지, 일러스트, 캘리그라피 - 크라우드픽">
+        <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BC4DA1-4E17-4444-9511-A2F1E1215683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26852880" y="1036320"/>
+          <a:ext cx="2083810" cy="4310252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516256</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5545008</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2270759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,8 +3615,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19553465" y="30003750"/>
-          <a:ext cx="4253593" cy="2857500"/>
+          <a:off x="18194656" y="24574500"/>
+          <a:ext cx="5024942" cy="2152649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3477,23 +3637,328 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1071564</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>432954</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2342729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3169228</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4732122</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5486400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4747259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18211800" y="26802929"/>
+          <a:ext cx="4953000" cy="2400720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6134100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9356662</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4724400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23812500" y="24650700"/>
+          <a:ext cx="3230182" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3825443</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3749040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="컨베이어 벨트 3D 모델 - TurboSquid 909860">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16230600" y="34899600"/>
+          <a:ext cx="3438728" cy="3368040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5029200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8915400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3215640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="컨베이어란?/컨베이어의 종류 및 특징/벨트,스크류,공기,롤러,버킷 컨베이어">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20878800" y="35052000"/>
+          <a:ext cx="3886200" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4224339</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>450532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9617926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4779645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="Sports Equipment Storage | Greene Manufacturing, Inc.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20012027" y="14499907"/>
+          <a:ext cx="5387872" cy="4329113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4901565</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6879794</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5048864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,15 +3967,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7098291" y="3550227"/>
-          <a:ext cx="2097664" cy="4299168"/>
+          <a:off x="20689253" y="9072563"/>
+          <a:ext cx="1983944" cy="4826931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3521,23 +3986,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>495567</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7387590</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7117774</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3714749</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9431979</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4935231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
+        <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23175278" y="8933496"/>
+          <a:ext cx="2044389" cy="4852365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4691062</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>500063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8859202</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4475798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="Single Door Push Button “Plain” (2430) ”Doors Open” (2431) | BMAC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +4055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3560,8 +4069,311 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17352819" y="38006749"/>
-          <a:ext cx="5784273" cy="3219182"/>
+          <a:off x="20478750" y="47529751"/>
+          <a:ext cx="4171950" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4229099</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9657344</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3449246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="Portal floor button free VR / AR / low-poly 3D model | CGTrader">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20078699" y="59969400"/>
+          <a:ext cx="5428245" cy="3094916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3788146</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4343400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42" descr="Eye Switch - Zelda Dungeon Wiki">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16268699" y="48196500"/>
+          <a:ext cx="3359522" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45" descr="Floor Switch - Zelda Wiki">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16497300" y="59833199"/>
+          <a:ext cx="2209800" cy="1507801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1858401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2973014</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3521565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46" descr="Floor Switch - Zelda Wiki">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16497300" y="61484901"/>
+          <a:ext cx="2325314" cy="1663164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5064440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>311593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9024937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3903344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50" descr="Sci-Fi Box - 3D Model by VinZ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19809" r="17868"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20852128" y="63486156"/>
+          <a:ext cx="3960497" cy="3591751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3648,6 +4460,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="남 상현" id="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" userId="03ad4a8e8f7310f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3945,6 +4763,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-03-14T09:09:16.38" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{32E44EDA-25B7-4776-8035-79D1AFDA5440}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2022-03-14T09:16:09.18" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{46FF62E2-D372-4EAF-B814-3A6081B297BD}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2022-03-14T09:16:31.17" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{8983154E-C582-4C70-B009-7168E1694B74}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2022-03-14T09:16:40.06" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{914C5D93-BD66-4857-8379-E464D9166189}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2022-03-14T09:16:50.45" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{F74D44DD-1EB3-4195-A9F6-C4B1F0740E5C}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2022-03-14T09:16:55.01" personId="{AEF1E874-4EBA-43D1-BACA-2EF7AAEEE3D3}" id="{7628780D-DC72-498E-9CEF-27E3767A896E}">
+    <text>None : 없음
+Null : 아직 결정되지 않음</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -3959,58 +4806,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4040,11 +4887,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -4070,13 +4917,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4090,418 +4937,431 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3:T3"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="61.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.09765625" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="28" customWidth="1"/>
-    <col min="8" max="8" width="128.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="61.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.3984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="128.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="M2" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="83">
+        <v>2</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="N3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="83">
+        <v>3</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="N4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="83">
+        <v>4</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="83">
+        <v>5</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="1:14" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="83">
+        <v>6</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="83">
+        <v>7</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" spans="1:14" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="83">
+        <v>8</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="83">
+        <v>9</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="83">
+        <v>10</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="83">
+        <v>11</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="87"/>
+    </row>
+    <row r="13" spans="1:14" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="83">
+        <v>12</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="1:14" ht="186" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="83">
+        <v>13</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="83">
+        <v>14</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="87"/>
+    </row>
+    <row r="16" spans="1:14" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="83">
+        <v>15</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="87"/>
+    </row>
+    <row r="17" spans="1:7" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="83">
+        <v>16</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="87"/>
+    </row>
+    <row r="18" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="83">
+        <v>17</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="87"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="91">
+        <v>18</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="4" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4509,9 +5369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4527,491 +5387,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="56"/>
+      <c r="B3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="57"/>
+      <c r="B5" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="57"/>
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="59"/>
+      <c r="B11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="59"/>
+      <c r="B12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="80"/>
-      <c r="B3" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="81"/>
-      <c r="B5" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
-      <c r="B6" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="82"/>
-      <c r="B8" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="82"/>
-      <c r="B9" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="83"/>
-      <c r="B11" s="91" t="s">
+      <c r="C18" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="83"/>
-      <c r="B12" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="98" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5028,10 +5888,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5051,10 +5911,10 @@
     </row>
     <row r="33" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5071,7 +5931,7 @@
     </row>
     <row r="34" spans="8:21" x14ac:dyDescent="0.4">
       <c r="H34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="8:21" x14ac:dyDescent="0.4">
@@ -5079,19 +5939,19 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" s="36">
+        <v>53</v>
+      </c>
+      <c r="L35" s="10">
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q35" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="10">
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -5102,19 +5962,19 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="36">
+        <v>54</v>
+      </c>
+      <c r="L36" s="10">
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q36" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="10">
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="U36">
         <v>2</v>
@@ -5122,29 +5982,29 @@
     </row>
     <row r="37" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" s="36">
+        <v>55</v>
+      </c>
+      <c r="L37" s="10">
         <v>3</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="10">
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="U37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L38" s="36"/>
-      <c r="Q38" s="36"/>
+      <c r="L38" s="10"/>
+      <c r="Q38" s="10"/>
       <c r="S38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="U38">
         <v>4</v>
@@ -5155,85 +6015,85 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L39" s="36">
+        <v>61</v>
+      </c>
+      <c r="L39" s="10">
         <v>1</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="10">
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="36">
+        <v>62</v>
+      </c>
+      <c r="L40" s="10">
         <v>1</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="10">
         <v>2</v>
       </c>
       <c r="S40" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="36">
+        <v>63</v>
+      </c>
+      <c r="L41" s="10">
         <v>1</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="10">
         <v>2</v>
       </c>
       <c r="S41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I42" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="36">
+        <v>64</v>
+      </c>
+      <c r="L42" s="10">
         <v>1</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="10">
         <v>4</v>
       </c>
       <c r="S42" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L43" s="36"/>
-      <c r="Q43" s="36"/>
+      <c r="L43" s="10"/>
+      <c r="Q43" s="10"/>
       <c r="S43" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I44" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" s="36">
+        <v>56</v>
+      </c>
+      <c r="L44" s="10">
         <v>1</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="10">
         <v>3</v>
       </c>
       <c r="S44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="U44">
         <v>5</v>
@@ -5241,36 +6101,36 @@
     </row>
     <row r="45" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I45" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
-      </c>
-      <c r="L45" s="36">
+        <v>57</v>
+      </c>
+      <c r="L45" s="10">
         <v>1</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="10">
         <v>0.5</v>
       </c>
       <c r="S45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="8:21" x14ac:dyDescent="0.4">
       <c r="S46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L47">
         <f>SUM(L35:L45)</f>
         <v>15</v>
       </c>
       <c r="S47" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="10:12" x14ac:dyDescent="0.4">
@@ -5280,57 +6140,57 @@
     </row>
     <row r="51" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J51" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D5:J5"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EB40EF-7198-434C-8C4A-6007DB23D785}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAB65C3-193D-4BBD-9A08-F2DB34E8FFFE}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="960" windowWidth="17250" windowHeight="8865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>활성화하면 연계된 다른 오브젝트도 활성화됨
 버튼과 연계되는 오브젝트는 ppt에서 붉은색 테두리로 표시하였음</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1225,51 @@
     <t>벽에 고정된 패널에 버튼이
 부착된 외형으로 부탁드립
 니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7m x 0.3m x 0.5m
+0.3m x 0.3m x 0.5m
+1.0m x 0.5m x 0.5m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 붙어 있는, 스탠딩 등
+여러 가지 형태의 스크린이
+있으며, 스크린의 색은
+파란색 계열을 써서 만들어
+주시고, 엣지 부분은 무채색
+계열을 사용하고 날카로운
+느낌이 들게 해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도어락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 수 있는 모든 문 들'을 
+특정 조건이 만족되기 전 까지
+문을 열지 못하게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호를 알면 열 수 있는
+키패드형 도어락과
+손바닥을 찍어야 열 수 있는
+스캔형 도어락이 있습니다.
+둘 다 엣지는 무채색 계열로
+날카롭게 디자인 해주시고
+스크린 부분은 밝은 파란색 계열로 만들어주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3m x 0.5m x 0.5m
+0.3m x 0.3m x 0.5m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1974,13 +2015,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,6 +2222,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,18 +2300,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2137,137 +2384,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2494,9 +2666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3742371</xdr:colOff>
+      <xdr:colOff>3753801</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3798291</xdr:rowOff>
+      <xdr:rowOff>3790671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4342,7 +4514,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9024937</xdr:colOff>
+      <xdr:colOff>9009697</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>3903344</xdr:rowOff>
     </xdr:to>
@@ -4374,6 +4546,612 @@
         <a:xfrm>
           <a:off x="20852128" y="63486156"/>
           <a:ext cx="3960497" cy="3591751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196216</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3526155</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2495276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="Scifi 화면 초현대적에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15983904" y="74214038"/>
+          <a:ext cx="3333749" cy="2294298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7574282</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2842607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9585007</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4893454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38" descr="공상 과학 터미널 3D 모델 - TurboSquid 1436409">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23361970" y="76851857"/>
+          <a:ext cx="2018345" cy="2054657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162877</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2546034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4588192</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4937483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41" descr="공상 과학 소설 모니터 02 3D 모델 - TurboSquid 1319320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15950565" y="76555284"/>
+          <a:ext cx="4429125" cy="2399069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4701540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2663757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7373303</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4934957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43" descr="24 Sci Fi Computer Screens ideas | user interface design, interface design,  game interface">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20489228" y="76673007"/>
+          <a:ext cx="2662238" cy="2261675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6528434</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9616913</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2587943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44" descr="Sci-Fi Display Panel - 3D Model by SimonTGriffiths">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25778" t="15759" r="30535" b="17547"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22316122" y="74126408"/>
+          <a:ext cx="3092289" cy="2470785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3712845</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>406717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6267056</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2267901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47" descr="Sci-fi Monitor 3D Model $29 - .unknown .max .fbx .obj .dae .3ds - Free3D">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15877" b="11849"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19500533" y="74415967"/>
+          <a:ext cx="2567546" cy="1857374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4476511</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3429001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48" descr="Door lock biometric 3D model - TurboSquid 1339887">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15978188" y="79390876"/>
+          <a:ext cx="4299346" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4504372</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>206693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9734871</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3178493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49" descr="3D model Sci-Fi Door electric lock keypad or Card reader VR / AR / low-poly  | CGTrader">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20292060" y="79407068"/>
+          <a:ext cx="5217164" cy="2960370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5863590</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3529965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9195434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1686810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51" descr="mw_Vault Door (Texture)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21651278" y="82730340"/>
+          <a:ext cx="3326129" cy="3342255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3619500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5686424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52" descr="Steam의 GameGuru - Sci-Fi Mission to Mars Pack">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15978187" y="82819875"/>
+          <a:ext cx="5495925" cy="3105150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4806,58 +5584,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4887,11 +5665,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -4917,13 +5695,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4938,11 +5716,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -4957,7 +5735,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -4969,394 +5747,461 @@
       <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="77" t="s">
+      <c r="E1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="M2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="82"/>
-      <c r="M2" s="73" t="s">
+      <c r="N2" t="s">
         <v>127</v>
-      </c>
-      <c r="N2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="83">
+      <c r="A3" s="52">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="87"/>
+      <c r="D3" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56"/>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="83">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="87"/>
+      <c r="D4" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="83">
+      <c r="A5" s="52">
         <v>4</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="87"/>
+      <c r="D5" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="83">
+      <c r="A6" s="52">
         <v>5</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="87"/>
+      <c r="D6" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="83">
+      <c r="A7" s="52">
         <v>6</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="87"/>
+      <c r="D7" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="83">
+      <c r="A8" s="52">
         <v>7</v>
       </c>
-      <c r="B8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="85" t="s">
+      <c r="B8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="87"/>
+      <c r="D8" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:14" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83">
+      <c r="A9" s="52">
         <v>8</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="86" t="s">
+      <c r="D9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="F9" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="83">
+      <c r="A10" s="52">
         <v>9</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="87" t="s">
-        <v>134</v>
+      <c r="D10" s="53"/>
+      <c r="E10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="83">
+      <c r="A11" s="52">
         <v>10</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="87" t="s">
-        <v>134</v>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="83">
+      <c r="A12" s="52">
         <v>11</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="87"/>
+      <c r="D12" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:14" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83">
+      <c r="A13" s="52">
         <v>12</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="87"/>
+      <c r="D13" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:14" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="83">
+      <c r="A14" s="52">
         <v>13</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="87" t="s">
-        <v>134</v>
+      <c r="D14" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="83">
+      <c r="A15" s="52">
         <v>14</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="85" t="s">
+      <c r="B15" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="87"/>
+      <c r="D15" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:14" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="83">
+      <c r="A16" s="52">
         <v>15</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="87"/>
+      <c r="D16" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="83">
+      <c r="A17" s="52">
         <v>16</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="87"/>
+      <c r="D17" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="83">
+      <c r="A18" s="52">
         <v>17</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="96">
         <v>18</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87"/>
+      <c r="B19" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="91">
-        <v>18</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95" t="s">
+    <row r="20" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="96">
+        <v>19</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="113">
         <v>20</v>
       </c>
+      <c r="B21" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="103"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F21"/>
+    <row r="22" spans="1:7" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="114"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="104"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F25"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5388,490 +6233,490 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="P1" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
-        <v>97</v>
+      <c r="A2" s="87" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="11"/>
       <c r="P2" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="D3" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="12"/>
       <c r="P3" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57" t="s">
-        <v>68</v>
+      <c r="A4" s="89" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+        <v>120</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="L4" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="12"/>
       <c r="P4" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="57"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="12"/>
       <c r="P5" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="57"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
       <c r="O6" s="12"/>
       <c r="P6" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="58" t="s">
-        <v>69</v>
+      <c r="A7" s="90" t="s">
+        <v>68</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+        <v>118</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="12"/>
       <c r="P7" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="12"/>
       <c r="P8" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+        <v>109</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="12"/>
       <c r="P9" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="59" t="s">
-        <v>70</v>
+      <c r="A10" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+        <v>119</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="12"/>
       <c r="P10" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+        <v>112</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="12"/>
       <c r="P11" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+        <v>113</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="12"/>
       <c r="P12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="12"/>
       <c r="P13" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="12"/>
       <c r="P14" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+        <v>116</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
       <c r="O15" s="12"/>
       <c r="P15" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A16" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+        <v>117</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
       <c r="O16" s="12"/>
       <c r="P16" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+        <v>106</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="12"/>
       <c r="P17" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+        <v>99</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
       <c r="O18" s="15"/>
       <c r="P18" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5888,10 +6733,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
         <v>73</v>
-      </c>
-      <c r="L32" t="s">
-        <v>74</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5911,10 +6756,10 @@
     </row>
     <row r="33" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5931,7 +6776,7 @@
     </row>
     <row r="34" spans="8:21" x14ac:dyDescent="0.4">
       <c r="H34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="8:21" x14ac:dyDescent="0.4">
@@ -5939,19 +6784,19 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="10">
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="10">
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -5962,19 +6807,19 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" s="10">
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="10">
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U36">
         <v>2</v>
@@ -5982,19 +6827,19 @@
     </row>
     <row r="37" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="10">
         <v>3</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="10">
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U37">
         <v>3</v>
@@ -6004,7 +6849,7 @@
       <c r="L38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="S38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U38">
         <v>4</v>
@@ -6015,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="10">
         <v>1</v>
@@ -6024,12 +6869,12 @@
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L40" s="10">
         <v>1</v>
@@ -6038,12 +6883,12 @@
         <v>2</v>
       </c>
       <c r="S40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L41" s="10">
         <v>1</v>
@@ -6052,15 +6897,15 @@
         <v>2</v>
       </c>
       <c r="S41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L42" s="10">
         <v>1</v>
@@ -6069,22 +6914,22 @@
         <v>4</v>
       </c>
       <c r="S42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="8:21" x14ac:dyDescent="0.4">
       <c r="L43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="S43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L44" s="10">
         <v>1</v>
@@ -6093,7 +6938,7 @@
         <v>3</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U44">
         <v>5</v>
@@ -6101,10 +6946,10 @@
     </row>
     <row r="45" spans="8:21" x14ac:dyDescent="0.4">
       <c r="I45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="10">
         <v>1</v>
@@ -6113,24 +6958,24 @@
         <v>0.5</v>
       </c>
       <c r="S45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="8:21" x14ac:dyDescent="0.4">
       <c r="S46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="8:21" x14ac:dyDescent="0.4">
       <c r="J47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L47">
         <f>SUM(L35:L45)</f>
         <v>15</v>
       </c>
       <c r="S47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="10:12" x14ac:dyDescent="0.4">
@@ -6140,42 +6985,23 @@
     </row>
     <row r="51" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -6184,13 +7010,32 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAB65C3-193D-4BBD-9A08-F2DB34E8FFFE}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FD6593-3460-46E1-B999-250978B26659}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1505,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2089,13 +2089,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,6 +2322,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2300,6 +2352,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2309,6 +2400,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2318,127 +2472,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2476,9 +2525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9050632</xdr:colOff>
+      <xdr:colOff>9046822</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2803641</xdr:rowOff>
+      <xdr:rowOff>2799831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2544,7 +2593,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2382369</xdr:colOff>
+      <xdr:colOff>2378559</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2323893</xdr:rowOff>
     </xdr:to>
@@ -2666,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3753801</xdr:colOff>
+      <xdr:colOff>3749991</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3790671</xdr:rowOff>
+      <xdr:rowOff>3794481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2727,9 +2776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4208467</xdr:colOff>
+      <xdr:colOff>4212277</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2305581</xdr:rowOff>
+      <xdr:rowOff>2301771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2790,7 +2839,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>8195211</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3031532</xdr:rowOff>
+      <xdr:rowOff>3027722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2859,9 +2908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4512425</xdr:colOff>
+      <xdr:colOff>4516235</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2499312</xdr:rowOff>
+      <xdr:rowOff>2495502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2922,7 +2971,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>4537365</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4931261</xdr:rowOff>
+      <xdr:rowOff>4935071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2981,9 +3030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8932273</xdr:colOff>
+      <xdr:colOff>8936083</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4937045</xdr:rowOff>
+      <xdr:rowOff>4933235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3042,7 +3091,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4707196</xdr:colOff>
+      <xdr:colOff>4703386</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>4912179</xdr:rowOff>
     </xdr:to>
@@ -3103,9 +3152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8741501</xdr:colOff>
+      <xdr:colOff>8745311</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2572537</xdr:rowOff>
+      <xdr:rowOff>2568727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3164,9 +3213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9239250</xdr:colOff>
+      <xdr:colOff>9235440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5126156</xdr:rowOff>
+      <xdr:rowOff>5122346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3225,9 +3274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3329940</xdr:colOff>
+      <xdr:colOff>3333750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5050427</xdr:rowOff>
+      <xdr:rowOff>5046617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3286,9 +3335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9198873</xdr:colOff>
+      <xdr:colOff>9202683</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4899658</xdr:rowOff>
+      <xdr:rowOff>4895848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3347,7 +3396,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4708071</xdr:colOff>
+      <xdr:colOff>4704261</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>4342463</xdr:rowOff>
     </xdr:to>
@@ -3408,7 +3457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8859883</xdr:colOff>
+      <xdr:colOff>8856073</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2402839</xdr:rowOff>
     </xdr:to>
@@ -3469,7 +3518,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8668208</xdr:colOff>
+      <xdr:colOff>8664398</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>5143499</xdr:rowOff>
     </xdr:to>
@@ -3530,7 +3579,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4092806</xdr:colOff>
+      <xdr:colOff>4096616</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>5066645</xdr:rowOff>
     </xdr:to>
@@ -3591,9 +3640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4474052</xdr:colOff>
+      <xdr:colOff>4477862</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5011189</xdr:rowOff>
+      <xdr:rowOff>5007379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3650,9 +3699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7108249</xdr:colOff>
+      <xdr:colOff>7104439</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3714749</xdr:rowOff>
+      <xdr:rowOff>3718559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3713,7 +3762,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>498850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2231898</xdr:rowOff>
+      <xdr:rowOff>2228088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3755,9 +3804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5545008</xdr:colOff>
+      <xdr:colOff>5541198</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2270759</xdr:rowOff>
+      <xdr:rowOff>2266949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3818,7 +3867,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>5486400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4747259</xdr:rowOff>
+      <xdr:rowOff>4743449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3877,7 +3926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9356662</xdr:colOff>
+      <xdr:colOff>9352852</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>4724400</xdr:rowOff>
     </xdr:to>
@@ -3938,9 +3987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3825443</xdr:colOff>
+      <xdr:colOff>3829253</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3749040</xdr:rowOff>
+      <xdr:rowOff>3752850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4001,7 +4050,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>8915400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3215640</xdr:rowOff>
+      <xdr:rowOff>3219450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4060,9 +4109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9617926</xdr:colOff>
+      <xdr:colOff>9621736</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4779645</xdr:rowOff>
+      <xdr:rowOff>4783455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4121,9 +4170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6879794</xdr:colOff>
+      <xdr:colOff>6875984</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5048864</xdr:rowOff>
+      <xdr:rowOff>5045054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4165,9 +4214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9431979</xdr:colOff>
+      <xdr:colOff>9428169</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4935231</xdr:rowOff>
+      <xdr:rowOff>4931421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4209,9 +4258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8859202</xdr:colOff>
+      <xdr:colOff>8855392</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>4475798</xdr:rowOff>
+      <xdr:rowOff>4479608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4270,9 +4319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9657344</xdr:colOff>
+      <xdr:colOff>9661154</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3449246</xdr:rowOff>
+      <xdr:rowOff>3445436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4331,7 +4380,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3788146</xdr:colOff>
+      <xdr:colOff>3791956</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>4343400</xdr:rowOff>
     </xdr:to>
@@ -4455,7 +4504,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>2973014</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3521565</xdr:rowOff>
+      <xdr:rowOff>3525375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4514,9 +4563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9009697</xdr:colOff>
+      <xdr:colOff>9013507</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3903344</xdr:rowOff>
+      <xdr:rowOff>3907154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4573,9 +4622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3526155</xdr:colOff>
+      <xdr:colOff>3522345</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2495276</xdr:rowOff>
+      <xdr:rowOff>2499086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4634,9 +4683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9585007</xdr:colOff>
+      <xdr:colOff>9581197</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4893454</xdr:rowOff>
+      <xdr:rowOff>4897264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4695,9 +4744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4588192</xdr:colOff>
+      <xdr:colOff>4592002</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4937483</xdr:rowOff>
+      <xdr:rowOff>4933673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4756,9 +4805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7373303</xdr:colOff>
+      <xdr:colOff>7369493</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4934957</xdr:rowOff>
+      <xdr:rowOff>4931147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4817,7 +4866,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9616913</xdr:colOff>
+      <xdr:colOff>9620723</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2587943</xdr:rowOff>
     </xdr:to>
@@ -4876,9 +4925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6267056</xdr:colOff>
+      <xdr:colOff>6270866</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2267901</xdr:rowOff>
+      <xdr:rowOff>2264091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4935,7 +4984,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4476511</xdr:colOff>
+      <xdr:colOff>4480321</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>3429001</xdr:rowOff>
     </xdr:to>
@@ -4996,9 +5045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9734871</xdr:colOff>
+      <xdr:colOff>9731061</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>3178493</xdr:rowOff>
+      <xdr:rowOff>3182303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5057,9 +5106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9195434</xdr:colOff>
+      <xdr:colOff>9199244</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1686810</xdr:rowOff>
+      <xdr:rowOff>1696335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5118,9 +5167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5686424</xdr:colOff>
+      <xdr:colOff>5694044</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1533525</xdr:rowOff>
+      <xdr:rowOff>1543050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5152,6 +5201,248 @@
         <a:xfrm>
           <a:off x="15978187" y="82819875"/>
           <a:ext cx="5495925" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1799711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4628198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5089208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53" descr="Oldschool Hand Scanner, Błażej Kaczmarek | Futuristic technology, Sci fi  concept art, Sci fi props">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15948662" y="86191211"/>
+          <a:ext cx="4482464" cy="3289497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4698941</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2667000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54" descr="110 Sci Fi Inspiration ideas | concept ships, spaceship concept, sci fi  concept art">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16040099" y="90068400"/>
+          <a:ext cx="4502727" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4793931</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2236470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9620934</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4971097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55" descr="ArtStation - Sci-Fi Hand Scanner">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20581619" y="86627970"/>
+          <a:ext cx="4819383" cy="2734627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5295900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>236049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9067800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56" descr="Making of sci fi gadget 3ds max- Substance painter tutorial final part -  YouTube">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33609" r="25469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21145500" y="90113949"/>
+          <a:ext cx="3771900" cy="5075091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5584,58 +5875,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5665,11 +5956,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -5716,11 +6007,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6111,96 +6402,105 @@
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="96">
+      <c r="A19" s="65">
         <v>18</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="101" t="s">
+      <c r="F19" s="69"/>
+      <c r="G19" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="96">
+      <c r="A20" s="65">
         <v>19</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="113">
+      <c r="A21" s="75">
         <v>20</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="103"/>
+      <c r="G21" s="77"/>
     </row>
-    <row r="22" spans="1:7" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="114"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="104"/>
+    <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="120"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="115"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
+    <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="76"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="78"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F25"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6241,23 +6541,23 @@
       <c r="C1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
       <c r="O1" s="19" t="s">
         <v>104</v>
       </c>
@@ -6269,7 +6569,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="100" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -6278,52 +6578,52 @@
       <c r="C2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="11"/>
       <c r="P2" s="39" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="88"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="12"/>
       <c r="P3" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="102" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -6332,76 +6632,76 @@
       <c r="C4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
       <c r="O4" s="12"/>
       <c r="P4" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="89"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
       <c r="O5" s="12"/>
       <c r="P5" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="89"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="96"/>
       <c r="O6" s="12"/>
       <c r="P6" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="103" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -6410,72 +6710,72 @@
       <c r="C7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="79"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="96"/>
       <c r="O7" s="12"/>
       <c r="P7" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="96"/>
       <c r="O8" s="12"/>
       <c r="P8" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="90"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="12"/>
       <c r="P9" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="104" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -6484,65 +6784,65 @@
       <c r="C10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="12"/>
       <c r="P10" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="91"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="12"/>
       <c r="P11" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="91"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="96"/>
       <c r="O12" s="12"/>
       <c r="P12" s="40" t="s">
         <v>123</v>
@@ -6558,17 +6858,17 @@
       <c r="C13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="12"/>
       <c r="P13" s="40" t="s">
         <v>123</v>
@@ -6584,17 +6884,17 @@
       <c r="C14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="12"/>
       <c r="P14" s="40" t="s">
         <v>123</v>
@@ -6610,17 +6910,17 @@
       <c r="C15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="12"/>
       <c r="P15" s="40" t="s">
         <v>124</v>
@@ -6636,17 +6936,17 @@
       <c r="C16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="12"/>
       <c r="P16" s="40" t="s">
         <v>124</v>
@@ -6662,19 +6962,19 @@
       <c r="C17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="12"/>
       <c r="P17" s="40" t="s">
         <v>123</v>
@@ -6690,26 +6990,26 @@
       <c r="C18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
       <c r="O18" s="15"/>
       <c r="P18" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
@@ -6995,13 +7295,32 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -7010,32 +7329,13 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FD6593-3460-46E1-B999-250978B26659}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49A7795-0255-4203-AB26-E4F380606089}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <author>남상현</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{778A27F5-9218-4649-AC76-1DCFF6F81538}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{535A97C0-1F9C-4F63-94C1-4877A9CDCA24}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,386 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{45B2B68A-D9DE-4874-8619-4452538DFF71}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{45315C90-872B-4466-911C-615ABBB293C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>남상현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무기를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득하고
+그에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용법을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>튜토리얼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{5A4EBA68-94EC-403D-A3C3-46CFF9F4E9B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>남상현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자릿수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서
+첫째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서
+둘째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셋째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리는
+무기들의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{F878F1ED-09A5-446A-A205-BE534C072ABF}">
       <text>
         <r>
           <rPr>
@@ -496,7 +875,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,30 +1154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아리</t>
-  </si>
-  <si>
-    <t>앨리스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그래비티 </t>
-  </si>
-  <si>
-    <t>보스</t>
-  </si>
-  <si>
-    <t>탈출</t>
-  </si>
-  <si>
-    <t>툴팁 키 - 무기 툴팁 띄워주고</t>
-  </si>
-  <si>
-    <t>(맵을 더 이상 만들 시간이 없을 시, 몹과의 전투는 퍼즐스테이지에서 진행한다.)</t>
-  </si>
-  <si>
-    <t>(튜토리얼 포함 +1)</t>
-  </si>
-  <si>
     <t>아리 + 앨리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,18 +1167,6 @@
   </si>
   <si>
     <t>1 + 2 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,10 +1201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -871,10 +1210,6 @@
   </si>
   <si>
     <t>t3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우주에 와서 적응을 하고 있는 실험체에게 적응 훈련을 시키는 스토리를 가짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1122,11 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결국 잭을 막지 못했던 '이브'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
-잭을 상대하게 하고 정거장을 폭파시키려 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1270,6 +1600,673 @@
   <si>
     <t>0.3m x 0.5m x 0.5m
 0.3m x 0.3m x 0.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-02</t>
+  </si>
+  <si>
+    <t>침입자 발생으로 보안 프로그램 실행, 선체 구조 변경 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-03</t>
+  </si>
+  <si>
+    <t>B-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-02</t>
+  </si>
+  <si>
+    <t>t2와 연결되어 비슷한 분위기의 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-03</t>
+  </si>
+  <si>
+    <t>앞서가던 침입자들이 괴물들을 막기 위한 흔적이 남아있음. (연출 고민 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-02</t>
+  </si>
+  <si>
+    <t>C-03</t>
+  </si>
+  <si>
+    <t>파장 차단 전파를 관리하는 장치가 있는 곳으로, 괴물에 의해 일부 파손되어 시스템 오류가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-02</t>
+  </si>
+  <si>
+    <t>D-03</t>
+  </si>
+  <si>
+    <t>SYSTEM-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 시스템을 관리하는 곳으로, 잭은 모든 보안 시스템을 종료시키고 비상탈출선을 준비시키게 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 전시되어 있음. t3 ~ 3-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 오염된 안내 로봇 등장, 다음 스테이지와 연결되는 문 근처에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 흩뿌려져 있음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 얼룩져있음
+t2 ~ 2-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에서 풀어놓은 더 강한 괴물들을 마주함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마지막 보스를 처치한 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잭'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>결국 잭을 막지 못했던 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잭'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>우주에 와서 적응을 하고 있는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'에게 적응 훈련을 시키는 스토리를 가짐
+t1 ~ 1-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +2502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1584,193 +2581,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1794,17 +2607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1818,64 +2620,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -2120,13 +2868,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2157,338 +3050,287 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5468,23 +6310,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>20395</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2880501</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2878708</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1662730</xdr:rowOff>
+      <xdr:rowOff>1658920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,8 +6350,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14125015" y="922020"/>
-          <a:ext cx="2860106" cy="1632250"/>
+          <a:off x="14580310" y="752475"/>
+          <a:ext cx="2860106" cy="1630345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5875,58 +6717,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5956,11 +6798,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -5986,13 +6828,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6009,7 +6851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
@@ -6026,7 +6868,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -6038,469 +6880,469 @@
       <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="M2" s="42" t="s">
-        <v>126</v>
+      <c r="G2" s="19"/>
+      <c r="M2" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="52">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="24"/>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="D4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="24"/>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="56"/>
+      <c r="D5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="52">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="56"/>
+      <c r="D6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="52">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="56"/>
+      <c r="E7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="52">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="56"/>
+      <c r="E9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="52">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="56" t="s">
-        <v>133</v>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="56" t="s">
-        <v>133</v>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="52">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="56"/>
+      <c r="D13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="56" t="s">
-        <v>133</v>
+      <c r="E14" s="21"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="52">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="55" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="52">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="52">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="53" t="s">
+      <c r="D17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="56"/>
+      <c r="F17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="65">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="65">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="70"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="75">
+      <c r="A21" s="59">
         <v>20</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="85" t="s">
+      <c r="B21" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="77"/>
+      <c r="D21" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="120"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="115"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="76"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="78"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6512,11 +7354,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12:J12"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6524,818 +7366,614 @@
     <col min="1" max="1" width="16.09765625" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
     <col min="11" max="11" width="28.59765625" customWidth="1"/>
     <col min="15" max="15" width="38.59765625" customWidth="1"/>
-    <col min="16" max="16" width="28.59765625" customWidth="1"/>
+    <col min="16" max="16" width="40.5" customWidth="1"/>
     <col min="17" max="17" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="E1" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>122</v>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="39" t="s">
-        <v>124</v>
+    <row r="2" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="102" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="101"/>
-      <c r="B3" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="40" t="s">
-        <v>124</v>
+    <row r="3" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="66"/>
+      <c r="B3" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="102" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="67"/>
+      <c r="B5" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="67"/>
+      <c r="B6" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="68"/>
+      <c r="B8" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="68"/>
+      <c r="B9" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="40" t="s">
-        <v>124</v>
+      <c r="B18" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="103" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="102"/>
-      <c r="B5" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="102"/>
-      <c r="B6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="103"/>
-      <c r="B8" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="103"/>
-      <c r="B9" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="104"/>
-      <c r="B11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="104"/>
-      <c r="B12" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="J31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="10">
-        <v>3</v>
-      </c>
-      <c r="M35" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>1</v>
-      </c>
-      <c r="S35" t="s">
-        <v>67</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="10">
-        <v>3</v>
-      </c>
-      <c r="M36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>67</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J37" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="10">
-        <v>3</v>
-      </c>
-      <c r="M37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
-        <v>67</v>
-      </c>
-      <c r="U37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="S38" t="s">
-        <v>68</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>2</v>
-      </c>
-      <c r="S39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L40" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>2</v>
-      </c>
-      <c r="S40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>2</v>
-      </c>
-      <c r="S41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-      <c r="J42" t="s">
-        <v>63</v>
-      </c>
-      <c r="L42" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>4</v>
-      </c>
-      <c r="S42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="S43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" t="s">
-        <v>55</v>
-      </c>
-      <c r="L44" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>3</v>
-      </c>
-      <c r="S44" t="s">
-        <v>60</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="S45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="S46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L47">
-        <f>SUM(L35:L45)</f>
-        <v>15</v>
-      </c>
-      <c r="S47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="L49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="J51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="J52" t="s">
-        <v>58</v>
-      </c>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49A7795-0255-4203-AB26-E4F380606089}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C859EE24-1661-4E3F-8940-EEB13A939572}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{45315C90-872B-4466-911C-615ABBB293C3}">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{45315C90-872B-4466-911C-615ABBB293C3}">
       <text>
         <r>
           <rPr>
@@ -432,226 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{5A4EBA68-94EC-403D-A3C3-46CFF9F4E9B8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자릿수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서
-첫째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등장</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>순서
-둘째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리와</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>셋째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는
-무기들의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조합을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의미</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{F878F1ED-09A5-446A-A205-BE534C072ABF}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{F878F1ED-09A5-446A-A205-BE534C072ABF}">
       <text>
         <r>
           <rPr>
@@ -875,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미관용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유리 너머의 상태를 확인할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1151,34 +928,6 @@
     <t>플레이어가 웅크린 상태의
 높이와 10cm 정도 떨어져 있고 천장과 붙어있는
 obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리 + 앨리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앨리스 + 그래비티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리 + 그래비티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 + 2 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앨리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래비티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1213,10 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,26 +1003,6 @@
   </si>
   <si>
     <t>3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plus112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plus223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plus313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1323,10 +1048,6 @@
   </si>
   <si>
     <t>실험체와 전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1473,22 +1194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2, 1, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2m x 3m x 1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,10 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1684,101 +1385,6 @@
   </si>
   <si>
     <t>Z-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'가 전시되어 있음. t3 ~ 3-2 까지 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이너시오'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구실로, 안전과 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이너시오'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2267,6 +1873,228 @@
       </rPr>
       <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4m x 1m x 4m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물이나 생물을 밑에서 
+받쳐주는 바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 바닥
+(Floor_Inter_Noraml_01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 1m x 1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍이 뚫려 있어 이동이 가능하며
+빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍 뚫린 조명
+(Floor_Inter_Normal_02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직사각형 조명
+(Floor_Inter_Normal_03)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직사각형의 조명으로 밝은 빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 조명
+(Floor_Inter_Normal_04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형의 조명으로 밝은 빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주정거장에서 보이는 지구로, 
+플레이어가 있는 곳이 우주라는 것을
+알려주기 위한 장치다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 사용 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유</t>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오 + 그랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드 + 그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오 + 그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 전시되어 있음. t3 ~ 3-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,7 +2330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3013,13 +2841,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3143,6 +2997,126 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3152,6 +3126,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3188,149 +3180,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4595,50 +4488,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>335280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>498850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2228088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BC4DA1-4E17-4444-9511-A2F1E1215683}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26852880" y="1036320"/>
-          <a:ext cx="2083810" cy="4310252"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>516256</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4664,7 +4513,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4725,7 +4574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4786,7 +4635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4847,7 +4696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4908,7 +4757,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4969,7 +4818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5030,7 +4879,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5074,7 +4923,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5118,7 +4967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5179,7 +5028,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5240,7 +5089,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5301,7 +5150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5362,7 +5211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5423,7 +5272,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5482,7 +5331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5543,7 +5392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5604,7 +5453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5665,7 +5514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5726,7 +5575,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5785,7 +5634,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5844,7 +5693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5905,7 +5754,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5966,7 +5815,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6027,7 +5876,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6088,7 +5937,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6131,7 +5980,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4698941</xdr:colOff>
+      <xdr:colOff>4706561</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2667000</xdr:rowOff>
     </xdr:to>
@@ -6149,7 +5998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6210,7 +6059,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6247,15 +6096,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5295900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>236049</xdr:rowOff>
+      <xdr:colOff>5319713</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5167142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9067800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>9087803</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5013008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6271,7 +6120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6283,8 +6132,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21145500" y="90113949"/>
-          <a:ext cx="3771900" cy="5075091"/>
+          <a:off x="21107401" y="89558642"/>
+          <a:ext cx="3771900" cy="5044611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6303,6 +6152,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1544002</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>397193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7713344</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4742298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17331690" y="95170943"/>
+          <a:ext cx="6169342" cy="4352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1664970</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7640002</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5116351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18929033" y="100536375"/>
+          <a:ext cx="5978842" cy="4542946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7715248</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5001331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18978562" y="105315067"/>
+          <a:ext cx="6000749" cy="4842264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1849755</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7981608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4808219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19113818" y="110526194"/>
+          <a:ext cx="6131853" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6310,16 +6335,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20395</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95026</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>50986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2878708</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2953339</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1658920</xdr:rowOff>
+      <xdr:rowOff>1677521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6350,8 +6375,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14580310" y="752475"/>
-          <a:ext cx="2860106" cy="1630345"/>
+          <a:off x="19873408" y="768162"/>
+          <a:ext cx="2858313" cy="1626535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6717,58 +6742,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6787,7 +6812,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6798,11 +6823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6828,13 +6853,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6849,17 +6874,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.69921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46.296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="61.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="45.3984375" style="5" customWidth="1"/>
@@ -6867,7 +6892,7 @@
     <col min="7" max="7" width="128.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6906,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>37</v>
@@ -6890,7 +6915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="189" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -6901,25 +6926,20 @@
         <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="M2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" t="s">
-        <v>113</v>
-      </c>
+      <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20">
-        <v>2</v>
+    <row r="3" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>21</v>
@@ -6928,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>42</v>
@@ -6937,11 +6957,8 @@
         <v>38</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="N3" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -6952,20 +6969,17 @@
         <v>13</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G4" s="24"/>
-      <c r="N4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -6976,17 +6990,17 @@
         <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -6997,17 +7011,17 @@
         <v>13</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -7018,17 +7032,17 @@
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -7038,16 +7052,16 @@
       <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>46</v>
+      <c r="D8" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -7061,14 +7075,14 @@
         <v>45</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -7080,14 +7094,14 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="24" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -7099,14 +7113,14 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="24" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -7117,7 +7131,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>41</v>
@@ -7127,7 +7141,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:14" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -7138,15 +7152,15 @@
         <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="23" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:14" ht="186" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -7157,15 +7171,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="25"/>
       <c r="G14" s="24" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -7176,7 +7190,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="23" t="s">
@@ -7184,12 +7198,12 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>13</v>
@@ -7214,13 +7228,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G17" s="24"/>
     </row>
@@ -7254,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>36</v>
@@ -7269,70 +7283,179 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="59">
+      <c r="A21" s="87">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="44"/>
+      <c r="D21" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="60"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="46"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="92"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+    <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="69">
+        <v>21</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F26"/>
+    <row r="25" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="69">
+        <v>22</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="69">
+        <v>23</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="69">
+        <v>24</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="69">
+        <v>25</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="69">
+        <v>26</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="69">
+        <v>27</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7354,626 +7477,682 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12:O12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="11" max="11" width="28.59765625" customWidth="1"/>
-    <col min="15" max="15" width="38.59765625" customWidth="1"/>
-    <col min="16" max="16" width="40.5" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="28.59765625" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="38.59765625" customWidth="1"/>
+    <col min="17" max="17" width="40.5" customWidth="1"/>
+    <col min="18" max="18" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="111"/>
+      <c r="B3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="112"/>
+      <c r="B5" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="112"/>
+      <c r="B6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107"/>
+      <c r="B8" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="107"/>
+      <c r="B9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="108"/>
+      <c r="B11" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="108"/>
+      <c r="B12" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>108</v>
+      <c r="F18" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="67" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67"/>
-      <c r="B5" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67"/>
-      <c r="B6" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="69"/>
-      <c r="B11" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="69"/>
-      <c r="B12" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\GangsterHamster\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C859EE24-1661-4E3F-8940-EEB13A939572}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2757ED3-B6FC-4875-9D9C-DFF22CE8BC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,555 +106,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>남상현</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{535A97C0-1F9C-4F63-94C1-4877A9CDCA24}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득하고
-그에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용법을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>배우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>튜토리얼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스테이지</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{45315C90-872B-4466-911C-615ABBB293C3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득하고
-그에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용법을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>배우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>튜토리얼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스테이지</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{F878F1ED-09A5-446A-A205-BE534C072ABF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자릿수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서
-첫째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등장</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>순서
-둘째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리와</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>셋째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는
-무기들의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조합을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의미</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
   <si>
@@ -1433,102 +884,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>이 흩뿌려져 있음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카인'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카인'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>으로 얼룩져있음
-t2 ~ 2-2 까지 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그랜드'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구실로, 안전과 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그랜드'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,164 +1069,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>의 사용이 가능해짐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>마지막 보스를 처치한 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잭'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>결국 잭을 막지 못했던 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이브</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잭'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>우주에 와서 적응을 하고 있는 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>잭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'에게 적응 훈련을 시키는 스토리를 가짐
-t1 ~ 1-2 까지 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이너시오'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구실로, 안전과 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이너시오'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2097,6 +1294,283 @@
     <t>S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>결국 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'을 막지 못했던 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마지막 보스를 처치한 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 인해 정신과 육체가 이상해진 실험자의 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 얼룩져있음 t2 ~ 2-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>우주에 와서 적응을 하고 있는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'에게 적응 훈련을 시키는 스토리를 가짐
+t1 ~ 1-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 
+파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2106,7 +1580,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2197,34 +1671,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2904,10 +2350,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,10 +2440,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,10 +2461,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
@@ -3030,10 +2476,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
@@ -3045,19 +2491,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
@@ -3069,13 +2515,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3096,25 +2542,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3180,50 +2626,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6939,7 +6385,7 @@
     </row>
     <row r="3" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>21</v>
@@ -7053,7 +6499,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>99</v>
@@ -7341,16 +6787,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
@@ -7360,16 +6806,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
@@ -7379,16 +6825,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C26" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="70"/>
@@ -7398,16 +6844,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C27" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70"/>
@@ -7476,12 +6922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7507,7 +6953,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>117</v>
@@ -7515,23 +6961,23 @@
       <c r="E1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
       <c r="Q1" s="40" t="s">
         <v>77</v>
       </c>
@@ -7540,7 +6986,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="108" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -7550,31 +6996,31 @@
         <v>95</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="50"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
       <c r="Q2" s="51"/>
       <c r="R2" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="52" t="s">
         <v>53</v>
       </c>
@@ -7582,32 +7028,32 @@
         <v>95</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="55"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="112" t="s">
-        <v>164</v>
+      <c r="A4" s="110" t="s">
+        <v>160</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -7621,28 +7067,28 @@
       <c r="E4" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="F4" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
       <c r="Q4" s="56"/>
       <c r="R4" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="112"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="57" t="s">
         <v>64</v>
       </c>
@@ -7655,26 +7101,26 @@
       <c r="E5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="55"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
       <c r="Q5" s="56"/>
       <c r="R5" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="112"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="57" t="s">
         <v>121</v>
       </c>
@@ -7687,27 +7133,27 @@
       <c r="E6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="55"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="107" t="s">
-        <v>165</v>
+      <c r="A7" s="111" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>56</v>
@@ -7721,26 +7167,26 @@
       <c r="E7" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="F7" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="58" t="s">
         <v>65</v>
       </c>
@@ -7753,26 +7199,26 @@
       <c r="E8" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="107"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="59" t="s">
         <v>66</v>
       </c>
@@ -7785,27 +7231,27 @@
       <c r="E9" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="55"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="108" t="s">
-        <v>166</v>
+      <c r="A10" s="112" t="s">
+        <v>162</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>57</v>
@@ -7819,31 +7265,31 @@
       <c r="E10" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+      <c r="F10" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="59" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>129</v>
@@ -7851,31 +7297,31 @@
       <c r="E11" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
+      <c r="F11" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="108"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="59" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>130</v>
@@ -7883,19 +7329,19 @@
       <c r="E12" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="66" t="s">
         <v>94</v>
@@ -7903,13 +7349,13 @@
     </row>
     <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>132</v>
@@ -7917,19 +7363,19 @@
       <c r="E13" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
+      <c r="F13" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="66" t="s">
         <v>94</v>
@@ -7937,13 +7383,13 @@
     </row>
     <row r="14" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>133</v>
@@ -7951,19 +7397,19 @@
       <c r="E14" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+      <c r="F14" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="66" t="s">
         <v>94</v>
@@ -7971,13 +7417,13 @@
     </row>
     <row r="15" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>134</v>
@@ -7985,19 +7431,19 @@
       <c r="E15" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
+      <c r="F15" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="55"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="66" t="s">
         <v>95</v>
@@ -8005,13 +7451,13 @@
     </row>
     <row r="16" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>135</v>
@@ -8019,19 +7465,19 @@
       <c r="E16" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="56"/>
       <c r="R16" s="66" t="s">
         <v>95</v>
@@ -8042,7 +7488,7 @@
         <v>69</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="76" t="s">
         <v>95</v>
@@ -8053,19 +7499,19 @@
       <c r="E17" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
+      <c r="F17" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="55"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="56"/>
       <c r="R17" s="66" t="s">
         <v>94</v>
@@ -8076,7 +7522,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>95</v>
@@ -8087,58 +7533,31 @@
       <c r="E18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
+      <c r="F18" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="63"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
       <c r="Q18" s="64"/>
       <c r="R18" s="67" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8153,11 +7572,37 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="N14:P14"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{B9F8D202-031C-44A2-9799-ACCDA2923B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C859EE24-1661-4E3F-8940-EEB13A939572}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="obj" sheetId="1" r:id="rId3"/>
     <sheet name="stage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={32E44EDA-25B7-4776-8035-79D1AFDA5440}</author>
     <author>tc={46FF62E2-D372-4EAF-B814-3A6081B297BD}</author>
@@ -48,58 +42,118 @@
     <author>tc={7628780D-DC72-498E-9CEF-27E3767A896E}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{32E44EDA-25B7-4776-8035-79D1AFDA5440}">
+    <comment ref="A1" authorId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{46FF62E2-D372-4EAF-B814-3A6081B297BD}">
+    <comment ref="B1" authorId="1">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{8983154E-C582-4C70-B009-7168E1694B74}">
+    <comment ref="D1" authorId="2">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{914C5D93-BD66-4857-8379-E464D9166189}">
+    <comment ref="E1" authorId="3">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{F74D44DD-1EB3-4195-A9F6-C4B1F0740E5C}">
+    <comment ref="F1" authorId="4">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{7628780D-DC72-498E-9CEF-27E3767A896E}">
+    <comment ref="G1" authorId="5">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -107,12 +161,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>남상현</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{535A97C0-1F9C-4F63-94C1-4877A9CDCA24}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{45315C90-872B-4466-911C-615ABBB293C3}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{F878F1ED-09A5-446A-A205-BE534C072ABF}">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -770,11 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>활성화하면 연계된 다른 오브젝트도 활성화됨
-버튼과 연계되는 오브젝트는 ppt에서 붉은색 테두리로 표시하였음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,13 +977,6 @@
     <t>플레이어가 웅크린 상태의
 높이와 10cm 정도 떨어져 있고 천장과 붙어있는
 obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽에 붙어있는 버튼으로 물리적 충격을
-받으면 버튼이 눌리며, 버튼과 연결된
-오브젝트가 작동합니다.
-(ppt상 붉은 화살표로 표현)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2097,11 +2139,23 @@
     <t>S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>벽에 붙어있는 버튼으로 물리적 충격을
+받으면 버튼이 눌리며, 버튼과 연결된
+오브젝트가 작동합니다.
+(ppt상 같은 색상으로 표현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화하면 연계된 다른 오브젝트도 활성화됨
+버튼과 연계되는 오브젝트는 ppt에서 같은 색상으로 표현하여 묶어두었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -3180,50 +3234,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3269,7 +3323,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3391,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3452,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3513,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3574,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3635,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3706,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3767,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,7 +3828,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3835,7 +3889,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +3950,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,7 +4011,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,7 +4072,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4133,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4140,7 +4194,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4255,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4316,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4377,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4384,7 +4438,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4443,7 +4497,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4558,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4619,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4626,7 +4680,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4741,7 @@
         <xdr:cNvPr id="35" name="그림 34" descr="컨베이어 벨트 3D 모델 - TurboSquid 909860">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4748,7 +4802,7 @@
         <xdr:cNvPr id="36" name="그림 35" descr="컨베이어란?/컨베이어의 종류 및 특징/벨트,스크류,공기,롤러,버킷 컨베이어">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +4863,7 @@
         <xdr:cNvPr id="37" name="그림 36" descr="Sports Equipment Storage | Greene Manufacturing, Inc.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4870,7 +4924,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4968,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4958,7 +5012,7 @@
         <xdr:cNvPr id="40" name="그림 39" descr="Single Door Push Button “Plain” (2430) ”Doors Open” (2431) | BMAC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +5073,7 @@
         <xdr:cNvPr id="41" name="그림 40" descr="Portal floor button free VR / AR / low-poly 3D model | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5134,7 @@
         <xdr:cNvPr id="43" name="그림 42" descr="Eye Switch - Zelda Dungeon Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5141,7 +5195,7 @@
         <xdr:cNvPr id="46" name="그림 45" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5202,7 +5256,7 @@
         <xdr:cNvPr id="47" name="그림 46" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5263,7 +5317,7 @@
         <xdr:cNvPr id="51" name="그림 50" descr="Sci-Fi Box - 3D Model by VinZ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,7 +5376,7 @@
         <xdr:cNvPr id="38" name="그림 37" descr="Scifi 화면 초현대적에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5437,7 @@
         <xdr:cNvPr id="39" name="그림 38" descr="공상 과학 터미널 3D 모델 - TurboSquid 1436409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5498,7 @@
         <xdr:cNvPr id="42" name="그림 41" descr="공상 과학 소설 모니터 02 3D 모델 - TurboSquid 1319320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5559,7 @@
         <xdr:cNvPr id="44" name="그림 43" descr="24 Sci Fi Computer Screens ideas | user interface design, interface design,  game interface">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +5620,7 @@
         <xdr:cNvPr id="45" name="그림 44" descr="Sci-Fi Display Panel - 3D Model by SimonTGriffiths">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5625,7 +5679,7 @@
         <xdr:cNvPr id="48" name="그림 47" descr="Sci-fi Monitor 3D Model $29 - .unknown .max .fbx .obj .dae .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5684,7 +5738,7 @@
         <xdr:cNvPr id="49" name="그림 48" descr="Door lock biometric 3D model - TurboSquid 1339887">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5745,7 +5799,7 @@
         <xdr:cNvPr id="50" name="그림 49" descr="3D model Sci-Fi Door electric lock keypad or Card reader VR / AR / low-poly  | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5806,7 +5860,7 @@
         <xdr:cNvPr id="52" name="그림 51" descr="mw_Vault Door (Texture)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5867,7 +5921,7 @@
         <xdr:cNvPr id="53" name="그림 52" descr="Steam의 GameGuru - Sci-Fi Mission to Mars Pack">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5928,7 +5982,7 @@
         <xdr:cNvPr id="54" name="그림 53" descr="Oldschool Hand Scanner, Błażej Kaczmarek | Futuristic technology, Sci fi  concept art, Sci fi props">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5989,7 +6043,7 @@
         <xdr:cNvPr id="55" name="그림 54" descr="110 Sci Fi Inspiration ideas | concept ships, spaceship concept, sci fi  concept art">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6050,7 +6104,7 @@
         <xdr:cNvPr id="56" name="그림 55" descr="ArtStation - Sci-Fi Hand Scanner">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6111,7 +6165,7 @@
         <xdr:cNvPr id="57" name="그림 56" descr="Making of sci fi gadget 3ds max- Substance painter tutorial final part -  YouTube">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6170,7 +6224,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6214,7 +6268,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6312,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6302,7 +6356,7 @@
         <xdr:cNvPr id="26" name="그림 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6405,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6447,7 +6501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6499,7 +6553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6693,7 +6747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6729,7 +6783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6805,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6853,13 +6907,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6873,12 +6927,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21:E23"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6906,10 +6960,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>9</v>
@@ -6920,41 +6974,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="19"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="24"/>
     </row>
@@ -6963,19 +7017,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="24"/>
     </row>
@@ -6984,19 +7038,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="24"/>
     </row>
@@ -7005,19 +7059,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -7026,19 +7080,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -7047,16 +7101,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="24"/>
@@ -7066,19 +7120,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="24"/>
     </row>
@@ -7087,18 +7141,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7106,18 +7160,18 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7125,19 +7179,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -7146,17 +7200,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="24"/>
     </row>
@@ -7165,18 +7219,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="25"/>
       <c r="G14" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7184,17 +7238,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -7203,16 +7257,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="24"/>
@@ -7222,19 +7276,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17" s="24"/>
     </row>
@@ -7243,16 +7297,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="24"/>
@@ -7268,14 +7322,14 @@
         <v>13</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7283,17 +7337,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -7302,19 +7356,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="96" t="s">
-        <v>116</v>
-      </c>
       <c r="F21" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="90"/>
     </row>
@@ -7341,16 +7395,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
@@ -7360,16 +7414,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
@@ -7379,16 +7433,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="70"/>
@@ -7398,16 +7452,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70"/>
@@ -7476,12 +7530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7501,644 +7555,617 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="40" t="s">
-        <v>77</v>
-      </c>
       <c r="R1" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
-        <v>69</v>
+      <c r="A2" s="108" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+        <v>57</v>
+      </c>
+      <c r="F2" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="50"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
       <c r="Q2" s="51"/>
       <c r="R2" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+        <v>52</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="55"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="112" t="s">
-        <v>164</v>
+      <c r="A4" s="110" t="s">
+        <v>162</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+        <v>90</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
+      <c r="N4" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
       <c r="Q4" s="56"/>
       <c r="R4" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="112"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+        <v>80</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="55"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
       <c r="Q5" s="56"/>
       <c r="R5" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="112"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
+        <v>81</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="55"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="107" t="s">
-        <v>165</v>
+      <c r="A7" s="111" t="s">
+        <v>163</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+        <v>88</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+        <v>78</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="107"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="55"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="108" t="s">
-        <v>166</v>
+      <c r="A10" s="112" t="s">
+        <v>164</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+        <v>89</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
+        <v>82</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="108"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
+        <v>83</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
+        <v>84</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+        <v>85</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
+        <v>86</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="55"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+        <v>87</v>
+      </c>
+      <c r="F16" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="56"/>
       <c r="R16" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
+        <v>77</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="55"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="56"/>
       <c r="R17" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
+        <v>70</v>
+      </c>
+      <c r="F18" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="63"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
       <c r="Q18" s="64"/>
       <c r="R18" s="67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8153,6 +8180,33 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="N14:P14"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\바탕 화면\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F4B1D-A1C4-49AC-A343-B63E9B16FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="obj" sheetId="1" r:id="rId3"/>
     <sheet name="stage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={32E44EDA-25B7-4776-8035-79D1AFDA5440}</author>
     <author>tc={46FF62E2-D372-4EAF-B814-3A6081B297BD}</author>
@@ -42,667 +48,58 @@
     <author>tc={7628780D-DC72-498E-9CEF-27E3767A896E}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{32E44EDA-25B7-4776-8035-79D1AFDA5440}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{46FF62E2-D372-4EAF-B814-3A6081B297BD}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{8983154E-C582-4C70-B009-7168E1694B74}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="3">
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{914C5D93-BD66-4857-8379-E464D9166189}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="4">
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{F74D44DD-1EB3-4195-A9F6-C4B1F0740E5C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="5">
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{7628780D-DC72-498E-9CEF-27E3767A896E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     None : 없음
 Null : 아직 결정되지 않음</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>남상현</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득하고
-그에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용법을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>배우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>튜토리얼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스테이지</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득하고
-그에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용법을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>배우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>튜토리얼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스테이지</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>남상현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자릿수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서
-첫째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등장</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>순서
-둘째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리와</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>셋째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리는
-무기들의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조합을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의미</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -710,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="182">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,6 +377,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>벽에 붙어있는 버튼으로 물리적 충격을
+받으면 버튼이 눌리며, 버튼과 연결된
+오브젝트가 작동합니다.
+(ppt상 붉은 화살표로 표현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,11 +485,6 @@
   </si>
   <si>
     <t>연출-레퍼런스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면을 흑백으로 만들고
-이동속도를 간헐적으로          바꿔 산소결핍을 연출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1480,6 +879,518 @@
   </si>
   <si>
     <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에서 풀어놓은 더 강한 괴물들을 마주함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그랜드'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템 오류로 인해 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 사용이 가능해짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4m x 1m x 4m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물이나 생물을 밑에서 
+받쳐주는 바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 바닥
+(Floor_Inter_Noraml_01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 1m x 1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍이 뚫려 있어 이동이 가능하며
+빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍 뚫린 조명
+(Floor_Inter_Normal_02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직사각형 조명
+(Floor_Inter_Normal_03)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직사각형의 조명으로 밝은 빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 조명
+(Floor_Inter_Normal_04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형의 조명으로 밝은 빛을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주정거장에서 보이는 지구로, 
+플레이어가 있는 곳이 우주라는 것을
+알려주기 위한 장치다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 사용 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유</t>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오 + 그랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드 + 그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이너시오 + 그라비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 전시되어 있음. t3 ~ 3-2 까지 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그라비토'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>결국 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'을 막지 못했던 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마지막 보스를 처치한 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1500,7 +1411,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 '</t>
+      <t>으로 인해 정신과 육체가 이상해진 실험자의 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 '</t>
     </r>
     <r>
       <rPr>
@@ -1523,8 +1434,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>으로 얼룩져있음
-t2 ~ 2-2 까지 '</t>
+      <t>으로 얼룩져있음 t2 ~ 2-2 까지 '</t>
     </r>
     <r>
       <rPr>
@@ -1576,7 +1486,7 @@
   </si>
   <si>
     <r>
-      <t>'</t>
+      <t>이브우주에 와서 적응을 하고 있는 '</t>
     </r>
     <r>
       <rPr>
@@ -1588,7 +1498,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이브'</t>
+      <t>살바토레</t>
     </r>
     <r>
       <rPr>
@@ -1599,13 +1509,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>에서 풀어놓은 더 강한 괴물들을 마주함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>시스템 오류로 인해 '</t>
+      <t>'에게 적응 훈련을 시키는 스토리를 가짐
+t1 ~ 1-2 까지 '</t>
     </r>
     <r>
       <rPr>
@@ -1628,88 +1533,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>와 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그랜드'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 사용이 가능해짐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>시스템 오류로 인해 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그랜드'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>와 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 사용이 가능해짐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>시스템 오류로 인해 '</t>
+      <t xml:space="preserve"> 연구실로, 안전과 '</t>
     </r>
     <r>
       <rPr>
@@ -1732,7 +1556,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>와 '</t>
+      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 
+파장을 차단시킴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>절차대로 냉동된 상태로 우주정거장에 도착하고 해동되어 숙소에 가게 된 '</t>
     </r>
     <r>
       <rPr>
@@ -1744,7 +1579,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>그라비토'</t>
+      <t>살바토레</t>
     </r>
     <r>
       <rPr>
@@ -1755,13 +1590,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>의 사용이 가능해짐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>마지막 보스를 처치한 '</t>
+      <t>'가 깨어난다. 이후, 숙소 밖으로 나가 실험에 참여하라는 '</t>
     </r>
     <r>
       <rPr>
@@ -1773,7 +1602,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>잭'</t>
+      <t>AI</t>
     </r>
     <r>
       <rPr>
@@ -1784,13 +1613,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>결국 잭을 막지 못했던 '</t>
+      <t>'의 말을 듣는다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이후 숙소에서 복도로 나온 '살바토레'에게 '</t>
     </r>
     <r>
       <rPr>
@@ -1802,7 +1631,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이브</t>
+      <t>AI</t>
     </r>
     <r>
       <rPr>
@@ -1813,8 +1642,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
-'</t>
+      <t>'는 '</t>
     </r>
     <r>
       <rPr>
@@ -1826,7 +1654,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>잭'</t>
+      <t>살바토레</t>
     </r>
     <r>
       <rPr>
@@ -1837,13 +1665,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>우주에 와서 적응을 하고 있는 '</t>
+      <t>'가 해야할 실험들에 대해 신난듯이 이야기하고, 타 실험들과 과거 실험들에  대해 이야기 하다가 끊긴다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1855,7 +1683,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>잭</t>
+      <t>살바토레</t>
     </r>
     <r>
       <rPr>
@@ -1866,8 +1694,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'에게 적응 훈련을 시키는 스토리를 가짐
-t1 ~ 1-2 까지 '</t>
+      <t>"는 "</t>
     </r>
     <r>
       <rPr>
@@ -1879,7 +1706,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이너시오'</t>
+      <t>AI</t>
     </r>
     <r>
       <rPr>
@@ -1890,7 +1717,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 연구실로, 안전과 '</t>
+      <t>"의 지시에 따라 기초 운동 능력을 테스트하고 "</t>
     </r>
     <r>
       <rPr>
@@ -1902,7 +1729,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이너시오'</t>
+      <t>이너시오</t>
     </r>
     <r>
       <rPr>
@@ -1913,237 +1740,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4m x 1m x 4m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사물이나 생물을 밑에서 
-받쳐주는 바닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 바닥
-(Floor_Inter_Noraml_01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m x 1m x 1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구멍이 뚫려 있어 이동이 가능하며
-빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구멍 뚫린 조명
-(Floor_Inter_Normal_02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">직사각형 조명
-(Floor_Inter_Normal_03)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직사각형의 조명으로 밝은 빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형 조명
-(Floor_Inter_Normal_04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형의 조명으로 밝은 빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우주정거장에서 보이는 지구로, 
-플레이어가 있는 곳이 우주라는 것을
-알려주기 위한 장치다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에셋 사용 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유</t>
-  </si>
-  <si>
-    <t>N1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이너시오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그라비토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이너시오 + 그랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드 + 그라비토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이너시오 + 그라비토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'가 전시되어 있음. t3 ~ 3-2 까지 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구실로, 안전과 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그라비토'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽에 붙어있는 버튼으로 물리적 충격을
-받으면 버튼이 눌리며, 버튼과 연결된
-오브젝트가 작동합니다.
-(ppt상 같은 색상으로 표현)</t>
+      <t>"를 잡아 들고 이너시오마저 테스트를 끝내고, 실험실의 관찰실로 나간다. "살바토레"가 실험실 밖으로 나가자마자 경고음이 수차례 울리고 정거장내에 침입자가 들어와 산소 농도를 줄인다는 안내 방송이 울려퍼졌다. 방송이 끝나자마자 곧장 "살바토레"는 어지럼증을 느끼고 넘어진다. 이윽고 갑옷을 입고 총을 들고 있는 사람이 관찰실 안으로 들어와 관찰실의 구석에 있는 통을 잡고통 안에 있는 하늘색 액체를 방의 온갖 곳에 뿌렸다. "AI"는 소리지르며 괴한을 막으려 했지만, 괴한은 아랑곳 하지 않고 방의 모든 곳에 액체를 뿌렸다. "AI"의 본체에 액체가 뭍자 AI의 목소리는 끊기게 되었다. "살바토레"에게도 액체를 뭍이고 괴한은 방에서 나간다. 
+이윽고 "살바토레"는 몸이 찢기는 거 같은 고통을 느끼며 발작을 일으키고 괴성을 질렀다. 잠시 후 "AI"는 "살바토레"에게 옆의 문에 있는 키패드에 비밀번호를 입력하고 들어가, 안에 있는 슈트를 착용하라고 하였다. 이에 엄청난 고통을 느끼고 있는  "살바토레"는 비밀번호를 입력하고 문을 열고 들어가 슈트를 착용한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면을 흑백으로 만들고
+이동속도를 간헐적으로          
+바꿔 산소결핍을 연출
+화면상에 하늘색 액체 혹은 특정 범위를 하늘색 빛이 돌게 만들어
+하늘색 액체에 뭍은 것을 직접적으로 표현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2155,12 +1762,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,34 +1858,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2927,7 +2506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2958,10 +2537,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3048,10 +2627,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3069,10 +2648,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
@@ -3084,10 +2663,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
@@ -3099,19 +2678,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
@@ -3123,13 +2702,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3150,26 +2729,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3234,10 +2828,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3323,7 +2917,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +2985,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3046,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3107,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3168,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3229,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3300,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3361,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3828,7 +3422,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3483,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +3544,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,7 +3605,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +3666,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +3727,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +3788,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +3849,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +3910,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,7 +3971,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4032,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4497,7 +4091,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4558,7 +4152,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,7 +4213,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4274,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4335,7 @@
         <xdr:cNvPr id="35" name="그림 34" descr="컨베이어 벨트 3D 모델 - TurboSquid 909860">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +4396,7 @@
         <xdr:cNvPr id="36" name="그림 35" descr="컨베이어란?/컨베이어의 종류 및 특징/벨트,스크류,공기,롤러,버킷 컨베이어">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4863,7 +4457,7 @@
         <xdr:cNvPr id="37" name="그림 36" descr="Sports Equipment Storage | Greene Manufacturing, Inc.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4924,7 +4518,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4968,7 +4562,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5012,7 +4606,7 @@
         <xdr:cNvPr id="40" name="그림 39" descr="Single Door Push Button “Plain” (2430) ”Doors Open” (2431) | BMAC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5073,7 +4667,7 @@
         <xdr:cNvPr id="41" name="그림 40" descr="Portal floor button free VR / AR / low-poly 3D model | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +4728,7 @@
         <xdr:cNvPr id="43" name="그림 42" descr="Eye Switch - Zelda Dungeon Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +4789,7 @@
         <xdr:cNvPr id="46" name="그림 45" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5256,7 +4850,7 @@
         <xdr:cNvPr id="47" name="그림 46" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5317,7 +4911,7 @@
         <xdr:cNvPr id="51" name="그림 50" descr="Sci-Fi Box - 3D Model by VinZ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5376,7 +4970,7 @@
         <xdr:cNvPr id="38" name="그림 37" descr="Scifi 화면 초현대적에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5437,7 +5031,7 @@
         <xdr:cNvPr id="39" name="그림 38" descr="공상 과학 터미널 3D 모델 - TurboSquid 1436409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5498,7 +5092,7 @@
         <xdr:cNvPr id="42" name="그림 41" descr="공상 과학 소설 모니터 02 3D 모델 - TurboSquid 1319320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5153,7 @@
         <xdr:cNvPr id="44" name="그림 43" descr="24 Sci Fi Computer Screens ideas | user interface design, interface design,  game interface">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5214,7 @@
         <xdr:cNvPr id="45" name="그림 44" descr="Sci-Fi Display Panel - 3D Model by SimonTGriffiths">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5273,7 @@
         <xdr:cNvPr id="48" name="그림 47" descr="Sci-fi Monitor 3D Model $29 - .unknown .max .fbx .obj .dae .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5332,7 @@
         <xdr:cNvPr id="49" name="그림 48" descr="Door lock biometric 3D model - TurboSquid 1339887">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5799,7 +5393,7 @@
         <xdr:cNvPr id="50" name="그림 49" descr="3D model Sci-Fi Door electric lock keypad or Card reader VR / AR / low-poly  | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5860,7 +5454,7 @@
         <xdr:cNvPr id="52" name="그림 51" descr="mw_Vault Door (Texture)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5515,7 @@
         <xdr:cNvPr id="53" name="그림 52" descr="Steam의 GameGuru - Sci-Fi Mission to Mars Pack">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5982,7 +5576,7 @@
         <xdr:cNvPr id="54" name="그림 53" descr="Oldschool Hand Scanner, Błażej Kaczmarek | Futuristic technology, Sci fi  concept art, Sci fi props">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +5637,7 @@
         <xdr:cNvPr id="55" name="그림 54" descr="110 Sci Fi Inspiration ideas | concept ships, spaceship concept, sci fi  concept art">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6104,7 +5698,7 @@
         <xdr:cNvPr id="56" name="그림 55" descr="ArtStation - Sci-Fi Hand Scanner">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6165,7 +5759,7 @@
         <xdr:cNvPr id="57" name="그림 56" descr="Making of sci fi gadget 3ds max- Substance painter tutorial final part -  YouTube">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6224,7 +5818,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6268,7 +5862,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6312,7 +5906,7 @@
         <xdr:cNvPr id="25" name="그림 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6356,7 +5950,7 @@
         <xdr:cNvPr id="26" name="그림 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6389,23 +5983,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95026</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50986</xdr:rowOff>
+      <xdr:rowOff>1040914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>2953339</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2942133</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1677521</xdr:rowOff>
+      <xdr:rowOff>2663639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6429,8 +6023,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19873408" y="768162"/>
-          <a:ext cx="2858313" cy="1626535"/>
+          <a:off x="24673336" y="3562238"/>
+          <a:ext cx="2854503" cy="1622725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6501,7 +6095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6553,7 +6147,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6747,7 +6341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6783,7 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6796,58 +6390,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6859,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6877,11 +6471,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6907,13 +6501,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6927,12 +6521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6993,7 +6587,7 @@
     </row>
     <row r="3" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>20</v>
@@ -7107,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>97</v>
@@ -7206,7 +6800,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="23" t="s">
@@ -7263,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -7352,59 +6946,59 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="87">
+      <c r="A21" s="92">
         <v>20</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="90"/>
+      <c r="G21" s="95"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="88"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="91"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="89"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="92"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="97"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="69">
         <v>21</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
@@ -7414,16 +7008,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
@@ -7433,16 +7027,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C26" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="70"/>
@@ -7452,16 +7046,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C27" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70"/>
@@ -7530,12 +7124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:L6"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7547,124 +7141,134 @@
     <col min="5" max="5" width="30.59765625" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
     <col min="12" max="12" width="28.59765625" customWidth="1"/>
-    <col min="13" max="13" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="38.59765625" customWidth="1"/>
-    <col min="17" max="17" width="40.5" customWidth="1"/>
-    <col min="18" max="18" width="10.09765625" customWidth="1"/>
+    <col min="13" max="13" width="45.69921875" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="17" max="17" width="38.59765625" customWidth="1"/>
+    <col min="18" max="18" width="40.5" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
-        <v>67</v>
-      </c>
       <c r="B2" s="47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="75" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="66" t="s">
+      <c r="F2" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="50"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109"/>
+    <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="114"/>
       <c r="B3" s="52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="76" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="110" t="s">
-        <v>162</v>
+    <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="115" t="s">
+        <v>158</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>92</v>
@@ -7675,30 +7279,33 @@
       <c r="E4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="66" t="s">
+      <c r="F4" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="115"/>
       <c r="B5" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>92</v>
@@ -7709,26 +7316,27 @@
       <c r="E5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="66" t="s">
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="115"/>
       <c r="B6" s="57" t="s">
         <v>119</v>
       </c>
@@ -7741,30 +7349,31 @@
       <c r="E6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="66" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="111" t="s">
-        <v>163</v>
+    <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="116" t="s">
+        <v>159</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>92</v>
@@ -7775,28 +7384,29 @@
       <c r="E7" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="66" t="s">
+      <c r="F7" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="116"/>
       <c r="B8" s="58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>92</v>
@@ -7807,28 +7417,29 @@
       <c r="E8" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="66" t="s">
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="111"/>
+    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="116"/>
       <c r="B9" s="59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>92</v>
@@ -7839,30 +7450,31 @@
       <c r="E9" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="66" t="s">
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="112" t="s">
-        <v>164</v>
+    <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="117" t="s">
+        <v>160</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>92</v>
@@ -7873,31 +7485,32 @@
       <c r="E10" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="66" t="s">
+      <c r="F10" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="112"/>
+    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="117"/>
       <c r="B11" s="59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>127</v>
@@ -7905,31 +7518,32 @@
       <c r="E11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="66" t="s">
+      <c r="F11" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="112"/>
+    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="117"/>
       <c r="B12" s="59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>128</v>
@@ -7937,33 +7551,34 @@
       <c r="E12" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="66" t="s">
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>130</v>
@@ -7971,33 +7586,34 @@
       <c r="E13" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="66" t="s">
+      <c r="F13" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>131</v>
@@ -8005,33 +7621,34 @@
       <c r="E14" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="66" t="s">
+      <c r="F14" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>132</v>
@@ -8039,33 +7656,34 @@
       <c r="E15" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="66" t="s">
+      <c r="F15" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>133</v>
@@ -8073,30 +7691,31 @@
       <c r="E16" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="66" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C17" s="76" t="s">
         <v>93</v>
@@ -8107,30 +7726,31 @@
       <c r="E17" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="66" t="s">
+      <c r="F17" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>93</v>
@@ -8139,30 +7759,31 @@
         <v>136</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="67" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -8170,21 +7791,21 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="F13:L13"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="F15:L15"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F6:L6"/>
@@ -8195,23 +7816,22 @@
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="F2:L2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\GangsterHamster\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F4B1D-A1C4-49AC-A343-B63E9B16FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C9A68-01D4-48A7-A82B-C32107CD41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -1670,82 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"는 "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"의 지시에 따라 기초 운동 능력을 테스트하고 "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이너시오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"를 잡아 들고 이너시오마저 테스트를 끝내고, 실험실의 관찰실로 나간다. "살바토레"가 실험실 밖으로 나가자마자 경고음이 수차례 울리고 정거장내에 침입자가 들어와 산소 농도를 줄인다는 안내 방송이 울려퍼졌다. 방송이 끝나자마자 곧장 "살바토레"는 어지럼증을 느끼고 넘어진다. 이윽고 갑옷을 입고 총을 들고 있는 사람이 관찰실 안으로 들어와 관찰실의 구석에 있는 통을 잡고통 안에 있는 하늘색 액체를 방의 온갖 곳에 뿌렸다. "AI"는 소리지르며 괴한을 막으려 했지만, 괴한은 아랑곳 하지 않고 방의 모든 곳에 액체를 뿌렸다. "AI"의 본체에 액체가 뭍자 AI의 목소리는 끊기게 되었다. "살바토레"에게도 액체를 뭍이고 괴한은 방에서 나간다. 
-이윽고 "살바토레"는 몸이 찢기는 거 같은 고통을 느끼며 발작을 일으키고 괴성을 질렀다. 잠시 후 "AI"는 "살바토레"에게 옆의 문에 있는 키패드에 비밀번호를 입력하고 들어가, 안에 있는 슈트를 착용하라고 하였다. 이에 엄청난 고통을 느끼고 있는  "살바토레"는 비밀번호를 입력하고 문을 열고 들어가 슈트를 착용한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면을 흑백으로 만들고
 이동속도를 간헐적으로          
 바꿔 산소결핍을 연출
@@ -1756,6 +1680,309 @@
   <si>
     <t>활성화하면 연계된 다른 오브젝트도 활성화됨
 버튼과 연계되는 오브젝트는 ppt에서 같은 색상으로 표현하여 묶어두었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'의 지시에 따라 기초 운동 능력을 테스트하고 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'를 잡아 들고 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이너시오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'마저 테스트를 끝내고, 실험실의 관찰실로 나간다. '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 실험실 밖으로 나가자마자 경고음이 수차례 울리고 정거장내에 침입자가 들어와 산소 농도를 줄인다는 안내 방송이 울려퍼졌다. 방송이 끝나자마자 곧장 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 어지럼증을 느끼고 넘어진다. 이윽고 갑옷을 입고 총을 들고 있는 사람이 관찰실 안으로 들어와 관찰실의 구석에 있는 통을 잡고통 안에 있는 하늘색 액체('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')를 방의 온갖 곳에 뿌렸다. '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 소리지르며 괴한을 막으려 했지만, 괴한은 아랑곳 하지 않고 방의 모든 곳에 액체를 뿌렸다. "AI"의 본체에 액체가 뭍자 AI의 목소리는 끊기게 되었다. '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'에게도 액체를 뭍이고 괴한은 방에서 나간다. 
+이윽고 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 몸이 찢기는 거 같은 고통을 느끼며 발작을 일으키고 괴성을 질렀다. 잠시 후 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'에게 옆의 문에 있는 키패드에 비밀번호를 입력하고 들어가, 안에 있는 슈트를 착용하라고 하였다. 이에 엄청난 고통을 느끼고 있는  '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>살바토레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 비밀번호를 입력하고 문을 열고 들어가 슈트를 착용한다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2657,9 +2884,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2762,8 +2986,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2828,6 +3058,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2839,39 +3102,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5990,7 +6220,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2942133</xdr:colOff>
+      <xdr:colOff>2951658</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2663639</xdr:rowOff>
     </xdr:to>
@@ -6390,58 +6620,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6471,11 +6701,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6524,9 +6754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6857,7 +7087,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -6946,152 +7176,152 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="92">
+      <c r="A21" s="93">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="93"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="96"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="94"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="97"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="98"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="69">
+      <c r="A24" s="68">
         <v>21</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="69">
+      <c r="A25" s="68">
         <v>22</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="69">
+      <c r="A26" s="68">
         <v>23</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="27" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="69">
+      <c r="A27" s="68">
         <v>24</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="69">
+      <c r="A28" s="68">
         <v>25</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="70"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="69">
+      <c r="A29" s="68">
         <v>26</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="69">
+      <c r="A30" s="68">
         <v>27</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="28"/>
@@ -7127,9 +7357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5:Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7141,8 +7371,8 @@
     <col min="5" max="5" width="30.59765625" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
     <col min="12" max="12" width="28.59765625" customWidth="1"/>
-    <col min="13" max="13" width="45.69921875" customWidth="1"/>
-    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="26.19921875" customWidth="1"/>
+    <col min="14" max="14" width="52.3984375" customWidth="1"/>
     <col min="17" max="17" width="38.59765625" customWidth="1"/>
     <col min="18" max="18" width="40.5" customWidth="1"/>
     <col min="19" max="19" width="10.09765625" customWidth="1"/>
@@ -7155,7 +7385,7 @@
       <c r="B1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
@@ -7164,41 +7394,41 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="81" t="s">
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="108" t="s">
+      <c r="O1" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -7207,366 +7437,366 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="82" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="66" t="s">
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="114"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="83" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="66" t="s">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="83" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="66" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="115"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="66" t="s">
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="115"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="66" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="66" t="s">
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="66" t="s">
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="66" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="66" t="s">
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="117"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="114"/>
+      <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="66" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="117"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="66" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7574,34 +7804,34 @@
       <c r="A13" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="66" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7609,34 +7839,34 @@
       <c r="A14" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="66" t="s">
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7644,34 +7874,34 @@
       <c r="A15" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="66" t="s">
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7679,34 +7909,34 @@
       <c r="A16" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="66" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7714,34 +7944,34 @@
       <c r="A17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="66" t="s">
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7749,44 +7979,71 @@
       <c r="A18" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="67" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -7801,33 +8058,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\GangsterHamster\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C9A68-01D4-48A7-A82B-C32107CD41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E70214-4525-4211-BAD4-62C066C5AFBA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,111 +1286,6 @@
   </si>
   <si>
     <r>
-      <t>결국 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'을 막지 못했던 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이브</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>마지막 보스를 처치한 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1563,110 +1458,6 @@
   </si>
   <si>
     <t>시나리오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>절차대로 냉동된 상태로 우주정거장에 도착하고 해동되어 숙소에 가게 된 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'가 깨어난다. 이후, 숙소 밖으로 나가 실험에 참여하라는 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'의 말을 듣는다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이후 숙소에서 복도로 나온 '살바토레'에게 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'는 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살바토레</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'가 해야할 실험들에 대해 신난듯이 이야기하고, 타 실험들과 과거 실험들에  대해 이야기 하다가 끊긴다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1684,6 +1475,9 @@
   </si>
   <si>
     <r>
+      <t>절차대로 냉동된 상태로 우주정거장에 도착하고 해동되어 숙소에 가게 된 '</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1693,7 +1487,164 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>엘루젼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 깨어난다. 이후, 숙소 밖으로 나가 실험에 참여하라는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'의 말을 듣는다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>결국 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘루젼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'을 막지 못했던 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 탈출구 앞으로 가장 위험한 실험체를 대기시켜 
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘루젼'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 상대하게 하고 정거장을 폭파시키려 한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마지막 보스를 처치한 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘루젼'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이후 숙소에서 복도로 나온 '살바토레'에게 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
     </r>
     <r>
       <rPr>
@@ -1716,6 +1667,55 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>마이클</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 해야할 실험들에 대해 신난듯이 이야기하고, 타 실험들과 과거 실험들에  대해 이야기 하다가 끊긴다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마이클</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AI</t>
     </r>
     <r>
@@ -1785,7 +1785,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -1808,7 +1808,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -1877,7 +1877,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -1901,7 +1901,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -1947,7 +1947,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -1970,7 +1970,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>살바토레</t>
+      <t>마이클</t>
     </r>
     <r>
       <rPr>
@@ -3058,50 +3058,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6220,7 +6220,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2951658</xdr:colOff>
+      <xdr:colOff>2955468</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2663639</xdr:rowOff>
     </xdr:to>
@@ -7087,7 +7087,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -7357,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
@@ -7372,7 +7372,7 @@
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
     <col min="12" max="12" width="28.59765625" customWidth="1"/>
     <col min="13" max="13" width="26.19921875" customWidth="1"/>
-    <col min="14" max="14" width="52.3984375" customWidth="1"/>
+    <col min="14" max="14" width="55.19921875" customWidth="1"/>
     <col min="17" max="17" width="38.59765625" customWidth="1"/>
     <col min="18" max="18" width="40.5" customWidth="1"/>
     <col min="19" max="19" width="10.09765625" customWidth="1"/>
@@ -7394,26 +7394,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -7437,29 +7437,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="81"/>
       <c r="N2" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="117"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -7472,29 +7472,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
       <c r="M3" s="82"/>
       <c r="N3" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
+        <v>180</v>
+      </c>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -7509,31 +7509,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
+      <c r="F4" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
       <c r="M4" s="82"/>
       <c r="N4" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
+      <c r="O4" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -7546,27 +7546,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
       <c r="M5" s="82"/>
       <c r="N5" s="54"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="118"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -7579,27 +7579,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="117" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -7614,27 +7614,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
+      <c r="F7" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="113"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -7647,27 +7647,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="113"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -7680,27 +7680,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="118" t="s">
         <v>160</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -7715,27 +7715,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -7748,27 +7748,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="114"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -7781,20 +7781,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -7816,20 +7816,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -7851,20 +7851,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -7886,20 +7886,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -7921,20 +7921,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -7956,20 +7956,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
+      <c r="F17" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -7991,59 +7991,32 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
+      <c r="F18" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8058,6 +8031,33 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E70214-4525-4211-BAD4-62C066C5AFBA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4BAE14-1AB6-4CF4-A923-C49C93A3B76B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1684,6 +1684,9 @@
   </si>
   <si>
     <r>
+      <t>'</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1704,7 +1707,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'는 '</t>
+      <t>'은 '</t>
     </r>
     <r>
       <rPr>
@@ -1773,7 +1776,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'마저 테스트를 끝내고, 실험실의 관찰실로 나간다. '</t>
+      <t>'마저 테스트를 끝내고, 실험실의 관찰실로 나간다.
+ '</t>
     </r>
     <r>
       <rPr>
@@ -1796,7 +1800,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'가 실험실 밖으로 나가자마자 경고음이 수차례 울리고 정거장내에 침입자가 들어와 산소 농도를 줄인다는 안내 방송이 울려퍼졌다. 방송이 끝나자마자 곧장 '</t>
+      <t>'이 실험실 밖으로 나가자마자 경고음이 수차례 울리고 정거장내에 침입자가 들어와 산소 농도를 줄인다는 안내 방송이 울려퍼졌다. 방송이 끝나자마자 곧장 '</t>
     </r>
     <r>
       <rPr>
@@ -1819,7 +1823,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'는 어지럼증을 느끼고 넘어진다. 이윽고 갑옷을 입고 총을 들고 있는 사람이 관찰실 안으로 들어와 관찰실의 구석에 있는 통을 잡고통 안에 있는 하늘색 액체('</t>
+      <t>'은 어지럼증을 느끼고 넘어진다. 이윽고 갑옷을 입고 총을 들고 있는 사람이 관찰실 안으로 들어와 관찰실의 구석에 있는 통을 잡고통 안에 있는 하늘색 액체('</t>
     </r>
     <r>
       <rPr>
@@ -1912,7 +1916,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'는 몸이 찢기는 거 같은 고통을 느끼며 발작을 일으키고 괴성을 질렀다. 잠시 후 '</t>
+      <t>'은 몸이 찢기는 거 같은 고통을 느끼며 발작을 일으키고 괴성을 질렀다. 잠시 후 '</t>
     </r>
     <r>
       <rPr>
@@ -1981,7 +1985,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'는 비밀번호를 입력하고 문을 열고 들어가 슈트를 착용한다.</t>
+      <t>'은 비밀번호를 입력하고 문을 열고 들어가 슈트를 착용한다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2128,7 +2132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2186,6 +2190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2733,7 +2743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2986,122 +2996,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6220,7 +6233,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2955468</xdr:colOff>
+      <xdr:colOff>2951658</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2663639</xdr:rowOff>
     </xdr:to>
@@ -6620,58 +6633,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6690,7 +6703,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6701,11 +6714,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6755,8 +6768,8 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -7176,43 +7189,43 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="93">
+      <c r="A21" s="91">
         <v>20</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="96"/>
+      <c r="G21" s="94"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="94"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="97"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="95"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="98"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="96"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="68">
@@ -7357,9 +7370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4:Q4"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7372,7 +7385,7 @@
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
     <col min="12" max="12" width="28.59765625" customWidth="1"/>
     <col min="13" max="13" width="26.19921875" customWidth="1"/>
-    <col min="14" max="14" width="55.19921875" customWidth="1"/>
+    <col min="14" max="14" width="57.796875" customWidth="1"/>
     <col min="17" max="17" width="38.59765625" customWidth="1"/>
     <col min="18" max="18" width="40.5" customWidth="1"/>
     <col min="19" max="19" width="10.09765625" customWidth="1"/>
@@ -7394,26 +7407,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="109" t="s">
+      <c r="O1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -7437,22 +7450,22 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
       <c r="M2" s="81"/>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
@@ -7472,22 +7485,22 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="82"/>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
@@ -7509,24 +7522,24 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="82"/>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="112" t="s">
+      <c r="O4" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
@@ -7546,20 +7559,20 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="82"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
@@ -7579,27 +7592,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="111" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -7614,27 +7627,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="117"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -7647,27 +7660,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="117"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -7680,27 +7693,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="112" t="s">
         <v>160</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -7715,27 +7728,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="118"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -7748,27 +7761,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="118"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -7781,20 +7794,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -7816,20 +7829,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -7851,20 +7864,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -7886,20 +7899,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -7921,20 +7934,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -7956,20 +7969,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -7991,32 +8004,59 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="122" t="s">
+      <c r="F18" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8031,33 +8071,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4BAE14-1AB6-4CF4-A923-C49C93A3B76B}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F8C97F-E452-4707-95CC-1C685BF874B7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
     <sheet name="history" sheetId="2" r:id="rId2"/>
     <sheet name="obj" sheetId="1" r:id="rId3"/>
     <sheet name="stage" sheetId="4" r:id="rId4"/>
+    <sheet name="UI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,53 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4m x 1m x 4m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사물이나 생물을 밑에서 
-받쳐주는 바닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 바닥
-(Floor_Inter_Noraml_01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m x 1m x 1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구멍이 뚫려 있어 이동이 가능하며
-빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구멍 뚫린 조명
-(Floor_Inter_Normal_02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">직사각형 조명
-(Floor_Inter_Normal_03)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직사각형의 조명으로 밝은 빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형 조명
-(Floor_Inter_Normal_04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형의 조명으로 밝은 빛을 낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우주정거장에서 보이는 지구로, 
 플레이어가 있는 곳이 우주라는 것을
 알려주기 위한 장치다.</t>
@@ -1989,6 +1943,302 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref. UI배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 요소를 담는 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 누른 버튼의 기능을 
+플레이어에게 알려주는 텍스트</t>
+  </si>
+  <si>
+    <t>현재 누른 버튼의 기능을 
+플레이어에게 알려주는 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Game UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Chapter UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 가능한 스테이지의 정보를
+담은 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 활성화된 현재  
+패널을 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 요소를 담은 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지명을 넣을 텍스트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 광경을 
+넣을 이미지박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지에서 진행될 시나리오
+초반 부분을 넣을 텍스트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 회색은 남은 스크롤바
+밝은 회색은 스크롤로 
+스크롤은 스크롤바 안에서만 
+상 하로 움직일 수 있으며
+스크롤이 내려가면 다른 
+스테이지들을 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 전체적인 분위기나 컨셉을
+넣을 백그라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 전체적인 분위기를 로고로
+표현한 이미지박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, "New Game UI"를 
+활성화 시키는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, "Choose Chapter UI"를 
+활성화 시키는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 게임을 종료하는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, "Option UI"를 활성화 
+시키는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백그라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀로고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨티뉴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴 게임 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측에 있는 스크롤의 기능을 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상하스크롤&amp;바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우스크롤바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼에 텍스트도 넣어 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좌 : 클릭 시, 풀스크린모드 전환
+우 : 클릭 시, 창모드 전환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼에 텍스트도 넣어 주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+좌 : 클릭 시, 1920x1080 해상도로 전환
+우 : 클릭 시, 2560x1080 해상도로 전환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에임포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용중인 무기를 나타내는
+무기를 직관적으로 표현한 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에임포인트가 있는 위치로
+무기가 발사됨.
+A타입 오브젝트에 포인트가
+올라갈 때, 색이 변함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Game UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 기존의 저장 데이터를
+모두 삭제 후, 게임을 처음부터 
+재시작 후 "In Game UI"를 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>클릭 시, 저장되어 있는 데이터를 
+불러오고, "In Game UI"를 활성화하는 
+버튼(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첫 실행 시 선택 불가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1998,7 +2248,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,8 +2381,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2199,8 +2475,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2737,13 +3031,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2999,6 +3500,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3107,14 +3617,188 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3151,9 +3835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9046822</xdr:colOff>
+      <xdr:colOff>9050632</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2799831</xdr:rowOff>
+      <xdr:rowOff>2803641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3219,7 +3903,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2378559</xdr:colOff>
+      <xdr:colOff>2382369</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2323893</xdr:rowOff>
     </xdr:to>
@@ -3341,9 +4025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3749991</xdr:colOff>
+      <xdr:colOff>3753801</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3794481</xdr:rowOff>
+      <xdr:rowOff>3790671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3402,9 +4086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4212277</xdr:colOff>
+      <xdr:colOff>4208467</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2301771</xdr:rowOff>
+      <xdr:rowOff>2305581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3465,7 +4149,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>8195211</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3027722</xdr:rowOff>
+      <xdr:rowOff>3031532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3534,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4516235</xdr:colOff>
+      <xdr:colOff>4512425</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2495502</xdr:rowOff>
+      <xdr:rowOff>2499312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3597,7 +4281,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>4537365</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4935071</xdr:rowOff>
+      <xdr:rowOff>4931261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3656,9 +4340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8936083</xdr:colOff>
+      <xdr:colOff>8932273</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4933235</xdr:rowOff>
+      <xdr:rowOff>4937045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3717,7 +4401,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4703386</xdr:colOff>
+      <xdr:colOff>4707196</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>4912179</xdr:rowOff>
     </xdr:to>
@@ -3778,9 +4462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8745311</xdr:colOff>
+      <xdr:colOff>8741501</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2568727</xdr:rowOff>
+      <xdr:rowOff>2572537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3839,9 +4523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9235440</xdr:colOff>
+      <xdr:colOff>9239250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5122346</xdr:rowOff>
+      <xdr:rowOff>5126156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3900,9 +4584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:colOff>3329940</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5046617</xdr:rowOff>
+      <xdr:rowOff>5050427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3961,9 +4645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9202683</xdr:colOff>
+      <xdr:colOff>9198873</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4895848</xdr:rowOff>
+      <xdr:rowOff>4899658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4022,7 +4706,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4704261</xdr:colOff>
+      <xdr:colOff>4708071</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>4342463</xdr:rowOff>
     </xdr:to>
@@ -4083,7 +4767,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8856073</xdr:colOff>
+      <xdr:colOff>8859883</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2402839</xdr:rowOff>
     </xdr:to>
@@ -4144,7 +4828,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8664398</xdr:colOff>
+      <xdr:colOff>8668208</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>5143499</xdr:rowOff>
     </xdr:to>
@@ -4205,7 +4889,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4096616</xdr:colOff>
+      <xdr:colOff>4092806</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>5066645</xdr:rowOff>
     </xdr:to>
@@ -4266,9 +4950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4477862</xdr:colOff>
+      <xdr:colOff>4474052</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5007379</xdr:rowOff>
+      <xdr:rowOff>5011189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4325,9 +5009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7104439</xdr:colOff>
+      <xdr:colOff>7108249</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3718559</xdr:rowOff>
+      <xdr:rowOff>3714749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4386,9 +5070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5541198</xdr:colOff>
+      <xdr:colOff>5545008</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2266949</xdr:rowOff>
+      <xdr:rowOff>2270759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4449,7 +5133,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>5486400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4743449</xdr:rowOff>
+      <xdr:rowOff>4747259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4508,7 +5192,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9352852</xdr:colOff>
+      <xdr:colOff>9356662</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>4724400</xdr:rowOff>
     </xdr:to>
@@ -4569,9 +5253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3829253</xdr:colOff>
+      <xdr:colOff>3825443</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3752850</xdr:rowOff>
+      <xdr:rowOff>3749040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4632,7 +5316,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>8915400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3219450</xdr:rowOff>
+      <xdr:rowOff>3215640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4691,9 +5375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9621736</xdr:colOff>
+      <xdr:colOff>9617926</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4783455</xdr:rowOff>
+      <xdr:rowOff>4779645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4752,9 +5436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6875984</xdr:colOff>
+      <xdr:colOff>6879794</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5045054</xdr:rowOff>
+      <xdr:rowOff>5048864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4796,9 +5480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9428169</xdr:colOff>
+      <xdr:colOff>9431979</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4931421</xdr:rowOff>
+      <xdr:rowOff>4935231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4840,9 +5524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8855392</xdr:colOff>
+      <xdr:colOff>8859202</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>4479608</xdr:rowOff>
+      <xdr:rowOff>4475798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4901,9 +5585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9661154</xdr:colOff>
+      <xdr:colOff>9657344</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3445436</xdr:rowOff>
+      <xdr:rowOff>3449246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4962,7 +5646,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3791956</xdr:colOff>
+      <xdr:colOff>3788146</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>4343400</xdr:rowOff>
     </xdr:to>
@@ -5086,7 +5770,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>2973014</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3525375</xdr:rowOff>
+      <xdr:rowOff>3521565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5145,9 +5829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9013507</xdr:colOff>
+      <xdr:colOff>9009697</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3907154</xdr:rowOff>
+      <xdr:rowOff>3903344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5204,9 +5888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3522345</xdr:colOff>
+      <xdr:colOff>3526155</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2499086</xdr:rowOff>
+      <xdr:rowOff>2495276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5265,9 +5949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9581197</xdr:colOff>
+      <xdr:colOff>9585007</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4897264</xdr:rowOff>
+      <xdr:rowOff>4893454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5326,9 +6010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4592002</xdr:colOff>
+      <xdr:colOff>4588192</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4933673</xdr:rowOff>
+      <xdr:rowOff>4937483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5387,9 +6071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7369493</xdr:colOff>
+      <xdr:colOff>7373303</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4931147</xdr:rowOff>
+      <xdr:rowOff>4934957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5448,7 +6132,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9620723</xdr:colOff>
+      <xdr:colOff>9616913</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2587943</xdr:rowOff>
     </xdr:to>
@@ -5507,9 +6191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6270866</xdr:colOff>
+      <xdr:colOff>6267056</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2264091</xdr:rowOff>
+      <xdr:rowOff>2267901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5566,7 +6250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4480321</xdr:colOff>
+      <xdr:colOff>4476511</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>3429001</xdr:rowOff>
     </xdr:to>
@@ -5627,9 +6311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9731061</xdr:colOff>
+      <xdr:colOff>9734871</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>3182303</xdr:rowOff>
+      <xdr:rowOff>3178493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5688,9 +6372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9199244</xdr:colOff>
+      <xdr:colOff>9203054</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1696335</xdr:rowOff>
+      <xdr:rowOff>1692525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5749,9 +6433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5694044</xdr:colOff>
+      <xdr:colOff>5697854</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1543050</xdr:rowOff>
+      <xdr:rowOff>1539240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5810,9 +6494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4628198</xdr:colOff>
+      <xdr:colOff>4632008</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>5089208</xdr:rowOff>
+      <xdr:rowOff>5085398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5871,7 +6555,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4706561</xdr:colOff>
+      <xdr:colOff>4702751</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2667000</xdr:rowOff>
     </xdr:to>
@@ -5932,9 +6616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9620934</xdr:colOff>
+      <xdr:colOff>9617124</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>4971097</xdr:rowOff>
+      <xdr:rowOff>4974907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5993,9 +6677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9087803</xdr:colOff>
+      <xdr:colOff>9083993</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>5013008</xdr:rowOff>
+      <xdr:rowOff>5009198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6039,182 +6723,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1544002</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>397193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7713344</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4742298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422CC5BF-DD2D-469F-91DC-A86B219E00B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17331690" y="95170943"/>
-          <a:ext cx="6169342" cy="4352725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1664970</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7640002</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>5116351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED127103-B4D1-402C-BB7D-707A23696D2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18929033" y="100536375"/>
-          <a:ext cx="5978842" cy="4542946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1714499</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>159067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7715248</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>5001331</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45DA613-E019-4FA6-AABA-305D09E7E84C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18978562" y="105315067"/>
-          <a:ext cx="6000749" cy="4842264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1849755</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>179069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7981608</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4808219</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDD900A-2484-49FD-BFB9-DBD4AFEC0B86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19113818" y="110526194"/>
-          <a:ext cx="6131853" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6282,6 +6790,231 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336666</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398154</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0B0B32-CC8D-4A20-9C34-70E42EEA18F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1001684" y="5008418"/>
+          <a:ext cx="6046652" cy="3405248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34514</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>764038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F59E3B8-8C90-4219-BCFA-FBA16C8BB9C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="706867" y="4849907"/>
+          <a:ext cx="6626263" cy="3758250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>397707</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443058</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B8BAA1-B695-478B-8F8D-220671990388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062725" y="524843"/>
+          <a:ext cx="6030515" cy="3390178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358668</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>175557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEE832F-A1F0-4EED-931A-B847C505553C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962198" y="14344996"/>
+          <a:ext cx="6046652" cy="3439688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>343918</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>455282</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>173478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4EB7EB-63A9-4185-8BA6-A01AC8E119B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1008936" y="18343417"/>
+          <a:ext cx="6096528" cy="3429297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6633,58 +7366,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6714,11 +7447,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6765,11 +7498,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6944,7 +7677,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>97</v>
@@ -7100,7 +7833,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -7189,60 +7922,52 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="91">
+      <c r="A21" s="94">
         <v>20</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="G21" s="97"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="92"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="95"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="93"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="96"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="68">
         <v>21</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>143</v>
-      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="70"/>
       <c r="G24" s="69"/>
     </row>
@@ -7250,18 +7975,10 @@
       <c r="A25" s="68">
         <v>22</v>
       </c>
-      <c r="B25" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>146</v>
-      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="70"/>
       <c r="G25" s="69"/>
     </row>
@@ -7269,18 +7986,10 @@
       <c r="A26" s="68">
         <v>23</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>146</v>
-      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="70"/>
       <c r="G26" s="69"/>
     </row>
@@ -7288,65 +7997,31 @@
       <c r="A27" s="68">
         <v>24</v>
       </c>
-      <c r="B27" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="68">
         <v>25</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="68">
         <v>26</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="69"/>
+      <c r="F29"/>
     </row>
     <row r="30" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="68">
         <v>27</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7370,9 +8045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7399,7 +8074,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>115</v>
@@ -7407,26 +8082,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -7435,7 +8110,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -7445,34 +8120,34 @@
         <v>93</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
       <c r="M2" s="81"/>
-      <c r="N2" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
+      <c r="N2" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="115"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -7480,35 +8155,35 @@
         <v>93</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
       <c r="M3" s="82"/>
-      <c r="N3" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
+      <c r="N3" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="116" t="s">
-        <v>158</v>
+      <c r="A4" s="119" t="s">
+        <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>54</v>
@@ -7522,31 +8197,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
+      <c r="F4" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+        <v>171</v>
+      </c>
+      <c r="O4" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="116"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -7559,27 +8234,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
       <c r="M5" s="82"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="116"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -7592,28 +8267,28 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="111" t="s">
-        <v>159</v>
+      <c r="A7" s="114" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>55</v>
@@ -7627,27 +8302,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="F7" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -7660,27 +8335,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="111"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -7693,28 +8368,28 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="112" t="s">
-        <v>160</v>
+      <c r="A10" s="115" t="s">
+        <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>56</v>
@@ -7728,32 +8403,32 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="F10" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="112"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>127</v>
@@ -7761,32 +8436,32 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="112"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>128</v>
@@ -7794,20 +8469,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -7815,13 +8490,13 @@
     </row>
     <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>130</v>
@@ -7829,20 +8504,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -7850,13 +8525,13 @@
     </row>
     <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="43" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>131</v>
@@ -7864,20 +8539,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -7885,13 +8560,13 @@
     </row>
     <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>132</v>
@@ -7899,20 +8574,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -7920,13 +8595,13 @@
     </row>
     <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>133</v>
@@ -7934,20 +8609,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -7958,7 +8633,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>93</v>
@@ -7969,20 +8644,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
+      <c r="F17" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -7993,7 +8668,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>93</v>
@@ -8004,29 +8679,29 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
+      <c r="F18" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -8077,4 +8752,1883 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F74CF53-2F48-46EA-9405-9928E75A2E5F}">
+  <dimension ref="B2:Q90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="17" max="17" width="19.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="128"/>
+      <c r="O2" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="127"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="168">
+        <v>1</v>
+      </c>
+      <c r="M3" s="169" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="170"/>
+      <c r="O3" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="143"/>
+    </row>
+    <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="146"/>
+    </row>
+    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="168">
+        <v>2</v>
+      </c>
+      <c r="M5" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="170"/>
+      <c r="O5" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="143"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="146"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="168">
+        <v>3</v>
+      </c>
+      <c r="M7" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="N7" s="170"/>
+      <c r="O7" s="147" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="149"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152"/>
+    </row>
+    <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="168">
+        <v>4</v>
+      </c>
+      <c r="M9" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="170"/>
+      <c r="O9" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
+    </row>
+    <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="146"/>
+    </row>
+    <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="133"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="168">
+        <v>5</v>
+      </c>
+      <c r="M11" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="170"/>
+      <c r="O11" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="149"/>
+    </row>
+    <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="152"/>
+    </row>
+    <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="168">
+        <v>6</v>
+      </c>
+      <c r="M13" s="169" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="170"/>
+      <c r="O13" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="149"/>
+    </row>
+    <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="164"/>
+    </row>
+    <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="152"/>
+    </row>
+    <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="168">
+        <v>7</v>
+      </c>
+      <c r="M16" s="169" t="s">
+        <v>202</v>
+      </c>
+      <c r="N16" s="170"/>
+      <c r="O16" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="143"/>
+    </row>
+    <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+    </row>
+    <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="146"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="N20" s="128"/>
+      <c r="O20" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="127"/>
+    </row>
+    <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="168">
+        <v>1</v>
+      </c>
+      <c r="M21" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" s="170"/>
+      <c r="O21" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+    </row>
+    <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+    </row>
+    <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+    </row>
+    <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+    </row>
+    <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="168">
+        <v>2</v>
+      </c>
+      <c r="M25" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="170"/>
+      <c r="O25" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="139"/>
+    </row>
+    <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+    </row>
+    <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+    </row>
+    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+    </row>
+    <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="168">
+        <v>3</v>
+      </c>
+      <c r="M29" s="169" t="s">
+        <v>204</v>
+      </c>
+      <c r="N29" s="170"/>
+      <c r="O29" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+    </row>
+    <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="139"/>
+    </row>
+    <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="139"/>
+    </row>
+    <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139"/>
+    </row>
+    <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="168">
+        <v>4</v>
+      </c>
+      <c r="M33" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" s="170"/>
+      <c r="O33" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="139"/>
+    </row>
+    <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+    </row>
+    <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="174"/>
+      <c r="O35" s="139"/>
+      <c r="P35" s="139"/>
+      <c r="Q35" s="139"/>
+    </row>
+    <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="136"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="139"/>
+      <c r="Q36" s="139"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B38" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="M38" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="N38" s="178"/>
+      <c r="O38" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="177"/>
+    </row>
+    <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="169">
+        <v>1</v>
+      </c>
+      <c r="M39" s="168" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" s="168"/>
+      <c r="O39" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="142"/>
+      <c r="Q39" s="143"/>
+    </row>
+    <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="133"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="168"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="146"/>
+    </row>
+    <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="133"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="169">
+        <v>2</v>
+      </c>
+      <c r="M41" s="168" t="s">
+        <v>203</v>
+      </c>
+      <c r="N41" s="168"/>
+      <c r="O41" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="P41" s="142"/>
+      <c r="Q41" s="143"/>
+    </row>
+    <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+    </row>
+    <row r="43" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="169">
+        <v>3</v>
+      </c>
+      <c r="M43" s="168" t="s">
+        <v>204</v>
+      </c>
+      <c r="N43" s="168"/>
+      <c r="O43" s="148" t="s">
+        <v>182</v>
+      </c>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+    </row>
+    <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="152"/>
+    </row>
+    <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="169">
+        <v>4</v>
+      </c>
+      <c r="M45" s="168" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" s="168"/>
+      <c r="O45" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="143"/>
+    </row>
+    <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="168"/>
+      <c r="N46" s="168"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="145"/>
+      <c r="Q46" s="146"/>
+    </row>
+    <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="169">
+        <v>5</v>
+      </c>
+      <c r="M47" s="168" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="168"/>
+      <c r="O47" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="143"/>
+    </row>
+    <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="171"/>
+      <c r="M48" s="168"/>
+      <c r="N48" s="168"/>
+      <c r="O48" s="145"/>
+      <c r="P48" s="145"/>
+      <c r="Q48" s="146"/>
+    </row>
+    <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="169">
+        <v>6</v>
+      </c>
+      <c r="M49" s="168" t="s">
+        <v>203</v>
+      </c>
+      <c r="N49" s="168"/>
+      <c r="O49" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="143"/>
+    </row>
+    <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="133"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="146"/>
+    </row>
+    <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="169">
+        <v>7</v>
+      </c>
+      <c r="M51" s="168" t="s">
+        <v>208</v>
+      </c>
+      <c r="N51" s="168"/>
+      <c r="O51" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="149"/>
+    </row>
+    <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="168"/>
+      <c r="N52" s="168"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="151"/>
+      <c r="Q52" s="152"/>
+    </row>
+    <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="133"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="169">
+        <v>8</v>
+      </c>
+      <c r="M53" s="168" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="168"/>
+      <c r="O53" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="P53" s="142"/>
+      <c r="Q53" s="143"/>
+    </row>
+    <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="136"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="168"/>
+      <c r="N54" s="168"/>
+      <c r="O54" s="145"/>
+      <c r="P54" s="145"/>
+      <c r="Q54" s="146"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B56" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="M56" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="N56" s="128"/>
+      <c r="O56" s="179" t="s">
+        <v>173</v>
+      </c>
+      <c r="P56" s="179"/>
+      <c r="Q56" s="177"/>
+    </row>
+    <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="130"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="168">
+        <v>1</v>
+      </c>
+      <c r="M57" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" s="170"/>
+      <c r="O57" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="P57" s="142"/>
+      <c r="Q57" s="143"/>
+    </row>
+    <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="133"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="135"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="172"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="146"/>
+    </row>
+    <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="133"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="168">
+        <v>2</v>
+      </c>
+      <c r="M59" s="169" t="s">
+        <v>204</v>
+      </c>
+      <c r="N59" s="170"/>
+      <c r="O59" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="142"/>
+      <c r="Q59" s="143"/>
+    </row>
+    <row r="60" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="135"/>
+      <c r="L60" s="168"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="172"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="146"/>
+    </row>
+    <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="168">
+        <v>3</v>
+      </c>
+      <c r="M61" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="N61" s="170"/>
+      <c r="O61" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="149"/>
+    </row>
+    <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="133"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="168"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="172"/>
+      <c r="O62" s="150"/>
+      <c r="P62" s="151"/>
+      <c r="Q62" s="152"/>
+    </row>
+    <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="133"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="168">
+        <v>4</v>
+      </c>
+      <c r="M63" s="169"/>
+      <c r="N63" s="170"/>
+      <c r="O63" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P63" s="142"/>
+      <c r="Q63" s="143"/>
+    </row>
+    <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="168"/>
+      <c r="M64" s="171"/>
+      <c r="N64" s="172"/>
+      <c r="O64" s="144"/>
+      <c r="P64" s="145"/>
+      <c r="Q64" s="146"/>
+    </row>
+    <row r="65" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="133"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="168">
+        <v>5</v>
+      </c>
+      <c r="M65" s="169" t="s">
+        <v>211</v>
+      </c>
+      <c r="N65" s="170"/>
+      <c r="O65" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P65" s="148"/>
+      <c r="Q65" s="149"/>
+    </row>
+    <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="133"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="135"/>
+      <c r="L66" s="168"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="150"/>
+      <c r="P66" s="151"/>
+      <c r="Q66" s="152"/>
+    </row>
+    <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="133"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="168">
+        <v>6</v>
+      </c>
+      <c r="M67" s="169" t="s">
+        <v>212</v>
+      </c>
+      <c r="N67" s="170"/>
+      <c r="O67" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="P67" s="148"/>
+      <c r="Q67" s="149"/>
+    </row>
+    <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="133"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="135"/>
+      <c r="L68" s="168"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="174"/>
+      <c r="O68" s="162"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="164"/>
+    </row>
+    <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="135"/>
+      <c r="L69" s="168"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="151"/>
+      <c r="Q69" s="152"/>
+    </row>
+    <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="133"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="135"/>
+      <c r="L70" s="168">
+        <v>7</v>
+      </c>
+      <c r="M70" s="169" t="s">
+        <v>212</v>
+      </c>
+      <c r="N70" s="170"/>
+      <c r="O70" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="P70" s="142"/>
+      <c r="Q70" s="143"/>
+    </row>
+    <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="133"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="135"/>
+      <c r="L71" s="168"/>
+      <c r="M71" s="173"/>
+      <c r="N71" s="174"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="166"/>
+      <c r="Q71" s="167"/>
+    </row>
+    <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="136"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="168"/>
+      <c r="M72" s="171"/>
+      <c r="N72" s="172"/>
+      <c r="O72" s="144"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="146"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B74" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="129"/>
+      <c r="L74" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="M74" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="N74" s="128"/>
+      <c r="O74" s="179" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="179"/>
+      <c r="Q74" s="177"/>
+    </row>
+    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="130"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="132"/>
+      <c r="L75" s="182">
+        <v>1</v>
+      </c>
+      <c r="M75" s="169" t="s">
+        <v>215</v>
+      </c>
+      <c r="N75" s="170"/>
+      <c r="O75" s="153" t="s">
+        <v>218</v>
+      </c>
+      <c r="P75" s="154"/>
+      <c r="Q75" s="155"/>
+    </row>
+    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="133"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
+      <c r="J76" s="134"/>
+      <c r="K76" s="135"/>
+      <c r="L76" s="183"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="174"/>
+      <c r="O76" s="159"/>
+      <c r="P76" s="160"/>
+      <c r="Q76" s="161"/>
+    </row>
+    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="133"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="134"/>
+      <c r="K77" s="135"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="173"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="159"/>
+      <c r="P77" s="160"/>
+      <c r="Q77" s="161"/>
+    </row>
+    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="133"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
+      <c r="K78" s="135"/>
+      <c r="L78" s="183"/>
+      <c r="M78" s="173"/>
+      <c r="N78" s="174"/>
+      <c r="O78" s="159"/>
+      <c r="P78" s="160"/>
+      <c r="Q78" s="161"/>
+    </row>
+    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="133"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="134"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="134"/>
+      <c r="J79" s="134"/>
+      <c r="K79" s="135"/>
+      <c r="L79" s="183"/>
+      <c r="M79" s="173"/>
+      <c r="N79" s="174"/>
+      <c r="O79" s="159"/>
+      <c r="P79" s="160"/>
+      <c r="Q79" s="161"/>
+    </row>
+    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="133"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="134"/>
+      <c r="K80" s="135"/>
+      <c r="L80" s="183"/>
+      <c r="M80" s="173"/>
+      <c r="N80" s="174"/>
+      <c r="O80" s="159"/>
+      <c r="P80" s="160"/>
+      <c r="Q80" s="161"/>
+    </row>
+    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="133"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="134"/>
+      <c r="K81" s="135"/>
+      <c r="L81" s="183"/>
+      <c r="M81" s="173"/>
+      <c r="N81" s="174"/>
+      <c r="O81" s="159"/>
+      <c r="P81" s="160"/>
+      <c r="Q81" s="161"/>
+    </row>
+    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="133"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="134"/>
+      <c r="K82" s="135"/>
+      <c r="L82" s="184"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="172"/>
+      <c r="O82" s="156"/>
+      <c r="P82" s="157"/>
+      <c r="Q82" s="158"/>
+    </row>
+    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
+      <c r="J83" s="134"/>
+      <c r="K83" s="135"/>
+      <c r="L83" s="182">
+        <v>2</v>
+      </c>
+      <c r="M83" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="N83" s="170"/>
+      <c r="O83" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="P83" s="154"/>
+      <c r="Q83" s="155"/>
+    </row>
+    <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="133"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="134"/>
+      <c r="K84" s="135"/>
+      <c r="L84" s="183"/>
+      <c r="M84" s="173"/>
+      <c r="N84" s="174"/>
+      <c r="O84" s="159"/>
+      <c r="P84" s="160"/>
+      <c r="Q84" s="161"/>
+    </row>
+    <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="133"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
+      <c r="J85" s="134"/>
+      <c r="K85" s="135"/>
+      <c r="L85" s="183"/>
+      <c r="M85" s="173"/>
+      <c r="N85" s="174"/>
+      <c r="O85" s="159"/>
+      <c r="P85" s="160"/>
+      <c r="Q85" s="161"/>
+    </row>
+    <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="133"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
+      <c r="J86" s="134"/>
+      <c r="K86" s="135"/>
+      <c r="L86" s="183"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="174"/>
+      <c r="O86" s="159"/>
+      <c r="P86" s="160"/>
+      <c r="Q86" s="161"/>
+    </row>
+    <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="133"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
+      <c r="J87" s="134"/>
+      <c r="K87" s="135"/>
+      <c r="L87" s="183"/>
+      <c r="M87" s="173"/>
+      <c r="N87" s="174"/>
+      <c r="O87" s="159"/>
+      <c r="P87" s="160"/>
+      <c r="Q87" s="161"/>
+    </row>
+    <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
+      <c r="J88" s="134"/>
+      <c r="K88" s="135"/>
+      <c r="L88" s="183"/>
+      <c r="M88" s="173"/>
+      <c r="N88" s="174"/>
+      <c r="O88" s="159"/>
+      <c r="P88" s="160"/>
+      <c r="Q88" s="161"/>
+    </row>
+    <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="133"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
+      <c r="J89" s="134"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="183"/>
+      <c r="M89" s="173"/>
+      <c r="N89" s="174"/>
+      <c r="O89" s="159"/>
+      <c r="P89" s="160"/>
+      <c r="Q89" s="161"/>
+    </row>
+    <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="136"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="137"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="138"/>
+      <c r="L90" s="184"/>
+      <c r="M90" s="171"/>
+      <c r="N90" s="172"/>
+      <c r="O90" s="156"/>
+      <c r="P90" s="157"/>
+      <c r="Q90" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="L83:L90"/>
+    <mergeCell ref="L75:L82"/>
+    <mergeCell ref="M83:N90"/>
+    <mergeCell ref="M75:N82"/>
+    <mergeCell ref="O83:Q90"/>
+    <mergeCell ref="O75:Q82"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="B75:K90"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N58"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="M29:N32"/>
+    <mergeCell ref="M25:N28"/>
+    <mergeCell ref="M21:N24"/>
+    <mergeCell ref="M53:N54"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B57:K72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O13:Q15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:K18"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="B39:K54"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O33:Q36"/>
+    <mergeCell ref="O29:Q32"/>
+    <mergeCell ref="O25:Q28"/>
+    <mergeCell ref="O21:Q24"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="M33:N36"/>
+    <mergeCell ref="B21:K36"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F8C97F-E452-4707-95CC-1C685BF874B7}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84CF188B-8E5F-45E4-A227-8294ED17BC0B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="221">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,34 +2120,6 @@
   </si>
   <si>
     <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>버튼에 텍스트도 넣어 주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-좌 : 클릭 시, 풀스크린모드 전환
-우 : 클릭 시, 창모드 전환</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3509,6 +3481,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3572,233 +3550,227 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6890,15 +6862,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>397707</xdr:colOff>
+      <xdr:colOff>451495</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81498</xdr:rowOff>
+      <xdr:rowOff>162181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>443058</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>192968</xdr:rowOff>
+      <xdr:colOff>496846</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6921,8 +6893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1062725" y="524843"/>
-          <a:ext cx="6030515" cy="3390178"/>
+          <a:off x="1123848" y="610416"/>
+          <a:ext cx="6096527" cy="3410482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7366,58 +7338,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7447,11 +7419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -7922,43 +7894,43 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="94">
+      <c r="A21" s="96">
         <v>20</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="97"/>
+      <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="98"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="96"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="99"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="68">
@@ -8082,26 +8054,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="121" t="s">
+      <c r="O1" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8125,22 +8097,22 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
@@ -8160,22 +8132,22 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
@@ -8197,24 +8169,24 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="109" t="s">
+      <c r="O4" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
@@ -8234,20 +8206,20 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
@@ -8267,27 +8239,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="120" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8302,27 +8274,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="114"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8335,27 +8307,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8368,27 +8340,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="121" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8403,27 +8375,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8436,27 +8408,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="115"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8469,20 +8441,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -8504,20 +8476,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -8539,20 +8511,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -8574,20 +8546,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -8609,20 +8581,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -8644,20 +8616,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -8679,59 +8651,32 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8746,6 +8691,33 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8758,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F74CF53-2F48-46EA-9405-9928E75A2E5F}">
   <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8770,1753 +8742,1840 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="124" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="175" t="s">
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="176" t="s">
+      <c r="M2" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="176" t="s">
+      <c r="N2" s="145"/>
+      <c r="O2" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="127"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="182"/>
     </row>
     <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="168">
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="161">
         <v>1</v>
       </c>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="147" t="s">
+      <c r="N3" s="130"/>
+      <c r="O3" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="143"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
     </row>
     <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="168">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="161">
         <v>2</v>
       </c>
-      <c r="M5" s="169" t="s">
+      <c r="M5" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="170"/>
-      <c r="O5" s="147" t="s">
+      <c r="N5" s="130"/>
+      <c r="O5" s="180" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="143"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
     </row>
     <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="146"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="168">
+      <c r="B7" s="155"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="161">
         <v>3</v>
       </c>
-      <c r="M7" s="169" t="s">
+      <c r="M7" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="170"/>
-      <c r="O7" s="147" t="s">
-        <v>221</v>
-      </c>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="149"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="180" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
     </row>
     <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
     </row>
     <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="168">
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="161">
         <v>4</v>
       </c>
-      <c r="M9" s="169" t="s">
+      <c r="M9" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="170"/>
-      <c r="O9" s="147" t="s">
+      <c r="N9" s="130"/>
+      <c r="O9" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="173"/>
     </row>
     <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="133"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="146"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="179"/>
     </row>
     <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="133"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="168">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="161">
         <v>5</v>
       </c>
-      <c r="M11" s="169" t="s">
+      <c r="M11" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="170"/>
-      <c r="O11" s="147" t="s">
+      <c r="N11" s="130"/>
+      <c r="O11" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="149"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="165"/>
     </row>
     <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="133"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="152"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="171"/>
     </row>
     <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="168">
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="161">
         <v>6</v>
       </c>
-      <c r="M13" s="169" t="s">
+      <c r="M13" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="N13" s="170"/>
-      <c r="O13" s="147" t="s">
+      <c r="N13" s="130"/>
+      <c r="O13" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="149"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="165"/>
     </row>
     <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="164"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="168"/>
     </row>
     <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="133"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="152"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
     </row>
     <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="133"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="168">
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="161">
         <v>7</v>
       </c>
-      <c r="M16" s="169" t="s">
+      <c r="M16" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="170"/>
-      <c r="O16" s="141" t="s">
+      <c r="N16" s="130"/>
+      <c r="O16" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="143"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
     </row>
     <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="174"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
     </row>
     <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="146"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="179"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="124" t="s">
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="175" t="s">
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="126" t="s">
+      <c r="M20" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="176" t="s">
+      <c r="N20" s="145"/>
+      <c r="O20" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="182"/>
     </row>
     <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="168">
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="161">
         <v>1</v>
       </c>
-      <c r="M21" s="169" t="s">
+      <c r="M21" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="170"/>
-      <c r="O21" s="139" t="s">
+      <c r="N21" s="130"/>
+      <c r="O21" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
     </row>
     <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
     </row>
     <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="139"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
     </row>
     <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
     </row>
     <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="168">
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="161">
         <v>2</v>
       </c>
-      <c r="M25" s="169" t="s">
+      <c r="M25" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="170"/>
-      <c r="O25" s="140" t="s">
+      <c r="N25" s="130"/>
+      <c r="O25" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="139"/>
-      <c r="Q25" s="139"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
     </row>
     <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
     </row>
     <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="139"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
     </row>
     <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
     </row>
     <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="168">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="161">
         <v>3</v>
       </c>
-      <c r="M29" s="169" t="s">
+      <c r="M29" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="170"/>
-      <c r="O29" s="140" t="s">
+      <c r="N29" s="130"/>
+      <c r="O29" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="184"/>
     </row>
     <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="139"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
     </row>
     <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="139"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="184"/>
     </row>
     <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="139"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="184"/>
     </row>
     <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="168">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="161">
         <v>4</v>
       </c>
-      <c r="M33" s="169" t="s">
+      <c r="M33" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="N33" s="170"/>
-      <c r="O33" s="140" t="s">
-        <v>220</v>
-      </c>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="183" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
     </row>
     <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="168"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
     </row>
     <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="168"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="139"/>
-      <c r="Q35" s="139"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
     </row>
     <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="136"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="139"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="124" t="s">
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="175" t="s">
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="177" t="s">
+      <c r="M38" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="178"/>
-      <c r="O38" s="128" t="s">
+      <c r="N38" s="162"/>
+      <c r="O38" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="177"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="151"/>
     </row>
     <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="130"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="169">
+      <c r="B39" s="152"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="129">
         <v>1</v>
       </c>
-      <c r="M39" s="168" t="s">
+      <c r="M39" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="N39" s="168"/>
-      <c r="O39" s="142" t="s">
+      <c r="N39" s="161"/>
+      <c r="O39" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="143"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="173"/>
     </row>
     <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="133"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
-      <c r="Q40" s="146"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="161"/>
+      <c r="N40" s="161"/>
+      <c r="O40" s="178"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="179"/>
     </row>
     <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="133"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="169">
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="129">
         <v>2</v>
       </c>
-      <c r="M41" s="168" t="s">
+      <c r="M41" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="N41" s="168"/>
-      <c r="O41" s="148" t="s">
+      <c r="N41" s="161"/>
+      <c r="O41" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="143"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="173"/>
     </row>
     <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="133"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="146"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="178"/>
+      <c r="P42" s="178"/>
+      <c r="Q42" s="179"/>
     </row>
     <row r="43" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="169">
+      <c r="B43" s="155"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="129">
         <v>3</v>
       </c>
-      <c r="M43" s="168" t="s">
+      <c r="M43" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="N43" s="168"/>
-      <c r="O43" s="148" t="s">
+      <c r="N43" s="161"/>
+      <c r="O43" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="149"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="165"/>
     </row>
     <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="135"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="152"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="170"/>
+      <c r="P44" s="170"/>
+      <c r="Q44" s="171"/>
     </row>
     <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="133"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="169">
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="129">
         <v>4</v>
       </c>
-      <c r="M45" s="168" t="s">
+      <c r="M45" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="168"/>
-      <c r="O45" s="148" t="s">
+      <c r="N45" s="161"/>
+      <c r="O45" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="143"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="173"/>
     </row>
     <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="133"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="145"/>
-      <c r="P46" s="145"/>
-      <c r="Q46" s="146"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="179"/>
     </row>
     <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="133"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="169">
+      <c r="B47" s="155"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="129">
         <v>5</v>
       </c>
-      <c r="M47" s="168" t="s">
+      <c r="M47" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="168"/>
-      <c r="O47" s="142" t="s">
+      <c r="N47" s="161"/>
+      <c r="O47" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="143"/>
+      <c r="P47" s="172"/>
+      <c r="Q47" s="173"/>
     </row>
     <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="133"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
-      <c r="O48" s="145"/>
-      <c r="P48" s="145"/>
-      <c r="Q48" s="146"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="161"/>
+      <c r="N48" s="161"/>
+      <c r="O48" s="178"/>
+      <c r="P48" s="178"/>
+      <c r="Q48" s="179"/>
     </row>
     <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="169">
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="129">
         <v>6</v>
       </c>
-      <c r="M49" s="168" t="s">
+      <c r="M49" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="N49" s="168"/>
-      <c r="O49" s="148" t="s">
+      <c r="N49" s="161"/>
+      <c r="O49" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="143"/>
+      <c r="P49" s="172"/>
+      <c r="Q49" s="173"/>
     </row>
     <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="133"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="145"/>
-      <c r="P50" s="145"/>
-      <c r="Q50" s="146"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="178"/>
+      <c r="P50" s="178"/>
+      <c r="Q50" s="179"/>
     </row>
     <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="133"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="169">
+      <c r="B51" s="155"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="129">
         <v>7</v>
       </c>
-      <c r="M51" s="168" t="s">
+      <c r="M51" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="N51" s="168"/>
-      <c r="O51" s="148" t="s">
+      <c r="N51" s="161"/>
+      <c r="O51" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="149"/>
+      <c r="P51" s="164"/>
+      <c r="Q51" s="165"/>
     </row>
     <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="151"/>
-      <c r="P52" s="151"/>
-      <c r="Q52" s="152"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="161"/>
+      <c r="O52" s="170"/>
+      <c r="P52" s="170"/>
+      <c r="Q52" s="171"/>
     </row>
     <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="133"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="169">
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="129">
         <v>8</v>
       </c>
-      <c r="M53" s="168" t="s">
+      <c r="M53" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="168"/>
-      <c r="O53" s="148" t="s">
+      <c r="N53" s="161"/>
+      <c r="O53" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="P53" s="142"/>
-      <c r="Q53" s="143"/>
+      <c r="P53" s="172"/>
+      <c r="Q53" s="173"/>
     </row>
     <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="136"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="145"/>
-      <c r="P54" s="145"/>
-      <c r="Q54" s="146"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="178"/>
+      <c r="P54" s="178"/>
+      <c r="Q54" s="179"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="124" t="s">
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="180" t="s">
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="176" t="s">
+      <c r="M56" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="N56" s="128"/>
-      <c r="O56" s="179" t="s">
+      <c r="N56" s="145"/>
+      <c r="O56" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="179"/>
-      <c r="Q56" s="177"/>
+      <c r="P56" s="150"/>
+      <c r="Q56" s="151"/>
     </row>
     <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="130"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="168">
+      <c r="B57" s="152"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="161">
         <v>1</v>
       </c>
-      <c r="M57" s="169" t="s">
+      <c r="M57" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="N57" s="170"/>
-      <c r="O57" s="147" t="s">
+      <c r="N57" s="130"/>
+      <c r="O57" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="142"/>
-      <c r="Q57" s="143"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="173"/>
     </row>
     <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="133"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="168"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="172"/>
-      <c r="O58" s="144"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="146"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="161"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="177"/>
+      <c r="P58" s="178"/>
+      <c r="Q58" s="179"/>
     </row>
     <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="133"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="168">
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="161">
         <v>2</v>
       </c>
-      <c r="M59" s="169" t="s">
+      <c r="M59" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="N59" s="170"/>
-      <c r="O59" s="147" t="s">
+      <c r="N59" s="130"/>
+      <c r="O59" s="180" t="s">
         <v>189</v>
       </c>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="143"/>
+      <c r="P59" s="172"/>
+      <c r="Q59" s="173"/>
     </row>
     <row r="60" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="133"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="135"/>
-      <c r="L60" s="168"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="146"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="177"/>
+      <c r="P60" s="178"/>
+      <c r="Q60" s="179"/>
     </row>
     <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="133"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="168">
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="161">
         <v>3</v>
       </c>
-      <c r="M61" s="169" t="s">
+      <c r="M61" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="N61" s="170"/>
-      <c r="O61" s="147" t="s">
+      <c r="N61" s="130"/>
+      <c r="O61" s="180" t="s">
         <v>209</v>
       </c>
-      <c r="P61" s="148"/>
-      <c r="Q61" s="149"/>
+      <c r="P61" s="164"/>
+      <c r="Q61" s="165"/>
     </row>
     <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="133"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="134"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="168"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="151"/>
-      <c r="Q62" s="152"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="161"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="170"/>
+      <c r="Q62" s="171"/>
     </row>
     <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="133"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="168">
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="161">
         <v>4</v>
       </c>
-      <c r="M63" s="169"/>
-      <c r="N63" s="170"/>
-      <c r="O63" s="147" t="s">
-        <v>190</v>
-      </c>
-      <c r="P63" s="142"/>
-      <c r="Q63" s="143"/>
+      <c r="M63" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="N63" s="130"/>
+      <c r="O63" s="180" t="s">
+        <v>182</v>
+      </c>
+      <c r="P63" s="172"/>
+      <c r="Q63" s="173"/>
     </row>
     <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="133"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="135"/>
-      <c r="L64" s="168"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="144"/>
-      <c r="P64" s="145"/>
-      <c r="Q64" s="146"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="161"/>
+      <c r="M64" s="133"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="177"/>
+      <c r="P64" s="178"/>
+      <c r="Q64" s="179"/>
     </row>
     <row r="65" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="133"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="135"/>
-      <c r="L65" s="168">
+      <c r="B65" s="155"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="161">
         <v>5</v>
       </c>
-      <c r="M65" s="169" t="s">
+      <c r="M65" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="N65" s="170"/>
-      <c r="O65" s="147" t="s">
+      <c r="N65" s="130"/>
+      <c r="O65" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="P65" s="148"/>
-      <c r="Q65" s="149"/>
+      <c r="P65" s="164"/>
+      <c r="Q65" s="165"/>
     </row>
     <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="133"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="134"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="134"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="135"/>
-      <c r="L66" s="168"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="150"/>
-      <c r="P66" s="151"/>
-      <c r="Q66" s="152"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="161"/>
+      <c r="M66" s="133"/>
+      <c r="N66" s="134"/>
+      <c r="O66" s="169"/>
+      <c r="P66" s="170"/>
+      <c r="Q66" s="171"/>
     </row>
     <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="133"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
-      <c r="E67" s="134"/>
-      <c r="F67" s="134"/>
-      <c r="G67" s="134"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="134"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="168">
+      <c r="B67" s="155"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="161">
         <v>6</v>
       </c>
-      <c r="M67" s="169" t="s">
+      <c r="M67" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="N67" s="170"/>
-      <c r="O67" s="181" t="s">
+      <c r="N67" s="130"/>
+      <c r="O67" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="P67" s="148"/>
-      <c r="Q67" s="149"/>
+      <c r="P67" s="164"/>
+      <c r="Q67" s="165"/>
     </row>
     <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="133"/>
-      <c r="C68" s="134"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="134"/>
-      <c r="G68" s="134"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="135"/>
-      <c r="L68" s="168"/>
-      <c r="M68" s="173"/>
-      <c r="N68" s="174"/>
-      <c r="O68" s="162"/>
-      <c r="P68" s="163"/>
-      <c r="Q68" s="164"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="161"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="166"/>
+      <c r="P68" s="167"/>
+      <c r="Q68" s="168"/>
     </row>
     <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="134"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="134"/>
-      <c r="H69" s="134"/>
-      <c r="I69" s="134"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="135"/>
-      <c r="L69" s="168"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="150"/>
-      <c r="P69" s="151"/>
-      <c r="Q69" s="152"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="161"/>
+      <c r="M69" s="133"/>
+      <c r="N69" s="134"/>
+      <c r="O69" s="169"/>
+      <c r="P69" s="170"/>
+      <c r="Q69" s="171"/>
     </row>
     <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="133"/>
-      <c r="C70" s="134"/>
-      <c r="D70" s="134"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="135"/>
-      <c r="L70" s="168">
+      <c r="B70" s="155"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="156"/>
+      <c r="F70" s="156"/>
+      <c r="G70" s="156"/>
+      <c r="H70" s="156"/>
+      <c r="I70" s="156"/>
+      <c r="J70" s="156"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="161">
         <v>7</v>
       </c>
-      <c r="M70" s="169" t="s">
+      <c r="M70" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="170"/>
-      <c r="O70" s="181" t="s">
+      <c r="N70" s="130"/>
+      <c r="O70" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="P70" s="172"/>
+      <c r="Q70" s="173"/>
+    </row>
+    <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="155"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="161"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="174"/>
+      <c r="P71" s="175"/>
+      <c r="Q71" s="176"/>
+    </row>
+    <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="158"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="159"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="133"/>
+      <c r="N72" s="134"/>
+      <c r="O72" s="177"/>
+      <c r="P72" s="178"/>
+      <c r="Q72" s="179"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B74" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="144"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="145"/>
+      <c r="G74" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="147"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="M74" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="N74" s="145"/>
+      <c r="O74" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="150"/>
+      <c r="Q74" s="151"/>
+    </row>
+    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="152"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="126">
+        <v>1</v>
+      </c>
+      <c r="M75" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="143"/>
-    </row>
-    <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="133"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="135"/>
-      <c r="L71" s="168"/>
-      <c r="M71" s="173"/>
-      <c r="N71" s="174"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="166"/>
-      <c r="Q71" s="167"/>
-    </row>
-    <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="136"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="138"/>
-      <c r="L72" s="168"/>
-      <c r="M72" s="171"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="144"/>
-      <c r="P72" s="145"/>
-      <c r="Q72" s="146"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="124" t="s">
-        <v>219</v>
-      </c>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="129"/>
-      <c r="L74" s="180" t="s">
-        <v>172</v>
-      </c>
-      <c r="M74" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="N74" s="128"/>
-      <c r="O74" s="179" t="s">
-        <v>173</v>
-      </c>
-      <c r="P74" s="179"/>
-      <c r="Q74" s="177"/>
-    </row>
-    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="130"/>
-      <c r="C75" s="131"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="131"/>
-      <c r="K75" s="132"/>
-      <c r="L75" s="182">
-        <v>1</v>
-      </c>
-      <c r="M75" s="169" t="s">
+      <c r="N75" s="130"/>
+      <c r="O75" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="P75" s="136"/>
+      <c r="Q75" s="137"/>
+    </row>
+    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="155"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="127"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="132"/>
+      <c r="O76" s="138"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="140"/>
+    </row>
+    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="155"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="127"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="132"/>
+      <c r="O77" s="138"/>
+      <c r="P77" s="139"/>
+      <c r="Q77" s="140"/>
+    </row>
+    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="155"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="127"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="132"/>
+      <c r="O78" s="138"/>
+      <c r="P78" s="139"/>
+      <c r="Q78" s="140"/>
+    </row>
+    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="155"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
+      <c r="K79" s="157"/>
+      <c r="L79" s="127"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="132"/>
+      <c r="O79" s="138"/>
+      <c r="P79" s="139"/>
+      <c r="Q79" s="140"/>
+    </row>
+    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="155"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="156"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="127"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="132"/>
+      <c r="O80" s="138"/>
+      <c r="P80" s="139"/>
+      <c r="Q80" s="140"/>
+    </row>
+    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="155"/>
+      <c r="C81" s="156"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
+      <c r="G81" s="156"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="156"/>
+      <c r="K81" s="157"/>
+      <c r="L81" s="127"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="132"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="139"/>
+      <c r="Q81" s="140"/>
+    </row>
+    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="155"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="156"/>
+      <c r="G82" s="156"/>
+      <c r="H82" s="156"/>
+      <c r="I82" s="156"/>
+      <c r="J82" s="156"/>
+      <c r="K82" s="157"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="133"/>
+      <c r="N82" s="134"/>
+      <c r="O82" s="141"/>
+      <c r="P82" s="142"/>
+      <c r="Q82" s="143"/>
+    </row>
+    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="155"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="156"/>
+      <c r="H83" s="156"/>
+      <c r="I83" s="156"/>
+      <c r="J83" s="156"/>
+      <c r="K83" s="157"/>
+      <c r="L83" s="126">
+        <v>2</v>
+      </c>
+      <c r="M83" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="N75" s="170"/>
-      <c r="O75" s="153" t="s">
-        <v>218</v>
-      </c>
-      <c r="P75" s="154"/>
-      <c r="Q75" s="155"/>
-    </row>
-    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="133"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="134"/>
-      <c r="J76" s="134"/>
-      <c r="K76" s="135"/>
-      <c r="L76" s="183"/>
-      <c r="M76" s="173"/>
-      <c r="N76" s="174"/>
-      <c r="O76" s="159"/>
-      <c r="P76" s="160"/>
-      <c r="Q76" s="161"/>
-    </row>
-    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="133"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="134"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="134"/>
-      <c r="J77" s="134"/>
-      <c r="K77" s="135"/>
-      <c r="L77" s="183"/>
-      <c r="M77" s="173"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="159"/>
-      <c r="P77" s="160"/>
-      <c r="Q77" s="161"/>
-    </row>
-    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="133"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="134"/>
-      <c r="J78" s="134"/>
-      <c r="K78" s="135"/>
-      <c r="L78" s="183"/>
-      <c r="M78" s="173"/>
-      <c r="N78" s="174"/>
-      <c r="O78" s="159"/>
-      <c r="P78" s="160"/>
-      <c r="Q78" s="161"/>
-    </row>
-    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="133"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="134"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="134"/>
-      <c r="I79" s="134"/>
-      <c r="J79" s="134"/>
-      <c r="K79" s="135"/>
-      <c r="L79" s="183"/>
-      <c r="M79" s="173"/>
-      <c r="N79" s="174"/>
-      <c r="O79" s="159"/>
-      <c r="P79" s="160"/>
-      <c r="Q79" s="161"/>
-    </row>
-    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="133"/>
-      <c r="C80" s="134"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="134"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="134"/>
-      <c r="H80" s="134"/>
-      <c r="I80" s="134"/>
-      <c r="J80" s="134"/>
-      <c r="K80" s="135"/>
-      <c r="L80" s="183"/>
-      <c r="M80" s="173"/>
-      <c r="N80" s="174"/>
-      <c r="O80" s="159"/>
-      <c r="P80" s="160"/>
-      <c r="Q80" s="161"/>
-    </row>
-    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="133"/>
-      <c r="C81" s="134"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="134"/>
-      <c r="H81" s="134"/>
-      <c r="I81" s="134"/>
-      <c r="J81" s="134"/>
-      <c r="K81" s="135"/>
-      <c r="L81" s="183"/>
-      <c r="M81" s="173"/>
-      <c r="N81" s="174"/>
-      <c r="O81" s="159"/>
-      <c r="P81" s="160"/>
-      <c r="Q81" s="161"/>
-    </row>
-    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="133"/>
-      <c r="C82" s="134"/>
-      <c r="D82" s="134"/>
-      <c r="E82" s="134"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="134"/>
-      <c r="H82" s="134"/>
-      <c r="I82" s="134"/>
-      <c r="J82" s="134"/>
-      <c r="K82" s="135"/>
-      <c r="L82" s="184"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="172"/>
-      <c r="O82" s="156"/>
-      <c r="P82" s="157"/>
-      <c r="Q82" s="158"/>
-    </row>
-    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="134"/>
-      <c r="H83" s="134"/>
-      <c r="I83" s="134"/>
-      <c r="J83" s="134"/>
-      <c r="K83" s="135"/>
-      <c r="L83" s="182">
-        <v>2</v>
-      </c>
-      <c r="M83" s="169" t="s">
+      <c r="N83" s="130"/>
+      <c r="O83" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="N83" s="170"/>
-      <c r="O83" s="153" t="s">
-        <v>217</v>
-      </c>
-      <c r="P83" s="154"/>
-      <c r="Q83" s="155"/>
+      <c r="P83" s="136"/>
+      <c r="Q83" s="137"/>
     </row>
     <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="133"/>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="134"/>
-      <c r="K84" s="135"/>
-      <c r="L84" s="183"/>
-      <c r="M84" s="173"/>
-      <c r="N84" s="174"/>
-      <c r="O84" s="159"/>
-      <c r="P84" s="160"/>
-      <c r="Q84" s="161"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="156"/>
+      <c r="G84" s="156"/>
+      <c r="H84" s="156"/>
+      <c r="I84" s="156"/>
+      <c r="J84" s="156"/>
+      <c r="K84" s="157"/>
+      <c r="L84" s="127"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="132"/>
+      <c r="O84" s="138"/>
+      <c r="P84" s="139"/>
+      <c r="Q84" s="140"/>
     </row>
     <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="133"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="134"/>
-      <c r="H85" s="134"/>
-      <c r="I85" s="134"/>
-      <c r="J85" s="134"/>
-      <c r="K85" s="135"/>
-      <c r="L85" s="183"/>
-      <c r="M85" s="173"/>
-      <c r="N85" s="174"/>
-      <c r="O85" s="159"/>
-      <c r="P85" s="160"/>
-      <c r="Q85" s="161"/>
+      <c r="B85" s="155"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="156"/>
+      <c r="G85" s="156"/>
+      <c r="H85" s="156"/>
+      <c r="I85" s="156"/>
+      <c r="J85" s="156"/>
+      <c r="K85" s="157"/>
+      <c r="L85" s="127"/>
+      <c r="M85" s="131"/>
+      <c r="N85" s="132"/>
+      <c r="O85" s="138"/>
+      <c r="P85" s="139"/>
+      <c r="Q85" s="140"/>
     </row>
     <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="133"/>
-      <c r="C86" s="134"/>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="134"/>
-      <c r="G86" s="134"/>
-      <c r="H86" s="134"/>
-      <c r="I86" s="134"/>
-      <c r="J86" s="134"/>
-      <c r="K86" s="135"/>
-      <c r="L86" s="183"/>
-      <c r="M86" s="173"/>
-      <c r="N86" s="174"/>
-      <c r="O86" s="159"/>
-      <c r="P86" s="160"/>
-      <c r="Q86" s="161"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="156"/>
+      <c r="G86" s="156"/>
+      <c r="H86" s="156"/>
+      <c r="I86" s="156"/>
+      <c r="J86" s="156"/>
+      <c r="K86" s="157"/>
+      <c r="L86" s="127"/>
+      <c r="M86" s="131"/>
+      <c r="N86" s="132"/>
+      <c r="O86" s="138"/>
+      <c r="P86" s="139"/>
+      <c r="Q86" s="140"/>
     </row>
     <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="133"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="134"/>
-      <c r="H87" s="134"/>
-      <c r="I87" s="134"/>
-      <c r="J87" s="134"/>
-      <c r="K87" s="135"/>
-      <c r="L87" s="183"/>
-      <c r="M87" s="173"/>
-      <c r="N87" s="174"/>
-      <c r="O87" s="159"/>
-      <c r="P87" s="160"/>
-      <c r="Q87" s="161"/>
+      <c r="B87" s="155"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="156"/>
+      <c r="F87" s="156"/>
+      <c r="G87" s="156"/>
+      <c r="H87" s="156"/>
+      <c r="I87" s="156"/>
+      <c r="J87" s="156"/>
+      <c r="K87" s="157"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="131"/>
+      <c r="N87" s="132"/>
+      <c r="O87" s="138"/>
+      <c r="P87" s="139"/>
+      <c r="Q87" s="140"/>
     </row>
     <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="133"/>
-      <c r="C88" s="134"/>
-      <c r="D88" s="134"/>
-      <c r="E88" s="134"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="134"/>
-      <c r="H88" s="134"/>
-      <c r="I88" s="134"/>
-      <c r="J88" s="134"/>
-      <c r="K88" s="135"/>
-      <c r="L88" s="183"/>
-      <c r="M88" s="173"/>
-      <c r="N88" s="174"/>
-      <c r="O88" s="159"/>
-      <c r="P88" s="160"/>
-      <c r="Q88" s="161"/>
+      <c r="B88" s="155"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="156"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="131"/>
+      <c r="N88" s="132"/>
+      <c r="O88" s="138"/>
+      <c r="P88" s="139"/>
+      <c r="Q88" s="140"/>
     </row>
     <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="133"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="134"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="134"/>
-      <c r="G89" s="134"/>
-      <c r="H89" s="134"/>
-      <c r="I89" s="134"/>
-      <c r="J89" s="134"/>
-      <c r="K89" s="135"/>
-      <c r="L89" s="183"/>
-      <c r="M89" s="173"/>
-      <c r="N89" s="174"/>
-      <c r="O89" s="159"/>
-      <c r="P89" s="160"/>
-      <c r="Q89" s="161"/>
+      <c r="B89" s="155"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="156"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="157"/>
+      <c r="L89" s="127"/>
+      <c r="M89" s="131"/>
+      <c r="N89" s="132"/>
+      <c r="O89" s="138"/>
+      <c r="P89" s="139"/>
+      <c r="Q89" s="140"/>
     </row>
     <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="136"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
-      <c r="J90" s="137"/>
-      <c r="K90" s="138"/>
-      <c r="L90" s="184"/>
-      <c r="M90" s="171"/>
-      <c r="N90" s="172"/>
-      <c r="O90" s="156"/>
-      <c r="P90" s="157"/>
-      <c r="Q90" s="158"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="159"/>
+      <c r="D90" s="159"/>
+      <c r="E90" s="159"/>
+      <c r="F90" s="159"/>
+      <c r="G90" s="159"/>
+      <c r="H90" s="159"/>
+      <c r="I90" s="159"/>
+      <c r="J90" s="159"/>
+      <c r="K90" s="160"/>
+      <c r="L90" s="128"/>
+      <c r="M90" s="133"/>
+      <c r="N90" s="134"/>
+      <c r="O90" s="141"/>
+      <c r="P90" s="142"/>
+      <c r="Q90" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="O33:Q36"/>
+    <mergeCell ref="O29:Q32"/>
+    <mergeCell ref="O25:Q28"/>
+    <mergeCell ref="O21:Q24"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="M33:N36"/>
+    <mergeCell ref="B21:K36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:K18"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="B39:K54"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O13:Q15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B57:K72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
     <mergeCell ref="L83:L90"/>
     <mergeCell ref="L75:L82"/>
     <mergeCell ref="M83:N90"/>
@@ -10541,91 +10600,6 @@
     <mergeCell ref="M53:N54"/>
     <mergeCell ref="M51:N52"/>
     <mergeCell ref="M49:N50"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M16:N18"/>
-    <mergeCell ref="M13:N15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="O67:Q69"/>
-    <mergeCell ref="O70:Q72"/>
-    <mergeCell ref="M70:N72"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="B57:K72"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O16:Q18"/>
-    <mergeCell ref="O13:Q15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:K18"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="B39:K54"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O33:Q36"/>
-    <mergeCell ref="O29:Q32"/>
-    <mergeCell ref="O25:Q28"/>
-    <mergeCell ref="O21:Q24"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="M33:N36"/>
-    <mergeCell ref="B21:K36"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="L33:L36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84CF188B-8E5F-45E4-A227-8294ED17BC0B}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3F55AA-DAE1-468F-9622-A99588FF4586}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="222">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2209,6 +2209,12 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색은 남은 스크롤바, 검은색은 현재 값을 나타냄. 중앙의 도형을 통해 0부터 1까지,값을 변경할 수 있음.
+상 : 게임 전체 소리
+하 : 마우스 감도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3550,6 +3556,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3562,38 +3601,146 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3604,24 +3751,6 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3648,129 +3777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6913,8 +6919,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>358668</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>175557</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>184522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8054,26 +8060,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="112" t="s">
+      <c r="O1" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8082,7 +8088,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="119" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8097,29 +8103,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -8132,29 +8138,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="121" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -8169,31 +8175,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="119"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -8206,27 +8212,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="119"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -8239,27 +8245,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8274,27 +8280,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="120"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8307,27 +8313,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="120"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8340,27 +8346,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="117" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8375,27 +8381,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="121"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8408,27 +8414,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="121"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8441,20 +8447,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -8476,20 +8482,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -8511,20 +8517,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -8546,20 +8552,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -8581,20 +8587,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -8616,20 +8622,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -8651,32 +8657,59 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8691,33 +8724,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8731,7 +8737,7 @@
   <dimension ref="B2:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+      <selection activeCell="B56" sqref="B56:Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8742,1840 +8748,1755 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="147" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="149" t="s">
+      <c r="M2" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="149" t="s">
+      <c r="N2" s="132"/>
+      <c r="O2" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="182"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="128"/>
     </row>
     <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="161">
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="129">
         <v>1</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="N3" s="130"/>
-      <c r="O3" s="180" t="s">
+      <c r="N3" s="139"/>
+      <c r="O3" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="173"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="155"/>
     </row>
     <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="157"/>
     </row>
     <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="161">
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="129">
         <v>2</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="130"/>
-      <c r="O5" s="180" t="s">
+      <c r="N5" s="139"/>
+      <c r="O5" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
     </row>
     <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="179"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
     </row>
     <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="155"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="161">
+      <c r="B7" s="147"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="129">
         <v>3</v>
       </c>
-      <c r="M7" s="129" t="s">
+      <c r="M7" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="180" t="s">
+      <c r="N7" s="139"/>
+      <c r="O7" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="158"/>
     </row>
     <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="171"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160"/>
     </row>
     <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="161">
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="129">
         <v>4</v>
       </c>
-      <c r="M9" s="129" t="s">
+      <c r="M9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="180" t="s">
+      <c r="N9" s="139"/>
+      <c r="O9" s="161" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="155"/>
     </row>
     <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="179"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="157"/>
     </row>
     <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="161">
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="129">
         <v>5</v>
       </c>
-      <c r="M11" s="129" t="s">
+      <c r="M11" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="130"/>
-      <c r="O11" s="180" t="s">
+      <c r="N11" s="139"/>
+      <c r="O11" s="161" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="165"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="158"/>
     </row>
     <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="171"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="160"/>
     </row>
     <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="161">
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="129">
         <v>6</v>
       </c>
-      <c r="M13" s="129" t="s">
+      <c r="M13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="N13" s="130"/>
-      <c r="O13" s="180" t="s">
+      <c r="N13" s="139"/>
+      <c r="O13" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="165"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="158"/>
     </row>
     <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="168"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="170"/>
     </row>
     <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="160"/>
     </row>
     <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="161">
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="129">
         <v>7</v>
       </c>
-      <c r="M16" s="129" t="s">
+      <c r="M16" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="130"/>
-      <c r="O16" s="181" t="s">
+      <c r="N16" s="139"/>
+      <c r="O16" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="173"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="155"/>
     </row>
     <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
     </row>
     <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="179"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="157"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="147" t="s">
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="137"/>
       <c r="L20" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="144" t="s">
+      <c r="M20" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="145"/>
-      <c r="O20" s="149" t="s">
+      <c r="N20" s="132"/>
+      <c r="O20" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="182"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="128"/>
     </row>
     <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="161">
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="129">
         <v>1</v>
       </c>
-      <c r="M21" s="129" t="s">
+      <c r="M21" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="130"/>
-      <c r="O21" s="184" t="s">
+      <c r="N21" s="139"/>
+      <c r="O21" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="184"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
     </row>
     <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
     </row>
     <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
     </row>
     <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
     </row>
     <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="161">
+      <c r="B25" s="147"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="129">
         <v>2</v>
       </c>
-      <c r="M25" s="129" t="s">
+      <c r="M25" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="130"/>
-      <c r="O25" s="183" t="s">
+      <c r="N25" s="139"/>
+      <c r="O25" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
     </row>
     <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
     </row>
     <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
     </row>
     <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
     </row>
     <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="161">
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="129">
         <v>3</v>
       </c>
-      <c r="M29" s="129" t="s">
+      <c r="M29" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="130"/>
-      <c r="O29" s="183" t="s">
+      <c r="N29" s="139"/>
+      <c r="O29" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="184"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
     </row>
     <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
     </row>
     <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
     </row>
     <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="184"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
     </row>
     <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="161">
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="129">
         <v>4</v>
       </c>
-      <c r="M33" s="129" t="s">
+      <c r="M33" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="N33" s="130"/>
-      <c r="O33" s="183" t="s">
+      <c r="N33" s="139"/>
+      <c r="O33" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="184"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
     </row>
     <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
     </row>
     <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
     </row>
     <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="158"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="147" t="s">
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="148"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="137"/>
       <c r="L38" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="151" t="s">
+      <c r="M38" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="162"/>
-      <c r="O38" s="145" t="s">
+      <c r="N38" s="172"/>
+      <c r="O38" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="150"/>
-      <c r="Q38" s="151"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="134"/>
     </row>
     <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="129">
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="138">
         <v>1</v>
       </c>
-      <c r="M39" s="161" t="s">
+      <c r="M39" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="N39" s="161"/>
-      <c r="O39" s="172" t="s">
+      <c r="N39" s="129"/>
+      <c r="O39" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="173"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="155"/>
     </row>
     <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="161"/>
-      <c r="N40" s="161"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="179"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="129"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="157"/>
     </row>
     <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="129">
+      <c r="B41" s="147"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="138">
         <v>2</v>
       </c>
-      <c r="M41" s="161" t="s">
+      <c r="M41" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="N41" s="161"/>
-      <c r="O41" s="164" t="s">
+      <c r="N41" s="129"/>
+      <c r="O41" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="173"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="155"/>
     </row>
     <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="155"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="178"/>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="179"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="157"/>
     </row>
     <row r="43" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="155"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="129">
+      <c r="B43" s="147"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="138">
         <v>3</v>
       </c>
-      <c r="M43" s="161" t="s">
+      <c r="M43" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="N43" s="161"/>
-      <c r="O43" s="164" t="s">
+      <c r="N43" s="129"/>
+      <c r="O43" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="165"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="158"/>
     </row>
     <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="171"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="149"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="159"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="129">
+      <c r="B45" s="147"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="138">
         <v>4</v>
       </c>
-      <c r="M45" s="161" t="s">
+      <c r="M45" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="161"/>
-      <c r="O45" s="164" t="s">
+      <c r="N45" s="129"/>
+      <c r="O45" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="173"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="155"/>
     </row>
     <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="161"/>
-      <c r="N46" s="161"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="179"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="149"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="157"/>
     </row>
     <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="155"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="129">
+      <c r="B47" s="147"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="138">
         <v>5</v>
       </c>
-      <c r="M47" s="161" t="s">
+      <c r="M47" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="161"/>
-      <c r="O47" s="172" t="s">
+      <c r="N47" s="129"/>
+      <c r="O47" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="P47" s="172"/>
-      <c r="Q47" s="173"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="155"/>
     </row>
     <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="155"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="133"/>
-      <c r="M48" s="161"/>
-      <c r="N48" s="161"/>
-      <c r="O48" s="178"/>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="179"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="156"/>
+      <c r="Q48" s="157"/>
     </row>
     <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="129">
+      <c r="B49" s="147"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="138">
         <v>6</v>
       </c>
-      <c r="M49" s="161" t="s">
+      <c r="M49" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="N49" s="161"/>
-      <c r="O49" s="164" t="s">
+      <c r="N49" s="129"/>
+      <c r="O49" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="P49" s="172"/>
-      <c r="Q49" s="173"/>
+      <c r="P49" s="154"/>
+      <c r="Q49" s="155"/>
     </row>
     <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="161"/>
-      <c r="O50" s="178"/>
-      <c r="P50" s="178"/>
-      <c r="Q50" s="179"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="142"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="157"/>
     </row>
     <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="155"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="129">
+      <c r="B51" s="147"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="138">
         <v>7</v>
       </c>
-      <c r="M51" s="161" t="s">
+      <c r="M51" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="N51" s="161"/>
-      <c r="O51" s="164" t="s">
+      <c r="N51" s="129"/>
+      <c r="O51" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="P51" s="164"/>
-      <c r="Q51" s="165"/>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="158"/>
     </row>
     <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="161"/>
-      <c r="N52" s="161"/>
-      <c r="O52" s="170"/>
-      <c r="P52" s="170"/>
-      <c r="Q52" s="171"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="149"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="159"/>
+      <c r="P52" s="159"/>
+      <c r="Q52" s="160"/>
     </row>
     <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="129">
+      <c r="B53" s="147"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="149"/>
+      <c r="L53" s="138">
         <v>8</v>
       </c>
-      <c r="M53" s="161" t="s">
+      <c r="M53" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="161"/>
-      <c r="O53" s="164" t="s">
+      <c r="N53" s="129"/>
+      <c r="O53" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="173"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="155"/>
     </row>
     <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="161"/>
-      <c r="N54" s="161"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
-      <c r="Q54" s="179"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="157"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="147" t="s">
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="148"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="137"/>
       <c r="L56" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="N56" s="145"/>
-      <c r="O56" s="150" t="s">
+      <c r="N56" s="132"/>
+      <c r="O56" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="151"/>
+      <c r="P56" s="133"/>
+      <c r="Q56" s="134"/>
     </row>
     <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="152"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="154"/>
-      <c r="L57" s="161">
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="129">
         <v>1</v>
       </c>
-      <c r="M57" s="129" t="s">
+      <c r="M57" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="N57" s="130"/>
-      <c r="O57" s="180" t="s">
+      <c r="N57" s="139"/>
+      <c r="O57" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="173"/>
+      <c r="P57" s="154"/>
+      <c r="Q57" s="155"/>
     </row>
     <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="161"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="177"/>
-      <c r="P58" s="178"/>
-      <c r="Q58" s="179"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="142"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="157"/>
     </row>
     <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="161">
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="129">
         <v>2</v>
       </c>
-      <c r="M59" s="129" t="s">
+      <c r="M59" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="N59" s="130"/>
-      <c r="O59" s="180" t="s">
-        <v>189</v>
-      </c>
-      <c r="P59" s="172"/>
-      <c r="Q59" s="173"/>
+      <c r="N59" s="139"/>
+      <c r="O59" s="153" t="s">
+        <v>182</v>
+      </c>
+      <c r="P59" s="153"/>
+      <c r="Q59" s="158"/>
     </row>
     <row r="60" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="161"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="177"/>
-      <c r="P60" s="178"/>
-      <c r="Q60" s="179"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="142"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="159"/>
+      <c r="P60" s="159"/>
+      <c r="Q60" s="160"/>
     </row>
     <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="155"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="161">
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="129">
         <v>3</v>
       </c>
-      <c r="M61" s="129" t="s">
+      <c r="M61" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="N61" s="130"/>
-      <c r="O61" s="180" t="s">
+      <c r="N61" s="139"/>
+      <c r="O61" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="P61" s="164"/>
-      <c r="Q61" s="165"/>
+      <c r="P61" s="153"/>
+      <c r="Q61" s="158"/>
     </row>
     <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="170"/>
-      <c r="Q62" s="171"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="142"/>
+      <c r="N62" s="143"/>
+      <c r="O62" s="163"/>
+      <c r="P62" s="159"/>
+      <c r="Q62" s="160"/>
     </row>
     <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="155"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="161">
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="129">
         <v>4</v>
       </c>
-      <c r="M63" s="129" t="s">
+      <c r="M63" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="N63" s="130"/>
-      <c r="O63" s="180" t="s">
+      <c r="N63" s="139"/>
+      <c r="O63" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="P63" s="172"/>
-      <c r="Q63" s="173"/>
+      <c r="P63" s="154"/>
+      <c r="Q63" s="155"/>
     </row>
     <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="155"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="161"/>
-      <c r="M64" s="133"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="177"/>
-      <c r="P64" s="178"/>
-      <c r="Q64" s="179"/>
-    </row>
-    <row r="65" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="155"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="161">
+      <c r="B64" s="147"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="142"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="156"/>
+      <c r="Q64" s="157"/>
+    </row>
+    <row r="65" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="147"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="129">
         <v>5</v>
       </c>
-      <c r="M65" s="129" t="s">
+      <c r="M65" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="N65" s="130"/>
-      <c r="O65" s="180" t="s">
-        <v>191</v>
-      </c>
-      <c r="P65" s="164"/>
-      <c r="Q65" s="165"/>
+      <c r="N65" s="139"/>
+      <c r="O65" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="155"/>
     </row>
     <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="155"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="161"/>
-      <c r="M66" s="133"/>
-      <c r="N66" s="134"/>
-      <c r="O66" s="169"/>
-      <c r="P66" s="170"/>
-      <c r="Q66" s="171"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="142"/>
+      <c r="N66" s="143"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="157"/>
     </row>
     <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="155"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="156"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="161">
+      <c r="B67" s="147"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="129">
         <v>6</v>
       </c>
-      <c r="M67" s="129" t="s">
+      <c r="M67" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="N67" s="130"/>
-      <c r="O67" s="163" t="s">
+      <c r="N67" s="139"/>
+      <c r="O67" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="P67" s="164"/>
-      <c r="Q67" s="165"/>
+      <c r="P67" s="153"/>
+      <c r="Q67" s="158"/>
     </row>
     <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="155"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="161"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="166"/>
-      <c r="P68" s="167"/>
-      <c r="Q68" s="168"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="141"/>
+      <c r="O68" s="168"/>
+      <c r="P68" s="169"/>
+      <c r="Q68" s="170"/>
     </row>
     <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="155"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="161"/>
-      <c r="M69" s="133"/>
-      <c r="N69" s="134"/>
-      <c r="O69" s="169"/>
-      <c r="P69" s="170"/>
-      <c r="Q69" s="171"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="142"/>
+      <c r="N69" s="143"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="159"/>
+      <c r="Q69" s="160"/>
     </row>
     <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="155"/>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="161">
+      <c r="B70" s="147"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="129">
         <v>7</v>
       </c>
-      <c r="M70" s="129" t="s">
+      <c r="M70" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="130"/>
-      <c r="O70" s="163" t="s">
+      <c r="N70" s="139"/>
+      <c r="O70" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="173"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="155"/>
     </row>
     <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="155"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="161"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="174"/>
-      <c r="P71" s="175"/>
-      <c r="Q71" s="176"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="141"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="166"/>
+      <c r="Q71" s="167"/>
     </row>
     <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="158"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
-      <c r="I72" s="159"/>
-      <c r="J72" s="159"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="161"/>
-      <c r="M72" s="133"/>
-      <c r="N72" s="134"/>
-      <c r="O72" s="177"/>
-      <c r="P72" s="178"/>
-      <c r="Q72" s="179"/>
+      <c r="B72" s="150"/>
+      <c r="C72" s="151"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="151"/>
+      <c r="G72" s="151"/>
+      <c r="H72" s="151"/>
+      <c r="I72" s="151"/>
+      <c r="J72" s="151"/>
+      <c r="K72" s="152"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="142"/>
+      <c r="N72" s="143"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="156"/>
+      <c r="Q72" s="157"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="145"/>
-      <c r="G74" s="147" t="s">
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="H74" s="147"/>
-      <c r="I74" s="147"/>
-      <c r="J74" s="147"/>
-      <c r="K74" s="148"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="136"/>
+      <c r="K74" s="137"/>
       <c r="L74" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M74" s="149" t="s">
+      <c r="M74" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="N74" s="145"/>
-      <c r="O74" s="150" t="s">
+      <c r="N74" s="132"/>
+      <c r="O74" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="P74" s="150"/>
-      <c r="Q74" s="151"/>
+      <c r="P74" s="133"/>
+      <c r="Q74" s="134"/>
     </row>
     <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="152"/>
-      <c r="C75" s="153"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="153"/>
-      <c r="F75" s="153"/>
-      <c r="G75" s="153"/>
-      <c r="H75" s="153"/>
-      <c r="I75" s="153"/>
-      <c r="J75" s="153"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="126">
+      <c r="B75" s="144"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="145"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="145"/>
+      <c r="J75" s="145"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="173">
         <v>1</v>
       </c>
-      <c r="M75" s="129" t="s">
+      <c r="M75" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="N75" s="130"/>
-      <c r="O75" s="135" t="s">
+      <c r="N75" s="139"/>
+      <c r="O75" s="176" t="s">
         <v>217</v>
       </c>
-      <c r="P75" s="136"/>
-      <c r="Q75" s="137"/>
+      <c r="P75" s="177"/>
+      <c r="Q75" s="178"/>
     </row>
     <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="155"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="138"/>
-      <c r="P76" s="139"/>
-      <c r="Q76" s="140"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="149"/>
+      <c r="L76" s="174"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="141"/>
+      <c r="O76" s="179"/>
+      <c r="P76" s="180"/>
+      <c r="Q76" s="181"/>
     </row>
     <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="155"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="127"/>
-      <c r="M77" s="131"/>
-      <c r="N77" s="132"/>
-      <c r="O77" s="138"/>
-      <c r="P77" s="139"/>
-      <c r="Q77" s="140"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="149"/>
+      <c r="L77" s="174"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="141"/>
+      <c r="O77" s="179"/>
+      <c r="P77" s="180"/>
+      <c r="Q77" s="181"/>
     </row>
     <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="155"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="127"/>
-      <c r="M78" s="131"/>
-      <c r="N78" s="132"/>
-      <c r="O78" s="138"/>
-      <c r="P78" s="139"/>
-      <c r="Q78" s="140"/>
+      <c r="B78" s="147"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="149"/>
+      <c r="L78" s="174"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="141"/>
+      <c r="O78" s="179"/>
+      <c r="P78" s="180"/>
+      <c r="Q78" s="181"/>
     </row>
     <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="155"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="157"/>
-      <c r="L79" s="127"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="132"/>
-      <c r="O79" s="138"/>
-      <c r="P79" s="139"/>
-      <c r="Q79" s="140"/>
+      <c r="B79" s="147"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="148"/>
+      <c r="H79" s="148"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="148"/>
+      <c r="K79" s="149"/>
+      <c r="L79" s="174"/>
+      <c r="M79" s="140"/>
+      <c r="N79" s="141"/>
+      <c r="O79" s="179"/>
+      <c r="P79" s="180"/>
+      <c r="Q79" s="181"/>
     </row>
     <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="155"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="156"/>
-      <c r="K80" s="157"/>
-      <c r="L80" s="127"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="138"/>
-      <c r="P80" s="139"/>
-      <c r="Q80" s="140"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="148"/>
+      <c r="K80" s="149"/>
+      <c r="L80" s="174"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="141"/>
+      <c r="O80" s="179"/>
+      <c r="P80" s="180"/>
+      <c r="Q80" s="181"/>
     </row>
     <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="155"/>
-      <c r="C81" s="156"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="156"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="156"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="139"/>
-      <c r="Q81" s="140"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="148"/>
+      <c r="H81" s="148"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="174"/>
+      <c r="M81" s="140"/>
+      <c r="N81" s="141"/>
+      <c r="O81" s="179"/>
+      <c r="P81" s="180"/>
+      <c r="Q81" s="181"/>
     </row>
     <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="155"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="156"/>
-      <c r="I82" s="156"/>
-      <c r="J82" s="156"/>
-      <c r="K82" s="157"/>
-      <c r="L82" s="128"/>
-      <c r="M82" s="133"/>
-      <c r="N82" s="134"/>
-      <c r="O82" s="141"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="143"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="148"/>
+      <c r="H82" s="148"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="148"/>
+      <c r="K82" s="149"/>
+      <c r="L82" s="175"/>
+      <c r="M82" s="142"/>
+      <c r="N82" s="143"/>
+      <c r="O82" s="182"/>
+      <c r="P82" s="183"/>
+      <c r="Q82" s="184"/>
     </row>
     <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="155"/>
-      <c r="C83" s="156"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="156"/>
-      <c r="K83" s="157"/>
-      <c r="L83" s="126">
+      <c r="B83" s="147"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="148"/>
+      <c r="H83" s="148"/>
+      <c r="I83" s="148"/>
+      <c r="J83" s="148"/>
+      <c r="K83" s="149"/>
+      <c r="L83" s="173">
         <v>2</v>
       </c>
-      <c r="M83" s="129" t="s">
+      <c r="M83" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="N83" s="130"/>
-      <c r="O83" s="135" t="s">
+      <c r="N83" s="139"/>
+      <c r="O83" s="176" t="s">
         <v>216</v>
       </c>
-      <c r="P83" s="136"/>
-      <c r="Q83" s="137"/>
+      <c r="P83" s="177"/>
+      <c r="Q83" s="178"/>
     </row>
     <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="155"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="156"/>
-      <c r="I84" s="156"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="127"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="132"/>
-      <c r="O84" s="138"/>
-      <c r="P84" s="139"/>
-      <c r="Q84" s="140"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="148"/>
+      <c r="H84" s="148"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="148"/>
+      <c r="K84" s="149"/>
+      <c r="L84" s="174"/>
+      <c r="M84" s="140"/>
+      <c r="N84" s="141"/>
+      <c r="O84" s="179"/>
+      <c r="P84" s="180"/>
+      <c r="Q84" s="181"/>
     </row>
     <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="155"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="156"/>
-      <c r="G85" s="156"/>
-      <c r="H85" s="156"/>
-      <c r="I85" s="156"/>
-      <c r="J85" s="156"/>
-      <c r="K85" s="157"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="131"/>
-      <c r="N85" s="132"/>
-      <c r="O85" s="138"/>
-      <c r="P85" s="139"/>
-      <c r="Q85" s="140"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="148"/>
+      <c r="H85" s="148"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="148"/>
+      <c r="K85" s="149"/>
+      <c r="L85" s="174"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="141"/>
+      <c r="O85" s="179"/>
+      <c r="P85" s="180"/>
+      <c r="Q85" s="181"/>
     </row>
     <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="155"/>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="156"/>
-      <c r="I86" s="156"/>
-      <c r="J86" s="156"/>
-      <c r="K86" s="157"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="131"/>
-      <c r="N86" s="132"/>
-      <c r="O86" s="138"/>
-      <c r="P86" s="139"/>
-      <c r="Q86" s="140"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="149"/>
+      <c r="L86" s="174"/>
+      <c r="M86" s="140"/>
+      <c r="N86" s="141"/>
+      <c r="O86" s="179"/>
+      <c r="P86" s="180"/>
+      <c r="Q86" s="181"/>
     </row>
     <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="155"/>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="156"/>
-      <c r="I87" s="156"/>
-      <c r="J87" s="156"/>
-      <c r="K87" s="157"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="131"/>
-      <c r="N87" s="132"/>
-      <c r="O87" s="138"/>
-      <c r="P87" s="139"/>
-      <c r="Q87" s="140"/>
+      <c r="B87" s="147"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="148"/>
+      <c r="H87" s="148"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="149"/>
+      <c r="L87" s="174"/>
+      <c r="M87" s="140"/>
+      <c r="N87" s="141"/>
+      <c r="O87" s="179"/>
+      <c r="P87" s="180"/>
+      <c r="Q87" s="181"/>
     </row>
     <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="155"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="157"/>
-      <c r="L88" s="127"/>
-      <c r="M88" s="131"/>
-      <c r="N88" s="132"/>
-      <c r="O88" s="138"/>
-      <c r="P88" s="139"/>
-      <c r="Q88" s="140"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="148"/>
+      <c r="K88" s="149"/>
+      <c r="L88" s="174"/>
+      <c r="M88" s="140"/>
+      <c r="N88" s="141"/>
+      <c r="O88" s="179"/>
+      <c r="P88" s="180"/>
+      <c r="Q88" s="181"/>
     </row>
     <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="155"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="131"/>
-      <c r="N89" s="132"/>
-      <c r="O89" s="138"/>
-      <c r="P89" s="139"/>
-      <c r="Q89" s="140"/>
+      <c r="B89" s="147"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="148"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="149"/>
+      <c r="L89" s="174"/>
+      <c r="M89" s="140"/>
+      <c r="N89" s="141"/>
+      <c r="O89" s="179"/>
+      <c r="P89" s="180"/>
+      <c r="Q89" s="181"/>
     </row>
     <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="158"/>
-      <c r="C90" s="159"/>
-      <c r="D90" s="159"/>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="159"/>
-      <c r="J90" s="159"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="128"/>
-      <c r="M90" s="133"/>
-      <c r="N90" s="134"/>
-      <c r="O90" s="141"/>
-      <c r="P90" s="142"/>
-      <c r="Q90" s="143"/>
+      <c r="B90" s="150"/>
+      <c r="C90" s="151"/>
+      <c r="D90" s="151"/>
+      <c r="E90" s="151"/>
+      <c r="F90" s="151"/>
+      <c r="G90" s="151"/>
+      <c r="H90" s="151"/>
+      <c r="I90" s="151"/>
+      <c r="J90" s="151"/>
+      <c r="K90" s="152"/>
+      <c r="L90" s="175"/>
+      <c r="M90" s="142"/>
+      <c r="N90" s="143"/>
+      <c r="O90" s="182"/>
+      <c r="P90" s="183"/>
+      <c r="Q90" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="O33:Q36"/>
-    <mergeCell ref="O29:Q32"/>
-    <mergeCell ref="O25:Q28"/>
-    <mergeCell ref="O21:Q24"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="M33:N36"/>
-    <mergeCell ref="B21:K36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:K18"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="B39:K54"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O16:Q18"/>
-    <mergeCell ref="O13:Q15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="B57:K72"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="O67:Q69"/>
-    <mergeCell ref="O70:Q72"/>
-    <mergeCell ref="M70:N72"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M16:N18"/>
-    <mergeCell ref="M13:N15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M3:N4"/>
     <mergeCell ref="L83:L90"/>
     <mergeCell ref="L75:L82"/>
     <mergeCell ref="M83:N90"/>
@@ -10600,6 +10521,91 @@
     <mergeCell ref="M53:N54"/>
     <mergeCell ref="M51:N52"/>
     <mergeCell ref="M49:N50"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B57:K72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="B39:K54"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O13:Q15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="M33:N36"/>
+    <mergeCell ref="B21:K36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:K18"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="O33:Q36"/>
+    <mergeCell ref="O29:Q32"/>
+    <mergeCell ref="O25:Q28"/>
+    <mergeCell ref="O21:Q24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3F55AA-DAE1-468F-9622-A99588FF4586}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F72E298-2961-410E-9B86-3E489E2325EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="224">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2215,6 +2215,16 @@
     <t>흰색은 남은 스크롤바, 검은색은 현재 값을 나타냄. 중앙의 도형을 통해 0부터 1까지,값을 변경할 수 있음.
 상 : 게임 전체 소리
 하 : 마우스 감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 활성화된 현재  
+패널을 비활성화 
+or [ESC]버튼을 누를 시 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ESC]버튼을 누를 시 "Pause UI" 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2472,7 +2482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3203,26 +3213,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3556,226 +3553,193 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6824,15 +6788,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>34514</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
+      <xdr:colOff>52443</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:colOff>627530</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>764038</xdr:rowOff>
+      <xdr:rowOff>647496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6855,8 +6819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="706867" y="4849907"/>
-          <a:ext cx="6626263" cy="3758250"/>
+          <a:off x="724796" y="9879106"/>
+          <a:ext cx="6626263" cy="3758249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6912,15 +6876,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>90991</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>358668</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>184522</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6943,8 +6907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962198" y="14344996"/>
-          <a:ext cx="6046652" cy="3439688"/>
+          <a:off x="763344" y="14854518"/>
+          <a:ext cx="6569785" cy="3736334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6956,22 +6920,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>343918</xdr:colOff>
+      <xdr:colOff>430306</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>455282</xdr:colOff>
+      <xdr:colOff>475658</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>173478</xdr:rowOff>
+      <xdr:rowOff>166144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
+        <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4EB7EB-63A9-4185-8BA6-A01AC8E119B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88A42AB-9B01-47F4-A1CE-E714CF1D7995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6987,7 +6951,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1008936" y="18343417"/>
+          <a:off x="1102659" y="20143694"/>
           <a:ext cx="6096528" cy="3429297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8060,26 +8024,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8088,7 +8052,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="117" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8103,29 +8067,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="120"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -8138,29 +8102,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="119" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -8175,31 +8139,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="121"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -8212,27 +8176,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="121"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -8245,27 +8209,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="120" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8280,27 +8244,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8313,27 +8277,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8346,27 +8310,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="121" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8381,27 +8345,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="117"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8414,27 +8378,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="117"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8447,20 +8411,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -8482,20 +8446,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -8517,20 +8481,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -8552,20 +8516,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -8587,20 +8551,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -8622,20 +8586,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -8657,59 +8621,32 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8724,6 +8661,33 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8736,8 +8700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F74CF53-2F48-46EA-9405-9928E75A2E5F}">
   <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:Q72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8748,1800 +8712,1810 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="136" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="126" t="s">
+      <c r="N2" s="133"/>
+      <c r="O2" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="128"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="170"/>
     </row>
     <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="129">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="149">
         <v>1</v>
       </c>
-      <c r="M3" s="138" t="s">
+      <c r="M3" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="N3" s="139"/>
-      <c r="O3" s="161" t="s">
+      <c r="N3" s="127"/>
+      <c r="O3" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="155"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="152"/>
     </row>
     <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="155"/>
     </row>
     <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="129">
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="149">
         <v>2</v>
       </c>
-      <c r="M5" s="138" t="s">
+      <c r="M5" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="139"/>
-      <c r="O5" s="161" t="s">
+      <c r="N5" s="127"/>
+      <c r="O5" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="155"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
     </row>
     <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
     </row>
     <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="147"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="129">
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="149">
         <v>3</v>
       </c>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="161" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="158"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="157"/>
     </row>
     <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="147"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="160"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
     </row>
     <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="147"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="129">
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="149">
         <v>4</v>
       </c>
-      <c r="M9" s="138" t="s">
+      <c r="M9" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="139"/>
-      <c r="O9" s="161" t="s">
+      <c r="N9" s="127"/>
+      <c r="O9" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="155"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
     </row>
     <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="157"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="155"/>
     </row>
     <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="129">
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="149">
         <v>5</v>
       </c>
-      <c r="M11" s="138" t="s">
+      <c r="M11" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="139"/>
-      <c r="O11" s="161" t="s">
+      <c r="N11" s="127"/>
+      <c r="O11" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="158"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
     </row>
     <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="147"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="159"/>
     </row>
     <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="129">
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="149">
         <v>6</v>
       </c>
-      <c r="M13" s="138" t="s">
+      <c r="M13" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="161" t="s">
+      <c r="N13" s="127"/>
+      <c r="O13" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="158"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="157"/>
     </row>
     <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="170"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
     </row>
     <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="147"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="159"/>
     </row>
     <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="129">
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="149">
         <v>7</v>
       </c>
-      <c r="M16" s="138" t="s">
+      <c r="M16" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="139"/>
-      <c r="O16" s="164" t="s">
+      <c r="N16" s="127"/>
+      <c r="O16" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="155"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="152"/>
     </row>
     <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
       <c r="O17" s="165"/>
       <c r="P17" s="166"/>
       <c r="Q17" s="167"/>
     </row>
     <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="157"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="155"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="136" t="s">
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
       <c r="L20" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="132"/>
-      <c r="O20" s="126" t="s">
+      <c r="N20" s="133"/>
+      <c r="O20" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="128"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="170"/>
     </row>
     <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="129">
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="149">
         <v>1</v>
       </c>
-      <c r="M21" s="138" t="s">
+      <c r="M21" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="139"/>
-      <c r="O21" s="131" t="s">
+      <c r="N21" s="127"/>
+      <c r="O21" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
     </row>
     <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
     </row>
     <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="147"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
     </row>
     <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
     </row>
     <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="129">
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="149">
         <v>2</v>
       </c>
-      <c r="M25" s="138" t="s">
+      <c r="M25" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="139"/>
-      <c r="O25" s="130" t="s">
+      <c r="N25" s="127"/>
+      <c r="O25" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
     </row>
     <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="147"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
     </row>
     <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="147"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
     </row>
     <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="129">
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="149">
         <v>3</v>
       </c>
-      <c r="M29" s="138" t="s">
+      <c r="M29" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="139"/>
-      <c r="O29" s="130" t="s">
-        <v>182</v>
-      </c>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="171" t="s">
+        <v>222</v>
+      </c>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
     </row>
     <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="172"/>
     </row>
     <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="172"/>
     </row>
     <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
     </row>
     <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="129">
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="149">
         <v>4</v>
       </c>
-      <c r="M33" s="138" t="s">
+      <c r="M33" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="N33" s="139"/>
-      <c r="O33" s="130" t="s">
+      <c r="N33" s="127"/>
+      <c r="O33" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
     </row>
     <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="147"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
     </row>
     <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="172"/>
     </row>
     <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="150"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="136" t="s">
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="137"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="136"/>
       <c r="L38" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="134" t="s">
+      <c r="M38" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="172"/>
-      <c r="O38" s="132" t="s">
+      <c r="N38" s="169"/>
+      <c r="O38" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="134"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="139"/>
     </row>
     <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="138">
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="126">
         <v>1</v>
       </c>
-      <c r="M39" s="129" t="s">
+      <c r="M39" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="N39" s="129"/>
-      <c r="O39" s="154" t="s">
+      <c r="N39" s="149"/>
+      <c r="O39" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="155"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="152"/>
     </row>
     <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="147"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="142"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="157"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="155"/>
     </row>
     <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="147"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="138">
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="126">
         <v>2</v>
       </c>
-      <c r="M41" s="129" t="s">
+      <c r="M41" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="153" t="s">
+      <c r="N41" s="149"/>
+      <c r="O41" s="156" t="s">
         <v>178</v>
       </c>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="155"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="152"/>
     </row>
     <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="147"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="157"/>
-    </row>
-    <row r="43" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="147"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="138">
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="155"/>
+    </row>
+    <row r="43" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="126">
         <v>3</v>
       </c>
-      <c r="M43" s="129" t="s">
+      <c r="M43" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="N43" s="129"/>
-      <c r="O43" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="158"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="157"/>
     </row>
     <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="147"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="149"/>
-      <c r="L44" s="142"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="159"/>
-      <c r="P44" s="159"/>
-      <c r="Q44" s="160"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="159"/>
     </row>
     <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="147"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="138">
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="126">
         <v>4</v>
       </c>
-      <c r="M45" s="129" t="s">
+      <c r="M45" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="129"/>
-      <c r="O45" s="153" t="s">
+      <c r="N45" s="149"/>
+      <c r="O45" s="156" t="s">
         <v>181</v>
       </c>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="155"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="152"/>
     </row>
     <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="147"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="157"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="155"/>
     </row>
     <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="147"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="138">
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="126">
         <v>5</v>
       </c>
-      <c r="M47" s="129" t="s">
+      <c r="M47" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="129"/>
-      <c r="O47" s="154" t="s">
+      <c r="N47" s="149"/>
+      <c r="O47" s="151" t="s">
         <v>184</v>
       </c>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="155"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="152"/>
     </row>
     <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="147"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="149"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="156"/>
-      <c r="P48" s="156"/>
-      <c r="Q48" s="157"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="155"/>
     </row>
     <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="147"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="138">
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="126">
         <v>6</v>
       </c>
-      <c r="M49" s="129" t="s">
+      <c r="M49" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="N49" s="129"/>
-      <c r="O49" s="153" t="s">
+      <c r="N49" s="149"/>
+      <c r="O49" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="P49" s="154"/>
-      <c r="Q49" s="155"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="152"/>
     </row>
     <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="147"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="157"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="155"/>
     </row>
     <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="147"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="138">
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="126">
         <v>7</v>
       </c>
-      <c r="M51" s="129" t="s">
+      <c r="M51" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="N51" s="129"/>
-      <c r="O51" s="153" t="s">
+      <c r="N51" s="149"/>
+      <c r="O51" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="P51" s="153"/>
-      <c r="Q51" s="158"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="157"/>
     </row>
     <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="147"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="148"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="149"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="159"/>
-      <c r="P52" s="159"/>
-      <c r="Q52" s="160"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="149"/>
+      <c r="N52" s="149"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="159"/>
     </row>
     <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="147"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="138">
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="126">
         <v>8</v>
       </c>
-      <c r="M53" s="129" t="s">
+      <c r="M53" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="129"/>
-      <c r="O53" s="153" t="s">
+      <c r="N53" s="149"/>
+      <c r="O53" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="155"/>
+      <c r="P53" s="151"/>
+      <c r="Q53" s="152"/>
     </row>
     <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="150"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="151"/>
-      <c r="K54" s="152"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="157"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="149"/>
+      <c r="N54" s="149"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="155"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="136" t="s">
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="137"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="136"/>
       <c r="L56" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="126" t="s">
+      <c r="M56" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133" t="s">
+      <c r="N56" s="133"/>
+      <c r="O56" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="134"/>
+      <c r="P56" s="138"/>
+      <c r="Q56" s="139"/>
     </row>
     <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="144"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="129">
+      <c r="B57" s="140"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="149">
         <v>1</v>
       </c>
-      <c r="M57" s="138" t="s">
+      <c r="M57" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="N57" s="139"/>
-      <c r="O57" s="161" t="s">
+      <c r="N57" s="127"/>
+      <c r="O57" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="155"/>
+      <c r="P57" s="151"/>
+      <c r="Q57" s="152"/>
     </row>
     <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="147"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="148"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="162"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="157"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="154"/>
+      <c r="Q58" s="155"/>
     </row>
     <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="147"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="148"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="129">
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="149">
         <v>2</v>
       </c>
-      <c r="M59" s="138" t="s">
+      <c r="M59" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="N59" s="139"/>
-      <c r="O59" s="153" t="s">
+      <c r="N59" s="127"/>
+      <c r="O59" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="157"/>
+    </row>
+    <row r="60" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="159"/>
+    </row>
+    <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="149">
+        <v>3</v>
+      </c>
+      <c r="M61" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="N61" s="127"/>
+      <c r="O61" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="157"/>
+    </row>
+    <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="131"/>
+      <c r="O62" s="164"/>
+      <c r="P62" s="158"/>
+      <c r="Q62" s="159"/>
+    </row>
+    <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="143"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="149">
+        <v>4</v>
+      </c>
+      <c r="M63" s="126" t="s">
+        <v>204</v>
+      </c>
+      <c r="N63" s="127"/>
+      <c r="O63" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="P59" s="153"/>
-      <c r="Q59" s="158"/>
-    </row>
-    <row r="60" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="147"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="159"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="160"/>
-    </row>
-    <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="129">
-        <v>3</v>
-      </c>
-      <c r="M61" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="N61" s="139"/>
-      <c r="O61" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="158"/>
-    </row>
-    <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="147"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="142"/>
-      <c r="N62" s="143"/>
-      <c r="O62" s="163"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="160"/>
-    </row>
-    <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="147"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="129">
-        <v>4</v>
-      </c>
-      <c r="M63" s="138" t="s">
-        <v>204</v>
-      </c>
-      <c r="N63" s="139"/>
-      <c r="O63" s="161" t="s">
-        <v>182</v>
-      </c>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="155"/>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="152"/>
     </row>
     <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="147"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="142"/>
-      <c r="N64" s="143"/>
-      <c r="O64" s="162"/>
-      <c r="P64" s="156"/>
-      <c r="Q64" s="157"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="145"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="131"/>
+      <c r="O64" s="153"/>
+      <c r="P64" s="154"/>
+      <c r="Q64" s="155"/>
     </row>
     <row r="65" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="147"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="129">
+      <c r="B65" s="143"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="149">
         <v>5</v>
       </c>
-      <c r="M65" s="138" t="s">
+      <c r="M65" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="N65" s="139"/>
-      <c r="O65" s="153" t="s">
+      <c r="N65" s="127"/>
+      <c r="O65" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="155"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="152"/>
     </row>
     <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="147"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="142"/>
-      <c r="N66" s="143"/>
-      <c r="O66" s="156"/>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="157"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="145"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="131"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="154"/>
+      <c r="Q66" s="155"/>
     </row>
     <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="147"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="129">
+      <c r="B67" s="143"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
+      <c r="K67" s="145"/>
+      <c r="L67" s="149">
         <v>6</v>
       </c>
-      <c r="M67" s="138" t="s">
+      <c r="M67" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="N67" s="139"/>
-      <c r="O67" s="171" t="s">
+      <c r="N67" s="127"/>
+      <c r="O67" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="P67" s="153"/>
-      <c r="Q67" s="158"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="157"/>
     </row>
     <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="147"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="149"/>
-      <c r="L68" s="129"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="141"/>
-      <c r="O68" s="168"/>
-      <c r="P68" s="169"/>
-      <c r="Q68" s="170"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="144"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="145"/>
+      <c r="L68" s="149"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="129"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="163"/>
     </row>
     <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="147"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="163"/>
-      <c r="P69" s="159"/>
-      <c r="Q69" s="160"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="145"/>
+      <c r="L69" s="149"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="164"/>
+      <c r="P69" s="158"/>
+      <c r="Q69" s="159"/>
     </row>
     <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="147"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="129">
+      <c r="B70" s="143"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="144"/>
+      <c r="G70" s="144"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="149">
         <v>7</v>
       </c>
-      <c r="M70" s="138" t="s">
+      <c r="M70" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="139"/>
-      <c r="O70" s="171" t="s">
+      <c r="N70" s="127"/>
+      <c r="O70" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="155"/>
+      <c r="P70" s="151"/>
+      <c r="Q70" s="152"/>
     </row>
     <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="147"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="140"/>
-      <c r="N71" s="141"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="144"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="149"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="129"/>
       <c r="O71" s="165"/>
       <c r="P71" s="166"/>
       <c r="Q71" s="167"/>
     </row>
     <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="150"/>
-      <c r="C72" s="151"/>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="151"/>
-      <c r="H72" s="151"/>
-      <c r="I72" s="151"/>
-      <c r="J72" s="151"/>
-      <c r="K72" s="152"/>
-      <c r="L72" s="129"/>
-      <c r="M72" s="142"/>
-      <c r="N72" s="143"/>
-      <c r="O72" s="162"/>
-      <c r="P72" s="156"/>
-      <c r="Q72" s="157"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="147"/>
+      <c r="J72" s="147"/>
+      <c r="K72" s="148"/>
+      <c r="L72" s="149"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="153"/>
+      <c r="P72" s="154"/>
+      <c r="Q72" s="155"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="135" t="s">
+      <c r="B74" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="136" t="s">
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="H74" s="136"/>
-      <c r="I74" s="136"/>
-      <c r="J74" s="136"/>
-      <c r="K74" s="137"/>
+      <c r="H74" s="135"/>
+      <c r="I74" s="135"/>
+      <c r="J74" s="135"/>
+      <c r="K74" s="136"/>
       <c r="L74" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M74" s="126" t="s">
+      <c r="M74" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="N74" s="132"/>
-      <c r="O74" s="133" t="s">
+      <c r="N74" s="133"/>
+      <c r="O74" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="P74" s="133"/>
-      <c r="Q74" s="134"/>
+      <c r="P74" s="138"/>
+      <c r="Q74" s="139"/>
     </row>
     <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="144"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="145"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="145"/>
-      <c r="G75" s="145"/>
-      <c r="H75" s="145"/>
-      <c r="I75" s="145"/>
-      <c r="J75" s="145"/>
-      <c r="K75" s="146"/>
-      <c r="L75" s="173">
+      <c r="B75" s="140"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="141"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="141"/>
+      <c r="H75" s="141"/>
+      <c r="I75" s="141"/>
+      <c r="J75" s="141"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="149">
         <v>1</v>
       </c>
-      <c r="M75" s="138" t="s">
+      <c r="M75" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="N75" s="139"/>
-      <c r="O75" s="176" t="s">
+      <c r="N75" s="149"/>
+      <c r="O75" s="173" t="s">
         <v>217</v>
       </c>
-      <c r="P75" s="177"/>
-      <c r="Q75" s="178"/>
+      <c r="P75" s="173"/>
+      <c r="Q75" s="173"/>
     </row>
     <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="147"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="149"/>
-      <c r="L76" s="174"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="141"/>
-      <c r="O76" s="179"/>
-      <c r="P76" s="180"/>
-      <c r="Q76" s="181"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="144"/>
+      <c r="F76" s="144"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="144"/>
+      <c r="K76" s="145"/>
+      <c r="L76" s="149"/>
+      <c r="M76" s="149"/>
+      <c r="N76" s="149"/>
+      <c r="O76" s="173"/>
+      <c r="P76" s="173"/>
+      <c r="Q76" s="173"/>
     </row>
     <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="147"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="141"/>
-      <c r="O77" s="179"/>
-      <c r="P77" s="180"/>
-      <c r="Q77" s="181"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="149"/>
+      <c r="M77" s="149"/>
+      <c r="N77" s="149"/>
+      <c r="O77" s="173"/>
+      <c r="P77" s="173"/>
+      <c r="Q77" s="173"/>
     </row>
     <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="147"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="149"/>
-      <c r="L78" s="174"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="141"/>
-      <c r="O78" s="179"/>
-      <c r="P78" s="180"/>
-      <c r="Q78" s="181"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
+      <c r="K78" s="145"/>
+      <c r="L78" s="149"/>
+      <c r="M78" s="149"/>
+      <c r="N78" s="149"/>
+      <c r="O78" s="173"/>
+      <c r="P78" s="173"/>
+      <c r="Q78" s="173"/>
     </row>
     <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="147"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="148"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="174"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="141"/>
-      <c r="O79" s="179"/>
-      <c r="P79" s="180"/>
-      <c r="Q79" s="181"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="144"/>
+      <c r="G79" s="144"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="144"/>
+      <c r="K79" s="145"/>
+      <c r="L79" s="149"/>
+      <c r="M79" s="149"/>
+      <c r="N79" s="149"/>
+      <c r="O79" s="173"/>
+      <c r="P79" s="173"/>
+      <c r="Q79" s="173"/>
     </row>
     <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="147"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="148"/>
-      <c r="K80" s="149"/>
-      <c r="L80" s="174"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="141"/>
-      <c r="O80" s="179"/>
-      <c r="P80" s="180"/>
-      <c r="Q80" s="181"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="144"/>
+      <c r="G80" s="144"/>
+      <c r="H80" s="144"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="144"/>
+      <c r="K80" s="145"/>
+      <c r="L80" s="149">
+        <v>2</v>
+      </c>
+      <c r="M80" s="149" t="s">
+        <v>215</v>
+      </c>
+      <c r="N80" s="149"/>
+      <c r="O80" s="173" t="s">
+        <v>216</v>
+      </c>
+      <c r="P80" s="173"/>
+      <c r="Q80" s="173"/>
     </row>
     <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="147"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="148"/>
-      <c r="H81" s="148"/>
-      <c r="I81" s="148"/>
-      <c r="J81" s="148"/>
-      <c r="K81" s="149"/>
-      <c r="L81" s="174"/>
-      <c r="M81" s="140"/>
-      <c r="N81" s="141"/>
-      <c r="O81" s="179"/>
-      <c r="P81" s="180"/>
-      <c r="Q81" s="181"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="145"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="173"/>
+      <c r="P81" s="173"/>
+      <c r="Q81" s="173"/>
     </row>
     <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="147"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="148"/>
-      <c r="K82" s="149"/>
-      <c r="L82" s="175"/>
-      <c r="M82" s="142"/>
-      <c r="N82" s="143"/>
-      <c r="O82" s="182"/>
-      <c r="P82" s="183"/>
-      <c r="Q82" s="184"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
+      <c r="G82" s="144"/>
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="144"/>
+      <c r="K82" s="145"/>
+      <c r="L82" s="149"/>
+      <c r="M82" s="149"/>
+      <c r="N82" s="149"/>
+      <c r="O82" s="173"/>
+      <c r="P82" s="173"/>
+      <c r="Q82" s="173"/>
     </row>
     <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="147"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="148"/>
-      <c r="H83" s="148"/>
-      <c r="I83" s="148"/>
-      <c r="J83" s="148"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="173">
-        <v>2</v>
-      </c>
-      <c r="M83" s="138" t="s">
-        <v>215</v>
-      </c>
-      <c r="N83" s="139"/>
-      <c r="O83" s="176" t="s">
-        <v>216</v>
-      </c>
-      <c r="P83" s="177"/>
-      <c r="Q83" s="178"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="144"/>
+      <c r="H83" s="144"/>
+      <c r="I83" s="144"/>
+      <c r="J83" s="144"/>
+      <c r="K83" s="145"/>
+      <c r="L83" s="149"/>
+      <c r="M83" s="149"/>
+      <c r="N83" s="149"/>
+      <c r="O83" s="173"/>
+      <c r="P83" s="173"/>
+      <c r="Q83" s="173"/>
     </row>
     <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="147"/>
-      <c r="C84" s="148"/>
-      <c r="D84" s="148"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="148"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="148"/>
-      <c r="K84" s="149"/>
-      <c r="L84" s="174"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="141"/>
-      <c r="O84" s="179"/>
-      <c r="P84" s="180"/>
-      <c r="Q84" s="181"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="144"/>
+      <c r="E84" s="144"/>
+      <c r="F84" s="144"/>
+      <c r="G84" s="144"/>
+      <c r="H84" s="144"/>
+      <c r="I84" s="144"/>
+      <c r="J84" s="144"/>
+      <c r="K84" s="145"/>
+      <c r="L84" s="149"/>
+      <c r="M84" s="149"/>
+      <c r="N84" s="149"/>
+      <c r="O84" s="173"/>
+      <c r="P84" s="173"/>
+      <c r="Q84" s="173"/>
     </row>
     <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="148"/>
-      <c r="F85" s="148"/>
-      <c r="G85" s="148"/>
-      <c r="H85" s="148"/>
-      <c r="I85" s="148"/>
-      <c r="J85" s="148"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="174"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="141"/>
-      <c r="O85" s="179"/>
-      <c r="P85" s="180"/>
-      <c r="Q85" s="181"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="144"/>
+      <c r="G85" s="144"/>
+      <c r="H85" s="144"/>
+      <c r="I85" s="144"/>
+      <c r="J85" s="144"/>
+      <c r="K85" s="145"/>
+      <c r="L85" s="149"/>
+      <c r="M85" s="149"/>
+      <c r="N85" s="149"/>
+      <c r="O85" s="173"/>
+      <c r="P85" s="173"/>
+      <c r="Q85" s="173"/>
     </row>
     <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="147"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="148"/>
-      <c r="K86" s="149"/>
-      <c r="L86" s="174"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="141"/>
-      <c r="O86" s="179"/>
-      <c r="P86" s="180"/>
-      <c r="Q86" s="181"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="144"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="145"/>
+      <c r="L86" s="149">
+        <v>3</v>
+      </c>
+      <c r="M86" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="N86" s="149"/>
+      <c r="O86" s="173" t="s">
+        <v>223</v>
+      </c>
+      <c r="P86" s="173"/>
+      <c r="Q86" s="173"/>
     </row>
     <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="147"/>
-      <c r="C87" s="148"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="148"/>
-      <c r="F87" s="148"/>
-      <c r="G87" s="148"/>
-      <c r="H87" s="148"/>
-      <c r="I87" s="148"/>
-      <c r="J87" s="148"/>
-      <c r="K87" s="149"/>
-      <c r="L87" s="174"/>
-      <c r="M87" s="140"/>
-      <c r="N87" s="141"/>
-      <c r="O87" s="179"/>
-      <c r="P87" s="180"/>
-      <c r="Q87" s="181"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="149"/>
+      <c r="M87" s="149"/>
+      <c r="N87" s="149"/>
+      <c r="O87" s="173"/>
+      <c r="P87" s="173"/>
+      <c r="Q87" s="173"/>
     </row>
     <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="147"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="148"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="148"/>
-      <c r="K88" s="149"/>
-      <c r="L88" s="174"/>
-      <c r="M88" s="140"/>
-      <c r="N88" s="141"/>
-      <c r="O88" s="179"/>
-      <c r="P88" s="180"/>
-      <c r="Q88" s="181"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="144"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="144"/>
+      <c r="H88" s="144"/>
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="145"/>
+      <c r="L88" s="149"/>
+      <c r="M88" s="149"/>
+      <c r="N88" s="149"/>
+      <c r="O88" s="173"/>
+      <c r="P88" s="173"/>
+      <c r="Q88" s="173"/>
     </row>
     <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="147"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="148"/>
-      <c r="I89" s="148"/>
-      <c r="J89" s="148"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="174"/>
-      <c r="M89" s="140"/>
-      <c r="N89" s="141"/>
-      <c r="O89" s="179"/>
-      <c r="P89" s="180"/>
-      <c r="Q89" s="181"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="144"/>
+      <c r="E89" s="144"/>
+      <c r="F89" s="144"/>
+      <c r="G89" s="144"/>
+      <c r="H89" s="144"/>
+      <c r="I89" s="144"/>
+      <c r="J89" s="144"/>
+      <c r="K89" s="145"/>
+      <c r="L89" s="149"/>
+      <c r="M89" s="149"/>
+      <c r="N89" s="149"/>
+      <c r="O89" s="173"/>
+      <c r="P89" s="173"/>
+      <c r="Q89" s="173"/>
     </row>
     <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="150"/>
-      <c r="C90" s="151"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="151"/>
-      <c r="F90" s="151"/>
-      <c r="G90" s="151"/>
-      <c r="H90" s="151"/>
-      <c r="I90" s="151"/>
-      <c r="J90" s="151"/>
-      <c r="K90" s="152"/>
-      <c r="L90" s="175"/>
-      <c r="M90" s="142"/>
-      <c r="N90" s="143"/>
-      <c r="O90" s="182"/>
-      <c r="P90" s="183"/>
-      <c r="Q90" s="184"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="147"/>
+      <c r="G90" s="147"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="147"/>
+      <c r="J90" s="147"/>
+      <c r="K90" s="148"/>
+      <c r="L90" s="149"/>
+      <c r="M90" s="149"/>
+      <c r="N90" s="149"/>
+      <c r="O90" s="173"/>
+      <c r="P90" s="173"/>
+      <c r="Q90" s="173"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="L83:L90"/>
-    <mergeCell ref="L75:L82"/>
-    <mergeCell ref="M83:N90"/>
-    <mergeCell ref="M75:N82"/>
-    <mergeCell ref="O83:Q90"/>
-    <mergeCell ref="O75:Q82"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="B75:K90"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N58"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="M63:N64"/>
-    <mergeCell ref="M29:N32"/>
-    <mergeCell ref="M25:N28"/>
-    <mergeCell ref="M21:N24"/>
-    <mergeCell ref="M53:N54"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="B57:K72"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="O67:Q69"/>
-    <mergeCell ref="O70:Q72"/>
-    <mergeCell ref="M70:N72"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="M65:N66"/>
+  <mergeCells count="112">
+    <mergeCell ref="O75:Q79"/>
+    <mergeCell ref="O80:Q85"/>
+    <mergeCell ref="O86:Q90"/>
+    <mergeCell ref="M86:N90"/>
+    <mergeCell ref="M75:N79"/>
+    <mergeCell ref="M80:N85"/>
+    <mergeCell ref="L86:L90"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="M33:N36"/>
+    <mergeCell ref="B21:K36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:K18"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="O33:Q36"/>
+    <mergeCell ref="O29:Q32"/>
+    <mergeCell ref="O25:Q28"/>
+    <mergeCell ref="O21:Q24"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
     <mergeCell ref="B39:K54"/>
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="O3:Q4"/>
@@ -10566,46 +10540,45 @@
     <mergeCell ref="M13:N15"/>
     <mergeCell ref="M11:N12"/>
     <mergeCell ref="M9:N10"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="M33:N36"/>
-    <mergeCell ref="B21:K36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:K18"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="O33:Q36"/>
-    <mergeCell ref="O29:Q32"/>
-    <mergeCell ref="O25:Q28"/>
-    <mergeCell ref="O21:Q24"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B57:K72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="B75:K90"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N58"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="M29:N32"/>
+    <mergeCell ref="M25:N28"/>
+    <mergeCell ref="M21:N24"/>
+    <mergeCell ref="M53:N54"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="M49:N50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F72E298-2961-410E-9B86-3E489E2325EA}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845A4F8B-AE17-4F65-87A1-72B7384BE6F1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="225">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1983,11 +1983,6 @@
   <si>
     <t>선택 가능한 스테이지의 정보를
 담은 패널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 시, 활성화된 현재  
-패널을 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2225,6 +2220,14 @@
   </si>
   <si>
     <t>[ESC]버튼을 누를 시 "Pause UI" 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측, 스크롤바의 역할을 직관적으로 명시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3553,6 +3556,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3565,38 +3601,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3616,131 +3646,104 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8024,26 +8027,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="112" t="s">
+      <c r="O1" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8052,7 +8055,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="119" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8067,29 +8070,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -8102,29 +8105,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="121" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -8139,31 +8142,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="119"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -8176,27 +8179,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="119"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -8209,27 +8212,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8244,27 +8247,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="120"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8277,27 +8280,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="120"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8310,27 +8313,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="117" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8345,27 +8348,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="121"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8378,27 +8381,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="121"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8411,20 +8414,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -8446,20 +8449,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -8481,20 +8484,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -8516,20 +8519,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -8551,20 +8554,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -8586,20 +8589,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -8621,32 +8624,59 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8661,33 +8691,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8700,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F74CF53-2F48-46EA-9405-9928E75A2E5F}">
   <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T84" sqref="T84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8712,1770 +8715,1840 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="131" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="132"/>
       <c r="D2" s="132"/>
       <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="135" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="137" t="s">
+      <c r="M2" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="128"/>
+      <c r="O2" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="151"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="127">
+        <v>1</v>
+      </c>
+      <c r="M3" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="170"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="149">
-        <v>1</v>
-      </c>
-      <c r="M3" s="126" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="156"/>
+    </row>
+    <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+    </row>
+    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="127">
+        <v>2</v>
+      </c>
+      <c r="M5" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="150" t="s">
+      <c r="N5" s="136"/>
+      <c r="O5" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="152"/>
-    </row>
-    <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="155"/>
-    </row>
-    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="149">
-        <v>2</v>
-      </c>
-      <c r="M5" s="126" t="s">
+      <c r="P5" s="155"/>
+      <c r="Q5" s="156"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="158"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="127">
+        <v>3</v>
+      </c>
+      <c r="M7" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="136"/>
+      <c r="O7" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="159"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="161"/>
+    </row>
+    <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="144"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="127">
+        <v>4</v>
+      </c>
+      <c r="M9" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="N9" s="136"/>
+      <c r="O9" s="162" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="156"/>
+    </row>
+    <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="158"/>
+    </row>
+    <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="127">
+        <v>5</v>
+      </c>
+      <c r="M11" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="136"/>
+      <c r="O11" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="159"/>
+    </row>
+    <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="161"/>
+    </row>
+    <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="144"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="127">
+        <v>6</v>
+      </c>
+      <c r="M13" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="150" t="s">
-        <v>189</v>
-      </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="152"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="155"/>
-    </row>
-    <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="149">
-        <v>3</v>
-      </c>
-      <c r="M7" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="150" t="s">
-        <v>220</v>
-      </c>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="157"/>
-    </row>
-    <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="159"/>
-    </row>
-    <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="149">
-        <v>4</v>
-      </c>
-      <c r="M9" s="126" t="s">
+      <c r="N13" s="136"/>
+      <c r="O13" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="159"/>
+    </row>
+    <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
+    </row>
+    <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="161"/>
+    </row>
+    <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="127">
+        <v>7</v>
+      </c>
+      <c r="M16" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-    </row>
-    <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="155"/>
-    </row>
-    <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="149">
-        <v>5</v>
-      </c>
-      <c r="M11" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="127"/>
-      <c r="O11" s="150" t="s">
+      <c r="N16" s="136"/>
+      <c r="O16" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="157"/>
-    </row>
-    <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="159"/>
-    </row>
-    <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="149">
-        <v>6</v>
-      </c>
-      <c r="M13" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="157"/>
-    </row>
-    <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-    </row>
-    <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="159"/>
-    </row>
-    <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="149">
-        <v>7</v>
-      </c>
-      <c r="M16" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="N16" s="127"/>
-      <c r="O16" s="168" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="152"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="156"/>
     </row>
     <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="168"/>
     </row>
     <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="155"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="158"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="131" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
       <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="135" t="s">
+      <c r="F20" s="128"/>
+      <c r="G20" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
       <c r="L20" s="88" t="s">
         <v>172</v>
       </c>
       <c r="M20" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="N20" s="133"/>
-      <c r="O20" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" s="128"/>
+      <c r="O20" s="150" t="s">
         <v>173</v>
       </c>
       <c r="P20" s="132"/>
-      <c r="Q20" s="170"/>
+      <c r="Q20" s="151"/>
     </row>
     <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="149">
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="127">
         <v>1</v>
       </c>
-      <c r="M21" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="N21" s="127"/>
-      <c r="O21" s="172" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
+      <c r="M21" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" s="136"/>
+      <c r="O21" s="153" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
     </row>
     <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="172"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
     </row>
     <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
     </row>
     <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="143"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
     </row>
     <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="149">
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="127">
         <v>2</v>
       </c>
-      <c r="M25" s="126" t="s">
+      <c r="M25" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="136"/>
+      <c r="O25" s="152" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+    </row>
+    <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+    </row>
+    <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153"/>
+    </row>
+    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153"/>
+    </row>
+    <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="144"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="127">
+        <v>3</v>
+      </c>
+      <c r="M29" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="127"/>
-      <c r="O25" s="171" t="s">
-        <v>177</v>
-      </c>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-    </row>
-    <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-    </row>
-    <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-    </row>
-    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-    </row>
-    <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="149">
-        <v>3</v>
-      </c>
-      <c r="M29" s="126" t="s">
+      <c r="N29" s="136"/>
+      <c r="O29" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+    </row>
+    <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="153"/>
+    </row>
+    <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+    </row>
+    <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+    </row>
+    <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="127">
+        <v>4</v>
+      </c>
+      <c r="M33" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="127"/>
-      <c r="O29" s="171" t="s">
-        <v>222</v>
-      </c>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-    </row>
-    <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-    </row>
-    <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-    </row>
-    <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-    </row>
-    <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="149">
-        <v>4</v>
-      </c>
-      <c r="M33" s="126" t="s">
-        <v>205</v>
-      </c>
-      <c r="N33" s="127"/>
-      <c r="O33" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
     </row>
     <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="143"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="129"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
     </row>
     <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="143"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="153"/>
     </row>
     <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="140"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="131" t="s">
         <v>174</v>
       </c>
       <c r="C38" s="132"/>
       <c r="D38" s="132"/>
       <c r="E38" s="132"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="135" t="s">
+      <c r="F38" s="128"/>
+      <c r="G38" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="136"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="134"/>
       <c r="L38" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="139" t="s">
-        <v>195</v>
-      </c>
-      <c r="N38" s="169"/>
-      <c r="O38" s="133" t="s">
+      <c r="M38" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="N38" s="172"/>
+      <c r="O38" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="139"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="130"/>
     </row>
     <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="140"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="126">
+      <c r="B39" s="141"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="135">
         <v>1</v>
       </c>
-      <c r="M39" s="149" t="s">
+      <c r="M39" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" s="127"/>
+      <c r="O39" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="156"/>
+    </row>
+    <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="144"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="158"/>
+    </row>
+    <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="135">
+        <v>2</v>
+      </c>
+      <c r="M41" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="N41" s="127"/>
+      <c r="O41" s="154" t="s">
+        <v>178</v>
+      </c>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="156"/>
+    </row>
+    <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="158"/>
+    </row>
+    <row r="43" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="135">
+        <v>3</v>
+      </c>
+      <c r="M43" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43" s="127"/>
+      <c r="O43" s="154" t="s">
+        <v>221</v>
+      </c>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="159"/>
+    </row>
+    <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="161"/>
+    </row>
+    <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="135">
+        <v>4</v>
+      </c>
+      <c r="M45" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="N39" s="149"/>
-      <c r="O39" s="151" t="s">
-        <v>176</v>
-      </c>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="152"/>
-    </row>
-    <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="155"/>
-    </row>
-    <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="143"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="126">
-        <v>2</v>
-      </c>
-      <c r="M41" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="N41" s="149"/>
-      <c r="O41" s="156" t="s">
-        <v>178</v>
-      </c>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="152"/>
-    </row>
-    <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="143"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="155"/>
-    </row>
-    <row r="43" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="143"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="126">
-        <v>3</v>
-      </c>
-      <c r="M43" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="N43" s="149"/>
-      <c r="O43" s="156" t="s">
-        <v>222</v>
-      </c>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="157"/>
-    </row>
-    <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="143"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="149"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="158"/>
-      <c r="P44" s="158"/>
-      <c r="Q44" s="159"/>
-    </row>
-    <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="143"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="126">
-        <v>4</v>
-      </c>
-      <c r="M45" s="149" t="s">
+      <c r="N45" s="127"/>
+      <c r="O45" s="154" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="156"/>
+    </row>
+    <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="158"/>
+    </row>
+    <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="135">
+        <v>5</v>
+      </c>
+      <c r="M47" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="N47" s="127"/>
+      <c r="O47" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="156"/>
+    </row>
+    <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="127"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="157"/>
+      <c r="P48" s="157"/>
+      <c r="Q48" s="158"/>
+    </row>
+    <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="135">
+        <v>6</v>
+      </c>
+      <c r="M49" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="N49" s="127"/>
+      <c r="O49" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="156"/>
+    </row>
+    <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="144"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="158"/>
+    </row>
+    <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="135">
+        <v>7</v>
+      </c>
+      <c r="M51" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="149"/>
-      <c r="O45" s="156" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="152"/>
-    </row>
-    <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="143"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="155"/>
-    </row>
-    <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="143"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="126">
-        <v>5</v>
-      </c>
-      <c r="M47" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="N47" s="149"/>
-      <c r="O47" s="151" t="s">
+      <c r="N51" s="127"/>
+      <c r="O51" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="P47" s="151"/>
-      <c r="Q47" s="152"/>
-    </row>
-    <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="149"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="154"/>
-      <c r="P48" s="154"/>
-      <c r="Q48" s="155"/>
-    </row>
-    <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="126">
-        <v>6</v>
-      </c>
-      <c r="M49" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="N49" s="149"/>
-      <c r="O49" s="156" t="s">
+      <c r="P51" s="154"/>
+      <c r="Q51" s="159"/>
+    </row>
+    <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="160"/>
+      <c r="P52" s="160"/>
+      <c r="Q52" s="161"/>
+    </row>
+    <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="135">
+        <v>8</v>
+      </c>
+      <c r="M53" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="N53" s="127"/>
+      <c r="O53" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="152"/>
-    </row>
-    <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="143"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="155"/>
-    </row>
-    <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="143"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="126">
-        <v>7</v>
-      </c>
-      <c r="M51" s="149" t="s">
-        <v>208</v>
-      </c>
-      <c r="N51" s="149"/>
-      <c r="O51" s="156" t="s">
-        <v>185</v>
-      </c>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="157"/>
-    </row>
-    <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="143"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="145"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="149"/>
-      <c r="N52" s="149"/>
-      <c r="O52" s="158"/>
-      <c r="P52" s="158"/>
-      <c r="Q52" s="159"/>
-    </row>
-    <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="143"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="126">
-        <v>8</v>
-      </c>
-      <c r="M53" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="149"/>
-      <c r="O53" s="156" t="s">
-        <v>187</v>
-      </c>
-      <c r="P53" s="151"/>
-      <c r="Q53" s="152"/>
+      <c r="P53" s="155"/>
+      <c r="Q53" s="156"/>
     </row>
     <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="146"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="149"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="155"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="149"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="127"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="158"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="134" t="s">
+      <c r="B56" s="131" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="132"/>
       <c r="D56" s="132"/>
       <c r="E56" s="132"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="136"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="134"/>
       <c r="L56" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="N56" s="133"/>
-      <c r="O56" s="138" t="s">
+      <c r="M56" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="N56" s="128"/>
+      <c r="O56" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="139"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="130"/>
     </row>
     <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="142"/>
-      <c r="L57" s="149">
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="127">
         <v>1</v>
       </c>
-      <c r="M57" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="N57" s="127"/>
-      <c r="O57" s="150" t="s">
+      <c r="M57" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N57" s="136"/>
+      <c r="O57" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="151"/>
-      <c r="Q57" s="152"/>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="156"/>
     </row>
     <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="143"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="144"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="154"/>
-      <c r="Q58" s="155"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="139"/>
+      <c r="N58" s="140"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="158"/>
     </row>
     <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="144"/>
-      <c r="K59" s="145"/>
-      <c r="L59" s="149">
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="146"/>
+      <c r="L59" s="127">
         <v>2</v>
       </c>
-      <c r="M59" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="N59" s="127"/>
-      <c r="O59" s="156" t="s">
-        <v>222</v>
-      </c>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="157"/>
+      <c r="M59" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="N59" s="136"/>
+      <c r="O59" s="154" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59" s="154"/>
+      <c r="Q59" s="159"/>
     </row>
     <row r="60" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="143"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="149"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="159"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="160"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="161"/>
     </row>
     <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="149">
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="127">
         <v>3</v>
       </c>
-      <c r="M61" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="N61" s="127"/>
-      <c r="O61" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="157"/>
+      <c r="M61" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="N61" s="136"/>
+      <c r="O61" s="162" t="s">
+        <v>208</v>
+      </c>
+      <c r="P61" s="154"/>
+      <c r="Q61" s="159"/>
     </row>
     <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="145"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="131"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="140"/>
       <c r="O62" s="164"/>
-      <c r="P62" s="158"/>
-      <c r="Q62" s="159"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="161"/>
     </row>
     <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="143"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="145"/>
-      <c r="L63" s="149">
+      <c r="B63" s="144"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="127">
         <v>4</v>
       </c>
-      <c r="M63" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="N63" s="127"/>
-      <c r="O63" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="P63" s="151"/>
-      <c r="Q63" s="152"/>
+      <c r="M63" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="N63" s="136"/>
+      <c r="O63" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="P63" s="155"/>
+      <c r="Q63" s="156"/>
     </row>
     <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="145"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="131"/>
-      <c r="O64" s="153"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="155"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="139"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="157"/>
+      <c r="Q64" s="158"/>
     </row>
     <row r="65" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="143"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="145"/>
-      <c r="L65" s="149">
+      <c r="B65" s="144"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="127">
         <v>5</v>
       </c>
-      <c r="M65" s="126" t="s">
+      <c r="M65" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" s="136"/>
+      <c r="O65" s="154" t="s">
+        <v>220</v>
+      </c>
+      <c r="P65" s="155"/>
+      <c r="Q65" s="156"/>
+    </row>
+    <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="144"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="146"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="139"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="157"/>
+      <c r="P66" s="157"/>
+      <c r="Q66" s="158"/>
+    </row>
+    <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="144"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="145"/>
+      <c r="K67" s="146"/>
+      <c r="L67" s="127">
+        <v>6</v>
+      </c>
+      <c r="M67" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="N65" s="127"/>
-      <c r="O65" s="156" t="s">
-        <v>221</v>
-      </c>
-      <c r="P65" s="151"/>
-      <c r="Q65" s="152"/>
-    </row>
-    <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="143"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="145"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="155"/>
-    </row>
-    <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="143"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="145"/>
-      <c r="L67" s="149">
-        <v>6</v>
-      </c>
-      <c r="M67" s="126" t="s">
+      <c r="N67" s="136"/>
+      <c r="O67" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="N67" s="127"/>
-      <c r="O67" s="160" t="s">
-        <v>213</v>
-      </c>
-      <c r="P67" s="156"/>
-      <c r="Q67" s="157"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="159"/>
     </row>
     <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="143"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="145"/>
-      <c r="L68" s="149"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="129"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="162"/>
-      <c r="Q68" s="163"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="145"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="145"/>
+      <c r="J68" s="145"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="138"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="170"/>
+      <c r="Q68" s="171"/>
     </row>
     <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="143"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="145"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="131"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="145"/>
+      <c r="G69" s="145"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="140"/>
       <c r="O69" s="164"/>
-      <c r="P69" s="158"/>
-      <c r="Q69" s="159"/>
+      <c r="P69" s="160"/>
+      <c r="Q69" s="161"/>
     </row>
     <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="143"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="149">
+      <c r="B70" s="144"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="127">
         <v>7</v>
       </c>
-      <c r="M70" s="126" t="s">
+      <c r="M70" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="N70" s="136"/>
+      <c r="O70" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="127"/>
-      <c r="O70" s="160" t="s">
-        <v>213</v>
-      </c>
-      <c r="P70" s="151"/>
-      <c r="Q70" s="152"/>
+      <c r="P70" s="155"/>
+      <c r="Q70" s="156"/>
     </row>
     <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="143"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="145"/>
-      <c r="L71" s="149"/>
-      <c r="M71" s="128"/>
-      <c r="N71" s="129"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="166"/>
-      <c r="Q71" s="167"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="145"/>
+      <c r="G71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="127"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="138"/>
+      <c r="O71" s="166"/>
+      <c r="P71" s="167"/>
+      <c r="Q71" s="168"/>
     </row>
     <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="146"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="147"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="147"/>
-      <c r="I72" s="147"/>
-      <c r="J72" s="147"/>
-      <c r="K72" s="148"/>
-      <c r="L72" s="149"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="131"/>
-      <c r="O72" s="153"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="155"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="148"/>
+      <c r="F72" s="148"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="148"/>
+      <c r="I72" s="148"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="127"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="158"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="134" t="s">
+      <c r="B74" s="131" t="s">
         <v>174</v>
       </c>
       <c r="C74" s="132"/>
       <c r="D74" s="132"/>
       <c r="E74" s="132"/>
-      <c r="F74" s="133"/>
-      <c r="G74" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="135"/>
-      <c r="K74" s="136"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="H74" s="133"/>
+      <c r="I74" s="133"/>
+      <c r="J74" s="133"/>
+      <c r="K74" s="134"/>
       <c r="L74" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M74" s="137" t="s">
+      <c r="M74" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="N74" s="128"/>
+      <c r="O74" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="129"/>
+      <c r="Q74" s="130"/>
+    </row>
+    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="141"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="127">
+        <v>1</v>
+      </c>
+      <c r="M75" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="N75" s="127"/>
+      <c r="O75" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="P75" s="126"/>
+      <c r="Q75" s="126"/>
+    </row>
+    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="144"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="145"/>
+      <c r="G76" s="145"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="145"/>
+      <c r="J76" s="145"/>
+      <c r="K76" s="146"/>
+      <c r="L76" s="127"/>
+      <c r="M76" s="127"/>
+      <c r="N76" s="127"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="126"/>
+      <c r="Q76" s="126"/>
+    </row>
+    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="144"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="145"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="127"/>
+      <c r="M77" s="127"/>
+      <c r="N77" s="127"/>
+      <c r="O77" s="126"/>
+      <c r="P77" s="126"/>
+      <c r="Q77" s="126"/>
+    </row>
+    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="144"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="127"/>
+      <c r="M78" s="127"/>
+      <c r="N78" s="127"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="126"/>
+      <c r="Q78" s="126"/>
+    </row>
+    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="144"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="146"/>
+      <c r="L79" s="127"/>
+      <c r="M79" s="127"/>
+      <c r="N79" s="127"/>
+      <c r="O79" s="126"/>
+      <c r="P79" s="126"/>
+      <c r="Q79" s="126"/>
+    </row>
+    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="144"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="145"/>
+      <c r="G80" s="145"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="145"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="127">
+        <v>2</v>
+      </c>
+      <c r="M80" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="N80" s="127"/>
+      <c r="O80" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="P80" s="126"/>
+      <c r="Q80" s="126"/>
+    </row>
+    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="144"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="145"/>
+      <c r="F81" s="145"/>
+      <c r="G81" s="145"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="145"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="127"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="126"/>
+      <c r="P81" s="126"/>
+      <c r="Q81" s="126"/>
+    </row>
+    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="144"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="145"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="145"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="146"/>
+      <c r="L82" s="127"/>
+      <c r="M82" s="127"/>
+      <c r="N82" s="127"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="126"/>
+    </row>
+    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="144"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="145"/>
+      <c r="F83" s="145"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="145"/>
+      <c r="J83" s="145"/>
+      <c r="K83" s="146"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="127"/>
+      <c r="N83" s="127"/>
+      <c r="O83" s="126"/>
+      <c r="P83" s="126"/>
+      <c r="Q83" s="126"/>
+    </row>
+    <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="144"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
+      <c r="G84" s="145"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="145"/>
+      <c r="J84" s="145"/>
+      <c r="K84" s="146"/>
+      <c r="L84" s="127"/>
+      <c r="M84" s="127"/>
+      <c r="N84" s="127"/>
+      <c r="O84" s="126"/>
+      <c r="P84" s="126"/>
+      <c r="Q84" s="126"/>
+    </row>
+    <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="144"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="146"/>
+      <c r="L85" s="127"/>
+      <c r="M85" s="127"/>
+      <c r="N85" s="127"/>
+      <c r="O85" s="126"/>
+      <c r="P85" s="126"/>
+      <c r="Q85" s="126"/>
+    </row>
+    <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="144"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="145"/>
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="145"/>
+      <c r="J86" s="145"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="127">
+        <v>3</v>
+      </c>
+      <c r="M86" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="N74" s="133"/>
-      <c r="O74" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="P74" s="138"/>
-      <c r="Q74" s="139"/>
-    </row>
-    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="140"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="142"/>
-      <c r="L75" s="149">
-        <v>1</v>
-      </c>
-      <c r="M75" s="149" t="s">
-        <v>214</v>
-      </c>
-      <c r="N75" s="149"/>
-      <c r="O75" s="173" t="s">
-        <v>217</v>
-      </c>
-      <c r="P75" s="173"/>
-      <c r="Q75" s="173"/>
-    </row>
-    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="143"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="144"/>
-      <c r="G76" s="144"/>
-      <c r="H76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="145"/>
-      <c r="L76" s="149"/>
-      <c r="M76" s="149"/>
-      <c r="N76" s="149"/>
-      <c r="O76" s="173"/>
-      <c r="P76" s="173"/>
-      <c r="Q76" s="173"/>
-    </row>
-    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="143"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="145"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="149"/>
-      <c r="N77" s="149"/>
-      <c r="O77" s="173"/>
-      <c r="P77" s="173"/>
-      <c r="Q77" s="173"/>
-    </row>
-    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="143"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="144"/>
-      <c r="F78" s="144"/>
-      <c r="G78" s="144"/>
-      <c r="H78" s="144"/>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144"/>
-      <c r="K78" s="145"/>
-      <c r="L78" s="149"/>
-      <c r="M78" s="149"/>
-      <c r="N78" s="149"/>
-      <c r="O78" s="173"/>
-      <c r="P78" s="173"/>
-      <c r="Q78" s="173"/>
-    </row>
-    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="143"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
-      <c r="E79" s="144"/>
-      <c r="F79" s="144"/>
-      <c r="G79" s="144"/>
-      <c r="H79" s="144"/>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="145"/>
-      <c r="L79" s="149"/>
-      <c r="M79" s="149"/>
-      <c r="N79" s="149"/>
-      <c r="O79" s="173"/>
-      <c r="P79" s="173"/>
-      <c r="Q79" s="173"/>
-    </row>
-    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="143"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
-      <c r="E80" s="144"/>
-      <c r="F80" s="144"/>
-      <c r="G80" s="144"/>
-      <c r="H80" s="144"/>
-      <c r="I80" s="144"/>
-      <c r="J80" s="144"/>
-      <c r="K80" s="145"/>
-      <c r="L80" s="149">
-        <v>2</v>
-      </c>
-      <c r="M80" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="N80" s="149"/>
-      <c r="O80" s="173" t="s">
-        <v>216</v>
-      </c>
-      <c r="P80" s="173"/>
-      <c r="Q80" s="173"/>
-    </row>
-    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="143"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="144"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="144"/>
-      <c r="H81" s="144"/>
-      <c r="I81" s="144"/>
-      <c r="J81" s="144"/>
-      <c r="K81" s="145"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="149"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="173"/>
-      <c r="P81" s="173"/>
-      <c r="Q81" s="173"/>
-    </row>
-    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="143"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="144"/>
-      <c r="G82" s="144"/>
-      <c r="H82" s="144"/>
-      <c r="I82" s="144"/>
-      <c r="J82" s="144"/>
-      <c r="K82" s="145"/>
-      <c r="L82" s="149"/>
-      <c r="M82" s="149"/>
-      <c r="N82" s="149"/>
-      <c r="O82" s="173"/>
-      <c r="P82" s="173"/>
-      <c r="Q82" s="173"/>
-    </row>
-    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="143"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
-      <c r="G83" s="144"/>
-      <c r="H83" s="144"/>
-      <c r="I83" s="144"/>
-      <c r="J83" s="144"/>
-      <c r="K83" s="145"/>
-      <c r="L83" s="149"/>
-      <c r="M83" s="149"/>
-      <c r="N83" s="149"/>
-      <c r="O83" s="173"/>
-      <c r="P83" s="173"/>
-      <c r="Q83" s="173"/>
-    </row>
-    <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="143"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="144"/>
-      <c r="G84" s="144"/>
-      <c r="H84" s="144"/>
-      <c r="I84" s="144"/>
-      <c r="J84" s="144"/>
-      <c r="K84" s="145"/>
-      <c r="L84" s="149"/>
-      <c r="M84" s="149"/>
-      <c r="N84" s="149"/>
-      <c r="O84" s="173"/>
-      <c r="P84" s="173"/>
-      <c r="Q84" s="173"/>
-    </row>
-    <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="143"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144"/>
-      <c r="E85" s="144"/>
-      <c r="F85" s="144"/>
-      <c r="G85" s="144"/>
-      <c r="H85" s="144"/>
-      <c r="I85" s="144"/>
-      <c r="J85" s="144"/>
-      <c r="K85" s="145"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="149"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="173"/>
-      <c r="P85" s="173"/>
-      <c r="Q85" s="173"/>
-    </row>
-    <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="143"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="144"/>
-      <c r="H86" s="144"/>
-      <c r="I86" s="144"/>
-      <c r="J86" s="144"/>
-      <c r="K86" s="145"/>
-      <c r="L86" s="149">
-        <v>3</v>
-      </c>
-      <c r="M86" s="149" t="s">
-        <v>196</v>
-      </c>
-      <c r="N86" s="149"/>
-      <c r="O86" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="P86" s="173"/>
-      <c r="Q86" s="173"/>
+      <c r="N86" s="127"/>
+      <c r="O86" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
     </row>
     <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="143"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="144"/>
-      <c r="H87" s="144"/>
-      <c r="I87" s="144"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="149"/>
-      <c r="M87" s="149"/>
-      <c r="N87" s="149"/>
-      <c r="O87" s="173"/>
-      <c r="P87" s="173"/>
-      <c r="Q87" s="173"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="145"/>
+      <c r="F87" s="145"/>
+      <c r="G87" s="145"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="145"/>
+      <c r="J87" s="145"/>
+      <c r="K87" s="146"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="127"/>
+      <c r="N87" s="127"/>
+      <c r="O87" s="126"/>
+      <c r="P87" s="126"/>
+      <c r="Q87" s="126"/>
     </row>
     <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="143"/>
-      <c r="C88" s="144"/>
-      <c r="D88" s="144"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="144"/>
-      <c r="H88" s="144"/>
-      <c r="I88" s="144"/>
-      <c r="J88" s="144"/>
-      <c r="K88" s="145"/>
-      <c r="L88" s="149"/>
-      <c r="M88" s="149"/>
-      <c r="N88" s="149"/>
-      <c r="O88" s="173"/>
-      <c r="P88" s="173"/>
-      <c r="Q88" s="173"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="145"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="145"/>
+      <c r="J88" s="145"/>
+      <c r="K88" s="146"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="127"/>
+      <c r="N88" s="127"/>
+      <c r="O88" s="126"/>
+      <c r="P88" s="126"/>
+      <c r="Q88" s="126"/>
     </row>
     <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="143"/>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
-      <c r="G89" s="144"/>
-      <c r="H89" s="144"/>
-      <c r="I89" s="144"/>
-      <c r="J89" s="144"/>
-      <c r="K89" s="145"/>
-      <c r="L89" s="149"/>
-      <c r="M89" s="149"/>
-      <c r="N89" s="149"/>
-      <c r="O89" s="173"/>
-      <c r="P89" s="173"/>
-      <c r="Q89" s="173"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="145"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="145"/>
+      <c r="J89" s="145"/>
+      <c r="K89" s="146"/>
+      <c r="L89" s="127"/>
+      <c r="M89" s="127"/>
+      <c r="N89" s="127"/>
+      <c r="O89" s="126"/>
+      <c r="P89" s="126"/>
+      <c r="Q89" s="126"/>
     </row>
     <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
-      <c r="E90" s="147"/>
-      <c r="F90" s="147"/>
-      <c r="G90" s="147"/>
-      <c r="H90" s="147"/>
-      <c r="I90" s="147"/>
-      <c r="J90" s="147"/>
-      <c r="K90" s="148"/>
-      <c r="L90" s="149"/>
-      <c r="M90" s="149"/>
-      <c r="N90" s="149"/>
-      <c r="O90" s="173"/>
-      <c r="P90" s="173"/>
-      <c r="Q90" s="173"/>
+      <c r="B90" s="147"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="148"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="148"/>
+      <c r="H90" s="148"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="148"/>
+      <c r="K90" s="149"/>
+      <c r="L90" s="127"/>
+      <c r="M90" s="127"/>
+      <c r="N90" s="127"/>
+      <c r="O90" s="126"/>
+      <c r="P90" s="126"/>
+      <c r="Q90" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="O75:Q79"/>
-    <mergeCell ref="O80:Q85"/>
-    <mergeCell ref="O86:Q90"/>
-    <mergeCell ref="M86:N90"/>
-    <mergeCell ref="M75:N79"/>
-    <mergeCell ref="M80:N85"/>
-    <mergeCell ref="L86:L90"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="B75:K90"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N58"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="M29:N32"/>
+    <mergeCell ref="M25:N28"/>
+    <mergeCell ref="M21:N24"/>
+    <mergeCell ref="M53:N54"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B57:K72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="B39:K54"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O13:Q15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="G38:K38"/>
@@ -10500,85 +10573,15 @@
     <mergeCell ref="O29:Q32"/>
     <mergeCell ref="O25:Q28"/>
     <mergeCell ref="O21:Q24"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="B39:K54"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O16:Q18"/>
-    <mergeCell ref="O13:Q15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M16:N18"/>
-    <mergeCell ref="M13:N15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="B57:K72"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="O67:Q69"/>
-    <mergeCell ref="O70:Q72"/>
-    <mergeCell ref="M70:N72"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="B75:K90"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N58"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="M63:N64"/>
-    <mergeCell ref="M29:N32"/>
-    <mergeCell ref="M25:N28"/>
-    <mergeCell ref="M21:N24"/>
-    <mergeCell ref="M53:N54"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O75:Q79"/>
+    <mergeCell ref="O80:Q85"/>
+    <mergeCell ref="O86:Q90"/>
+    <mergeCell ref="M86:N90"/>
+    <mergeCell ref="M75:N79"/>
+    <mergeCell ref="M80:N85"/>
+    <mergeCell ref="L86:L90"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="L75:L79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845A4F8B-AE17-4F65-87A1-72B7384BE6F1}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAEEEEC3-A8F4-440F-A9B9-8350966DEAC1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="224">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,11 +1981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택 가능한 스테이지의 정보를
-담은 패널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나머지 요소를 담은 패널</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2091,10 +2086,6 @@
   </si>
   <si>
     <t>상급 패널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급 패널</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2228,6 +2219,36 @@
   </si>
   <si>
     <t>우측, 스크롤바의 역할을 직관적으로 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>클릭 시, 버튼에 저장된 스테이지 로딩
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택 로딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 시스템 참조</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3556,194 +3577,194 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8027,26 +8048,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8055,7 +8076,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="117" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8070,29 +8091,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="120"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -8105,29 +8126,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="119" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -8142,31 +8163,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="121"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -8179,27 +8200,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="121"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -8212,27 +8233,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="120" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8247,27 +8268,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8280,27 +8301,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8313,27 +8334,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="121" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8348,27 +8369,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="117"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8381,27 +8402,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="117"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8414,20 +8435,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="82"/>
       <c r="N12" s="54"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
       <c r="R12" s="55"/>
       <c r="S12" s="65" t="s">
         <v>92</v>
@@ -8449,20 +8470,20 @@
       <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="82"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
       <c r="R13" s="55"/>
       <c r="S13" s="65" t="s">
         <v>92</v>
@@ -8484,20 +8505,20 @@
       <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="82"/>
       <c r="N14" s="54"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
       <c r="R14" s="55"/>
       <c r="S14" s="65" t="s">
         <v>92</v>
@@ -8519,20 +8540,20 @@
       <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="82"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
       <c r="R15" s="55"/>
       <c r="S15" s="65" t="s">
         <v>93</v>
@@ -8554,20 +8575,20 @@
       <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="82"/>
       <c r="N16" s="54"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
       <c r="R16" s="55"/>
       <c r="S16" s="65" t="s">
         <v>93</v>
@@ -8589,20 +8610,20 @@
       <c r="E17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="82"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
       <c r="R17" s="55"/>
       <c r="S17" s="65" t="s">
         <v>92</v>
@@ -8624,59 +8645,32 @@
       <c r="E18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="83"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="63"/>
       <c r="S18" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
@@ -8691,6 +8685,33 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8703,8 +8724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F74CF53-2F48-46EA-9405-9928E75A2E5F}">
   <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8715,1761 +8736,1849 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="133" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="134"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="150" t="s">
+      <c r="M2" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="127"/>
+      <c r="O2" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="170"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="143">
+        <v>1</v>
+      </c>
+      <c r="M3" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="151"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="127">
-        <v>1</v>
-      </c>
-      <c r="M3" s="135" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="152"/>
+    </row>
+    <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="155"/>
+    </row>
+    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="143">
+        <v>2</v>
+      </c>
+      <c r="M5" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="162" t="s">
+      <c r="N5" s="145"/>
+      <c r="O5" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="156"/>
-    </row>
-    <row r="4" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-    </row>
-    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="127">
-        <v>2</v>
-      </c>
-      <c r="M5" s="135" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="143">
+        <v>3</v>
+      </c>
+      <c r="M7" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="145"/>
+      <c r="O7" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="157"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
+    </row>
+    <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="143">
+        <v>4</v>
+      </c>
+      <c r="M9" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="145"/>
+      <c r="O9" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
+    </row>
+    <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="155"/>
+    </row>
+    <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="143">
+        <v>5</v>
+      </c>
+      <c r="M11" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="145"/>
+      <c r="O11" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
+    </row>
+    <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="159"/>
+    </row>
+    <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="143">
+        <v>6</v>
+      </c>
+      <c r="M13" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="162" t="s">
-        <v>188</v>
-      </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="158"/>
-    </row>
-    <row r="7" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="127">
-        <v>3</v>
-      </c>
-      <c r="M7" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="162" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="159"/>
-    </row>
-    <row r="8" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="161"/>
-    </row>
-    <row r="9" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="127">
-        <v>4</v>
-      </c>
-      <c r="M9" s="135" t="s">
+      <c r="N13" s="145"/>
+      <c r="O13" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="157"/>
+    </row>
+    <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+    </row>
+    <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="159"/>
+    </row>
+    <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="143">
+        <v>7</v>
+      </c>
+      <c r="M16" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="N9" s="136"/>
-      <c r="O9" s="162" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="156"/>
-    </row>
-    <row r="10" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="158"/>
-    </row>
-    <row r="11" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="127">
-        <v>5</v>
-      </c>
-      <c r="M11" s="135" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="136"/>
-      <c r="O11" s="162" t="s">
+      <c r="N16" s="145"/>
+      <c r="O16" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="159"/>
-    </row>
-    <row r="12" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="161"/>
-    </row>
-    <row r="13" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="127">
-        <v>6</v>
-      </c>
-      <c r="M13" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="N13" s="136"/>
-      <c r="O13" s="162" t="s">
-        <v>192</v>
-      </c>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="159"/>
-    </row>
-    <row r="14" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="171"/>
-    </row>
-    <row r="15" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161"/>
-    </row>
-    <row r="16" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="127">
-        <v>7</v>
-      </c>
-      <c r="M16" s="135" t="s">
-        <v>201</v>
-      </c>
-      <c r="N16" s="136"/>
-      <c r="O16" s="165" t="s">
-        <v>191</v>
-      </c>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="156"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="152"/>
     </row>
     <row r="17" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="168"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
     </row>
     <row r="18" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="147"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="158"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="155"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="133" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="134"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="150" t="s">
+      <c r="M20" s="126" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="127"/>
+      <c r="O20" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="151"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="170"/>
     </row>
     <row r="21" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="127">
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="143">
         <v>1</v>
       </c>
-      <c r="M21" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="N21" s="136"/>
-      <c r="O21" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
+      <c r="M21" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="N21" s="145"/>
+      <c r="O21" s="172" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
     </row>
     <row r="22" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
     </row>
     <row r="23" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
     </row>
     <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
     </row>
     <row r="25" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="127">
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="143">
         <v>2</v>
       </c>
-      <c r="M25" s="135" t="s">
+      <c r="M25" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="N25" s="145"/>
+      <c r="O25" s="171" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+    </row>
+    <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
+    </row>
+    <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+    </row>
+    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+    </row>
+    <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="143">
+        <v>3</v>
+      </c>
+      <c r="M29" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="N25" s="136"/>
-      <c r="O25" s="152" t="s">
-        <v>177</v>
-      </c>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-    </row>
-    <row r="26" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-    </row>
-    <row r="27" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-    </row>
-    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-    </row>
-    <row r="29" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="127">
-        <v>3</v>
-      </c>
-      <c r="M29" s="135" t="s">
+      <c r="N29" s="145"/>
+      <c r="O29" s="171" t="s">
+        <v>219</v>
+      </c>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+    </row>
+    <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="172"/>
+    </row>
+    <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="172"/>
+    </row>
+    <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
+    </row>
+    <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="143">
+        <v>4</v>
+      </c>
+      <c r="M33" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="N29" s="136"/>
-      <c r="O29" s="152" t="s">
-        <v>221</v>
-      </c>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-    </row>
-    <row r="30" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-    </row>
-    <row r="31" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-    </row>
-    <row r="32" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-    </row>
-    <row r="33" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="127">
-        <v>4</v>
-      </c>
-      <c r="M33" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="N33" s="136"/>
-      <c r="O33" s="152" t="s">
-        <v>218</v>
-      </c>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="171" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
     </row>
     <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
     </row>
     <row r="35" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="153"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="172"/>
     </row>
     <row r="36" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="147"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="133" t="s">
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="134"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
       <c r="L38" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="N38" s="172"/>
-      <c r="O38" s="128" t="s">
+      <c r="M38" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="N38" s="169"/>
+      <c r="O38" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="130"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="133"/>
     </row>
     <row r="39" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="135">
+      <c r="B39" s="134"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="144">
         <v>1</v>
       </c>
-      <c r="M39" s="127" t="s">
+      <c r="M39" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="143"/>
+      <c r="O39" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="152"/>
+    </row>
+    <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="155"/>
+    </row>
+    <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="144">
+        <v>2</v>
+      </c>
+      <c r="M41" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="N41" s="143"/>
+      <c r="O41" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="152"/>
+    </row>
+    <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="155"/>
+    </row>
+    <row r="43" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="144">
+        <v>3</v>
+      </c>
+      <c r="M43" s="143" t="s">
+        <v>202</v>
+      </c>
+      <c r="N43" s="143"/>
+      <c r="O43" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="157"/>
+    </row>
+    <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="159"/>
+    </row>
+    <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="144">
+        <v>4</v>
+      </c>
+      <c r="M45" s="143" t="s">
+        <v>209</v>
+      </c>
+      <c r="N45" s="143"/>
+      <c r="O45" s="156" t="s">
+        <v>223</v>
+      </c>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="152"/>
+    </row>
+    <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="155"/>
+    </row>
+    <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="144">
+        <v>5</v>
+      </c>
+      <c r="M47" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47" s="143"/>
+      <c r="O47" s="151" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="152"/>
+    </row>
+    <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="143"/>
+      <c r="N48" s="143"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="155"/>
+    </row>
+    <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="144">
+        <v>6</v>
+      </c>
+      <c r="M49" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="N49" s="143"/>
+      <c r="O49" s="156" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="152"/>
+    </row>
+    <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="143"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="155"/>
+    </row>
+    <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="137"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="144">
+        <v>7</v>
+      </c>
+      <c r="M51" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="N39" s="127"/>
-      <c r="O39" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="156"/>
-    </row>
-    <row r="40" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="158"/>
-    </row>
-    <row r="41" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="135">
-        <v>2</v>
-      </c>
-      <c r="M41" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="127"/>
-      <c r="O41" s="154" t="s">
-        <v>178</v>
-      </c>
-      <c r="P41" s="155"/>
-      <c r="Q41" s="156"/>
-    </row>
-    <row r="42" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="144"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="157"/>
-      <c r="Q42" s="158"/>
-    </row>
-    <row r="43" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="144"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="135">
-        <v>3</v>
-      </c>
-      <c r="M43" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="N43" s="127"/>
-      <c r="O43" s="154" t="s">
-        <v>221</v>
-      </c>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="159"/>
-    </row>
-    <row r="44" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="144"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="160"/>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="161"/>
-    </row>
-    <row r="45" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="144"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="135">
-        <v>4</v>
-      </c>
-      <c r="M45" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="N45" s="127"/>
-      <c r="O45" s="154" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="156"/>
-    </row>
-    <row r="46" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="144"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="127"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="157"/>
-      <c r="P46" s="157"/>
-      <c r="Q46" s="158"/>
-    </row>
-    <row r="47" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="144"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="135">
-        <v>5</v>
-      </c>
-      <c r="M47" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="N47" s="127"/>
-      <c r="O47" s="155" t="s">
+      <c r="N51" s="143"/>
+      <c r="O51" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="156"/>
-    </row>
-    <row r="48" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="144"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="157"/>
-      <c r="Q48" s="158"/>
-    </row>
-    <row r="49" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="144"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="135">
-        <v>6</v>
-      </c>
-      <c r="M49" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="N49" s="127"/>
-      <c r="O49" s="154" t="s">
+      <c r="P51" s="156"/>
+      <c r="Q51" s="157"/>
+    </row>
+    <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="143"/>
+      <c r="N52" s="143"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="159"/>
+    </row>
+    <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="144">
+        <v>8</v>
+      </c>
+      <c r="M53" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" s="143"/>
+      <c r="O53" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="156"/>
-    </row>
-    <row r="50" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="144"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="157"/>
-      <c r="Q50" s="158"/>
-    </row>
-    <row r="51" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="144"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="135">
-        <v>7</v>
-      </c>
-      <c r="M51" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="N51" s="127"/>
-      <c r="O51" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="159"/>
-    </row>
-    <row r="52" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="144"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="127"/>
-      <c r="N52" s="127"/>
-      <c r="O52" s="160"/>
-      <c r="P52" s="160"/>
-      <c r="Q52" s="161"/>
-    </row>
-    <row r="53" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="144"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="135">
-        <v>8</v>
-      </c>
-      <c r="M53" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="N53" s="127"/>
-      <c r="O53" s="154" t="s">
-        <v>186</v>
-      </c>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="156"/>
+      <c r="P53" s="151"/>
+      <c r="Q53" s="152"/>
     </row>
     <row r="54" spans="2:17" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="147"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="148"/>
-      <c r="K54" s="149"/>
-      <c r="L54" s="139"/>
-      <c r="M54" s="127"/>
-      <c r="N54" s="127"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="158"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="143"/>
+      <c r="N54" s="143"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="155"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B56" s="131" t="s">
+      <c r="B56" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="134"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="130"/>
       <c r="L56" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="N56" s="128"/>
-      <c r="O56" s="129" t="s">
+      <c r="M56" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="N56" s="127"/>
+      <c r="O56" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="P56" s="129"/>
-      <c r="Q56" s="130"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="133"/>
     </row>
     <row r="57" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="141"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="127">
+      <c r="B57" s="134"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="143">
         <v>1</v>
       </c>
-      <c r="M57" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="N57" s="136"/>
-      <c r="O57" s="162" t="s">
+      <c r="M57" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57" s="145"/>
+      <c r="O57" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="155"/>
-      <c r="Q57" s="156"/>
+      <c r="P57" s="151"/>
+      <c r="Q57" s="152"/>
     </row>
     <row r="58" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="144"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="163"/>
-      <c r="P58" s="157"/>
-      <c r="Q58" s="158"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="146"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="154"/>
+      <c r="Q58" s="155"/>
     </row>
     <row r="59" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="144"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="127">
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="139"/>
+      <c r="L59" s="143">
         <v>2</v>
       </c>
-      <c r="M59" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="N59" s="136"/>
-      <c r="O59" s="154" t="s">
+      <c r="M59" s="144" t="s">
+        <v>202</v>
+      </c>
+      <c r="N59" s="145"/>
+      <c r="O59" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="157"/>
+    </row>
+    <row r="60" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="146"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="159"/>
+    </row>
+    <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="143">
+        <v>3</v>
+      </c>
+      <c r="M61" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="N61" s="145"/>
+      <c r="O61" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="157"/>
+    </row>
+    <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="164"/>
+      <c r="P62" s="158"/>
+      <c r="Q62" s="159"/>
+    </row>
+    <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="138"/>
+      <c r="K63" s="139"/>
+      <c r="L63" s="143">
+        <v>4</v>
+      </c>
+      <c r="M63" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="P59" s="154"/>
-      <c r="Q59" s="159"/>
-    </row>
-    <row r="60" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="144"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="160"/>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="161"/>
-    </row>
-    <row r="61" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="144"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="127">
-        <v>3</v>
-      </c>
-      <c r="M61" s="135" t="s">
-        <v>202</v>
-      </c>
-      <c r="N61" s="136"/>
-      <c r="O61" s="162" t="s">
+      <c r="N63" s="145"/>
+      <c r="O63" s="150" t="s">
+        <v>222</v>
+      </c>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="152"/>
+    </row>
+    <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="139"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="146"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="153"/>
+      <c r="P64" s="154"/>
+      <c r="Q64" s="155"/>
+    </row>
+    <row r="65" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="143">
+        <v>5</v>
+      </c>
+      <c r="M65" s="144" t="s">
         <v>208</v>
       </c>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="159"/>
-    </row>
-    <row r="62" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="144"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="164"/>
-      <c r="P62" s="160"/>
-      <c r="Q62" s="161"/>
-    </row>
-    <row r="63" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="144"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="145"/>
-      <c r="G63" s="145"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="145"/>
-      <c r="J63" s="145"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="127">
-        <v>4</v>
-      </c>
-      <c r="M63" s="135" t="s">
-        <v>223</v>
-      </c>
-      <c r="N63" s="136"/>
-      <c r="O63" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="P63" s="155"/>
-      <c r="Q63" s="156"/>
-    </row>
-    <row r="64" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="144"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="145"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="127"/>
-      <c r="M64" s="139"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="163"/>
-      <c r="P64" s="157"/>
-      <c r="Q64" s="158"/>
-    </row>
-    <row r="65" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="144"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="145"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="127">
-        <v>5</v>
-      </c>
-      <c r="M65" s="135" t="s">
+      <c r="N65" s="145"/>
+      <c r="O65" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="152"/>
+    </row>
+    <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
+      <c r="G66" s="138"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="143"/>
+      <c r="M66" s="146"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="154"/>
+      <c r="Q66" s="155"/>
+    </row>
+    <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
+      <c r="G67" s="138"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="143">
+        <v>6</v>
+      </c>
+      <c r="M67" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="N67" s="145"/>
+      <c r="O67" s="160" t="s">
         <v>210</v>
       </c>
-      <c r="N65" s="136"/>
-      <c r="O65" s="154" t="s">
-        <v>220</v>
-      </c>
-      <c r="P65" s="155"/>
-      <c r="Q65" s="156"/>
-    </row>
-    <row r="66" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="144"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="139"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="157"/>
-      <c r="Q66" s="158"/>
-    </row>
-    <row r="67" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="144"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="145"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="127">
-        <v>6</v>
-      </c>
-      <c r="M67" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="N67" s="136"/>
-      <c r="O67" s="173" t="s">
-        <v>212</v>
-      </c>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="159"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="157"/>
     </row>
     <row r="68" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="144"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="145"/>
-      <c r="F68" s="145"/>
-      <c r="G68" s="145"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="127"/>
-      <c r="M68" s="137"/>
-      <c r="N68" s="138"/>
-      <c r="O68" s="169"/>
-      <c r="P68" s="170"/>
-      <c r="Q68" s="171"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="138"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="138"/>
+      <c r="K68" s="139"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="148"/>
+      <c r="N68" s="149"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="163"/>
     </row>
     <row r="69" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="144"/>
-      <c r="C69" s="145"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="145"/>
-      <c r="F69" s="145"/>
-      <c r="G69" s="145"/>
-      <c r="H69" s="145"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="127"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="140"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="138"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="138"/>
+      <c r="J69" s="138"/>
+      <c r="K69" s="139"/>
+      <c r="L69" s="143"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="147"/>
       <c r="O69" s="164"/>
-      <c r="P69" s="160"/>
-      <c r="Q69" s="161"/>
+      <c r="P69" s="158"/>
+      <c r="Q69" s="159"/>
     </row>
     <row r="70" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="144"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="127">
+      <c r="B70" s="137"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="138"/>
+      <c r="G70" s="138"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="138"/>
+      <c r="J70" s="138"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="143">
         <v>7</v>
       </c>
-      <c r="M70" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="N70" s="136"/>
-      <c r="O70" s="173" t="s">
-        <v>212</v>
-      </c>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="156"/>
+      <c r="M70" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="N70" s="145"/>
+      <c r="O70" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="P70" s="151"/>
+      <c r="Q70" s="152"/>
     </row>
     <row r="71" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="144"/>
-      <c r="C71" s="145"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="145"/>
-      <c r="G71" s="145"/>
-      <c r="H71" s="145"/>
-      <c r="I71" s="145"/>
-      <c r="J71" s="145"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="127"/>
-      <c r="M71" s="137"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="166"/>
-      <c r="P71" s="167"/>
-      <c r="Q71" s="168"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="139"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="148"/>
+      <c r="N71" s="149"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="166"/>
+      <c r="Q71" s="167"/>
     </row>
     <row r="72" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="147"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="149"/>
-      <c r="L72" s="127"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="163"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="158"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="141"/>
+      <c r="J72" s="141"/>
+      <c r="K72" s="142"/>
+      <c r="L72" s="143"/>
+      <c r="M72" s="146"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="153"/>
+      <c r="P72" s="154"/>
+      <c r="Q72" s="155"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B74" s="131" t="s">
+      <c r="B74" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="132"/>
-      <c r="E74" s="132"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="133" t="s">
-        <v>217</v>
-      </c>
-      <c r="H74" s="133"/>
-      <c r="I74" s="133"/>
-      <c r="J74" s="133"/>
-      <c r="K74" s="134"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="129"/>
+      <c r="I74" s="129"/>
+      <c r="J74" s="129"/>
+      <c r="K74" s="130"/>
       <c r="L74" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M74" s="150" t="s">
+      <c r="M74" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="N74" s="127"/>
+      <c r="O74" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="133"/>
+    </row>
+    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="134"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="135"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="135"/>
+      <c r="I75" s="135"/>
+      <c r="J75" s="135"/>
+      <c r="K75" s="136"/>
+      <c r="L75" s="143">
+        <v>1</v>
+      </c>
+      <c r="M75" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="N75" s="143"/>
+      <c r="O75" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="P75" s="173"/>
+      <c r="Q75" s="173"/>
+    </row>
+    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="137"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="138"/>
+      <c r="G76" s="138"/>
+      <c r="H76" s="138"/>
+      <c r="I76" s="138"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="173"/>
+      <c r="P76" s="173"/>
+      <c r="Q76" s="173"/>
+    </row>
+    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="137"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="138"/>
+      <c r="G77" s="138"/>
+      <c r="H77" s="138"/>
+      <c r="I77" s="138"/>
+      <c r="J77" s="138"/>
+      <c r="K77" s="139"/>
+      <c r="L77" s="143"/>
+      <c r="M77" s="143"/>
+      <c r="N77" s="143"/>
+      <c r="O77" s="173"/>
+      <c r="P77" s="173"/>
+      <c r="Q77" s="173"/>
+    </row>
+    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="137"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="138"/>
+      <c r="G78" s="138"/>
+      <c r="H78" s="138"/>
+      <c r="I78" s="138"/>
+      <c r="J78" s="138"/>
+      <c r="K78" s="139"/>
+      <c r="L78" s="143"/>
+      <c r="M78" s="143"/>
+      <c r="N78" s="143"/>
+      <c r="O78" s="173"/>
+      <c r="P78" s="173"/>
+      <c r="Q78" s="173"/>
+    </row>
+    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="138"/>
+      <c r="F79" s="138"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="138"/>
+      <c r="I79" s="138"/>
+      <c r="J79" s="138"/>
+      <c r="K79" s="139"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="173"/>
+      <c r="P79" s="173"/>
+      <c r="Q79" s="173"/>
+    </row>
+    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="137"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="138"/>
+      <c r="E80" s="138"/>
+      <c r="F80" s="138"/>
+      <c r="G80" s="138"/>
+      <c r="H80" s="138"/>
+      <c r="I80" s="138"/>
+      <c r="J80" s="138"/>
+      <c r="K80" s="139"/>
+      <c r="L80" s="143">
+        <v>2</v>
+      </c>
+      <c r="M80" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="N80" s="143"/>
+      <c r="O80" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="P80" s="173"/>
+      <c r="Q80" s="173"/>
+    </row>
+    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="137"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="138"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="138"/>
+      <c r="I81" s="138"/>
+      <c r="J81" s="138"/>
+      <c r="K81" s="139"/>
+      <c r="L81" s="143"/>
+      <c r="M81" s="143"/>
+      <c r="N81" s="143"/>
+      <c r="O81" s="173"/>
+      <c r="P81" s="173"/>
+      <c r="Q81" s="173"/>
+    </row>
+    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="137"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="138"/>
+      <c r="E82" s="138"/>
+      <c r="F82" s="138"/>
+      <c r="G82" s="138"/>
+      <c r="H82" s="138"/>
+      <c r="I82" s="138"/>
+      <c r="J82" s="138"/>
+      <c r="K82" s="139"/>
+      <c r="L82" s="143"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="143"/>
+      <c r="O82" s="173"/>
+      <c r="P82" s="173"/>
+      <c r="Q82" s="173"/>
+    </row>
+    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="137"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="138"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="138"/>
+      <c r="G83" s="138"/>
+      <c r="H83" s="138"/>
+      <c r="I83" s="138"/>
+      <c r="J83" s="138"/>
+      <c r="K83" s="139"/>
+      <c r="L83" s="143"/>
+      <c r="M83" s="143"/>
+      <c r="N83" s="143"/>
+      <c r="O83" s="173"/>
+      <c r="P83" s="173"/>
+      <c r="Q83" s="173"/>
+    </row>
+    <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="137"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="138"/>
+      <c r="E84" s="138"/>
+      <c r="F84" s="138"/>
+      <c r="G84" s="138"/>
+      <c r="H84" s="138"/>
+      <c r="I84" s="138"/>
+      <c r="J84" s="138"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="143"/>
+      <c r="M84" s="143"/>
+      <c r="N84" s="143"/>
+      <c r="O84" s="173"/>
+      <c r="P84" s="173"/>
+      <c r="Q84" s="173"/>
+    </row>
+    <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="137"/>
+      <c r="C85" s="138"/>
+      <c r="D85" s="138"/>
+      <c r="E85" s="138"/>
+      <c r="F85" s="138"/>
+      <c r="G85" s="138"/>
+      <c r="H85" s="138"/>
+      <c r="I85" s="138"/>
+      <c r="J85" s="138"/>
+      <c r="K85" s="139"/>
+      <c r="L85" s="143"/>
+      <c r="M85" s="143"/>
+      <c r="N85" s="143"/>
+      <c r="O85" s="173"/>
+      <c r="P85" s="173"/>
+      <c r="Q85" s="173"/>
+    </row>
+    <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="137"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="138"/>
+      <c r="G86" s="138"/>
+      <c r="H86" s="138"/>
+      <c r="I86" s="138"/>
+      <c r="J86" s="138"/>
+      <c r="K86" s="139"/>
+      <c r="L86" s="143">
+        <v>3</v>
+      </c>
+      <c r="M86" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="N74" s="128"/>
-      <c r="O74" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="P74" s="129"/>
-      <c r="Q74" s="130"/>
-    </row>
-    <row r="75" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="141"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="143"/>
-      <c r="L75" s="127">
-        <v>1</v>
-      </c>
-      <c r="M75" s="127" t="s">
-        <v>213</v>
-      </c>
-      <c r="N75" s="127"/>
-      <c r="O75" s="126" t="s">
-        <v>216</v>
-      </c>
-      <c r="P75" s="126"/>
-      <c r="Q75" s="126"/>
-    </row>
-    <row r="76" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="144"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
-      <c r="E76" s="145"/>
-      <c r="F76" s="145"/>
-      <c r="G76" s="145"/>
-      <c r="H76" s="145"/>
-      <c r="I76" s="145"/>
-      <c r="J76" s="145"/>
-      <c r="K76" s="146"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="127"/>
-      <c r="N76" s="127"/>
-      <c r="O76" s="126"/>
-      <c r="P76" s="126"/>
-      <c r="Q76" s="126"/>
-    </row>
-    <row r="77" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="144"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
-      <c r="E77" s="145"/>
-      <c r="F77" s="145"/>
-      <c r="G77" s="145"/>
-      <c r="H77" s="145"/>
-      <c r="I77" s="145"/>
-      <c r="J77" s="145"/>
-      <c r="K77" s="146"/>
-      <c r="L77" s="127"/>
-      <c r="M77" s="127"/>
-      <c r="N77" s="127"/>
-      <c r="O77" s="126"/>
-      <c r="P77" s="126"/>
-      <c r="Q77" s="126"/>
-    </row>
-    <row r="78" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="144"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
-      <c r="E78" s="145"/>
-      <c r="F78" s="145"/>
-      <c r="G78" s="145"/>
-      <c r="H78" s="145"/>
-      <c r="I78" s="145"/>
-      <c r="J78" s="145"/>
-      <c r="K78" s="146"/>
-      <c r="L78" s="127"/>
-      <c r="M78" s="127"/>
-      <c r="N78" s="127"/>
-      <c r="O78" s="126"/>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="126"/>
-    </row>
-    <row r="79" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="144"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
-      <c r="K79" s="146"/>
-      <c r="L79" s="127"/>
-      <c r="M79" s="127"/>
-      <c r="N79" s="127"/>
-      <c r="O79" s="126"/>
-      <c r="P79" s="126"/>
-      <c r="Q79" s="126"/>
-    </row>
-    <row r="80" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="144"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145"/>
-      <c r="F80" s="145"/>
-      <c r="G80" s="145"/>
-      <c r="H80" s="145"/>
-      <c r="I80" s="145"/>
-      <c r="J80" s="145"/>
-      <c r="K80" s="146"/>
-      <c r="L80" s="127">
-        <v>2</v>
-      </c>
-      <c r="M80" s="127" t="s">
-        <v>214</v>
-      </c>
-      <c r="N80" s="127"/>
-      <c r="O80" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="P80" s="126"/>
-      <c r="Q80" s="126"/>
-    </row>
-    <row r="81" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="144"/>
-      <c r="C81" s="145"/>
-      <c r="D81" s="145"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="145"/>
-      <c r="G81" s="145"/>
-      <c r="H81" s="145"/>
-      <c r="I81" s="145"/>
-      <c r="J81" s="145"/>
-      <c r="K81" s="146"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="126"/>
-      <c r="Q81" s="126"/>
-    </row>
-    <row r="82" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="144"/>
-      <c r="C82" s="145"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="145"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="145"/>
-      <c r="I82" s="145"/>
-      <c r="J82" s="145"/>
-      <c r="K82" s="146"/>
-      <c r="L82" s="127"/>
-      <c r="M82" s="127"/>
-      <c r="N82" s="127"/>
-      <c r="O82" s="126"/>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="126"/>
-    </row>
-    <row r="83" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="144"/>
-      <c r="C83" s="145"/>
-      <c r="D83" s="145"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="145"/>
-      <c r="G83" s="145"/>
-      <c r="H83" s="145"/>
-      <c r="I83" s="145"/>
-      <c r="J83" s="145"/>
-      <c r="K83" s="146"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="127"/>
-      <c r="O83" s="126"/>
-      <c r="P83" s="126"/>
-      <c r="Q83" s="126"/>
-    </row>
-    <row r="84" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="144"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
-      <c r="G84" s="145"/>
-      <c r="H84" s="145"/>
-      <c r="I84" s="145"/>
-      <c r="J84" s="145"/>
-      <c r="K84" s="146"/>
-      <c r="L84" s="127"/>
-      <c r="M84" s="127"/>
-      <c r="N84" s="127"/>
-      <c r="O84" s="126"/>
-      <c r="P84" s="126"/>
-      <c r="Q84" s="126"/>
-    </row>
-    <row r="85" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="144"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="145"/>
-      <c r="I85" s="145"/>
-      <c r="J85" s="145"/>
-      <c r="K85" s="146"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="127"/>
-      <c r="N85" s="127"/>
-      <c r="O85" s="126"/>
-      <c r="P85" s="126"/>
-      <c r="Q85" s="126"/>
-    </row>
-    <row r="86" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="144"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="145"/>
-      <c r="G86" s="145"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="145"/>
-      <c r="J86" s="145"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="127">
-        <v>3</v>
-      </c>
-      <c r="M86" s="127" t="s">
-        <v>195</v>
-      </c>
-      <c r="N86" s="127"/>
-      <c r="O86" s="126" t="s">
-        <v>222</v>
-      </c>
-      <c r="P86" s="126"/>
-      <c r="Q86" s="126"/>
+      <c r="N86" s="143"/>
+      <c r="O86" s="173" t="s">
+        <v>220</v>
+      </c>
+      <c r="P86" s="173"/>
+      <c r="Q86" s="173"/>
     </row>
     <row r="87" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="144"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="146"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="127"/>
-      <c r="N87" s="127"/>
-      <c r="O87" s="126"/>
-      <c r="P87" s="126"/>
-      <c r="Q87" s="126"/>
+      <c r="B87" s="137"/>
+      <c r="C87" s="138"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="138"/>
+      <c r="F87" s="138"/>
+      <c r="G87" s="138"/>
+      <c r="H87" s="138"/>
+      <c r="I87" s="138"/>
+      <c r="J87" s="138"/>
+      <c r="K87" s="139"/>
+      <c r="L87" s="143"/>
+      <c r="M87" s="143"/>
+      <c r="N87" s="143"/>
+      <c r="O87" s="173"/>
+      <c r="P87" s="173"/>
+      <c r="Q87" s="173"/>
     </row>
     <row r="88" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="144"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="145"/>
-      <c r="I88" s="145"/>
-      <c r="J88" s="145"/>
-      <c r="K88" s="146"/>
-      <c r="L88" s="127"/>
-      <c r="M88" s="127"/>
-      <c r="N88" s="127"/>
-      <c r="O88" s="126"/>
-      <c r="P88" s="126"/>
-      <c r="Q88" s="126"/>
+      <c r="B88" s="137"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="138"/>
+      <c r="F88" s="138"/>
+      <c r="G88" s="138"/>
+      <c r="H88" s="138"/>
+      <c r="I88" s="138"/>
+      <c r="J88" s="138"/>
+      <c r="K88" s="139"/>
+      <c r="L88" s="143"/>
+      <c r="M88" s="143"/>
+      <c r="N88" s="143"/>
+      <c r="O88" s="173"/>
+      <c r="P88" s="173"/>
+      <c r="Q88" s="173"/>
     </row>
     <row r="89" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="144"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="145"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="145"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="145"/>
-      <c r="I89" s="145"/>
-      <c r="J89" s="145"/>
-      <c r="K89" s="146"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="127"/>
-      <c r="N89" s="127"/>
-      <c r="O89" s="126"/>
-      <c r="P89" s="126"/>
-      <c r="Q89" s="126"/>
+      <c r="B89" s="137"/>
+      <c r="C89" s="138"/>
+      <c r="D89" s="138"/>
+      <c r="E89" s="138"/>
+      <c r="F89" s="138"/>
+      <c r="G89" s="138"/>
+      <c r="H89" s="138"/>
+      <c r="I89" s="138"/>
+      <c r="J89" s="138"/>
+      <c r="K89" s="139"/>
+      <c r="L89" s="143"/>
+      <c r="M89" s="143"/>
+      <c r="N89" s="143"/>
+      <c r="O89" s="173"/>
+      <c r="P89" s="173"/>
+      <c r="Q89" s="173"/>
     </row>
     <row r="90" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="147"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="148"/>
-      <c r="K90" s="149"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="127"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="126"/>
-      <c r="P90" s="126"/>
-      <c r="Q90" s="126"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="141"/>
+      <c r="F90" s="141"/>
+      <c r="G90" s="141"/>
+      <c r="H90" s="141"/>
+      <c r="I90" s="141"/>
+      <c r="J90" s="141"/>
+      <c r="K90" s="142"/>
+      <c r="L90" s="143"/>
+      <c r="M90" s="143"/>
+      <c r="N90" s="143"/>
+      <c r="O90" s="173"/>
+      <c r="P90" s="173"/>
+      <c r="Q90" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="O75:Q79"/>
+    <mergeCell ref="O80:Q85"/>
+    <mergeCell ref="O86:Q90"/>
+    <mergeCell ref="M86:N90"/>
+    <mergeCell ref="M75:N79"/>
+    <mergeCell ref="M80:N85"/>
+    <mergeCell ref="L86:L90"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="M33:N36"/>
+    <mergeCell ref="B21:K36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:K18"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="O33:Q36"/>
+    <mergeCell ref="O29:Q32"/>
+    <mergeCell ref="O25:Q28"/>
+    <mergeCell ref="O21:Q24"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="B39:K54"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O13:Q15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M16:N18"/>
+    <mergeCell ref="M13:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="O67:Q69"/>
+    <mergeCell ref="O70:Q72"/>
+    <mergeCell ref="M70:N72"/>
+    <mergeCell ref="M67:N69"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="M65:N66"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="G74:K74"/>
@@ -10494,94 +10603,6 @@
     <mergeCell ref="B57:K72"/>
     <mergeCell ref="L57:L58"/>
     <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="O67:Q69"/>
-    <mergeCell ref="O70:Q72"/>
-    <mergeCell ref="M70:N72"/>
-    <mergeCell ref="M67:N69"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="B39:K54"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O16:Q18"/>
-    <mergeCell ref="O13:Q15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M16:N18"/>
-    <mergeCell ref="M13:N15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="M33:N36"/>
-    <mergeCell ref="B21:K36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B3:K18"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="O33:Q36"/>
-    <mergeCell ref="O29:Q32"/>
-    <mergeCell ref="O25:Q28"/>
-    <mergeCell ref="O21:Q24"/>
-    <mergeCell ref="O75:Q79"/>
-    <mergeCell ref="O80:Q85"/>
-    <mergeCell ref="O86:Q90"/>
-    <mergeCell ref="M86:N90"/>
-    <mergeCell ref="M75:N79"/>
-    <mergeCell ref="M80:N85"/>
-    <mergeCell ref="L86:L90"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="L75:L79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database.xlsx
+++ b/Documents/Aphelios_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAEEEEC3-A8F4-440F-A9B9-8350966DEAC1}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="13_ncr:1_{01041995-EAED-4FCF-B70E-09E89BBA756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E16B2F-7250-4540-BEC5-D9CCB171417C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,11 +1989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지의 광경을 
-넣을 이미지박스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지에서 진행될 시나리오
 초반 부분을 넣을 텍스트박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2223,7 +2218,29 @@
   </si>
   <si>
     <r>
-      <t>클릭 시, 버튼에 저장된 스테이지 로딩
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모든 스테이지들이 버튼 형식으로 있으며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+클릭 시, 버튼에 저장된 스테이지 로딩
+(아직 클리어하지 못한 스테이지는 블러처리)
 "</t>
     </r>
     <r>
@@ -2249,6 +2266,10 @@
       </rPr>
       <t>" 시스템 참조</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 광경을 넣을 이미지박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3243,7 +3264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3577,6 +3598,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3589,182 +3643,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6820,7 +6844,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>627530</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>647496</xdr:rowOff>
+      <xdr:rowOff>549525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8048,26 +8072,26 @@
       <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="112" t="s">
+      <c r="O1" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="40" t="s">
         <v>76</v>
       </c>
@@ -8076,7 +8100,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="119" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8091,29 +8115,29 @@
       <c r="E2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="81"/>
       <c r="N2" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="50"/>
       <c r="S2" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="118"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
@@ -8126,29 +8150,29 @@
       <c r="E3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="82"/>
       <c r="N3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
       <c r="R3" s="55"/>
       <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="121" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -8163,31 +8187,31 @@
       <c r="E4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="82"/>
       <c r="N4" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
       <c r="R4" s="55"/>
       <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="119"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="56" t="s">
         <v>63</v>
       </c>
@@ -8200,27 +8224,27 @@
       <c r="E5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="82"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="55"/>
       <c r="S5" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="119"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="56" t="s">
         <v>119</v>
       </c>
@@ -8233,27 +8257,27 @@
       <c r="E6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="82"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="55"/>
       <c r="S6" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -8268,27 +8292,27 @@
       <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="82"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="55"/>
       <c r="S7" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="120"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="57" t="s">
         <v>64</v>
       </c>
@@ -8301,27 +8325,27 @@
       <c r="E8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="82"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="55"/>
       <c r="S8" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="120"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="58" t="s">
         <v>65</v>
       </c>
@@ -8334,27 +8358,27 @@
       <c r="E9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="82"/>
       <c r="N9" s="54"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="55"/>
       <c r="S9" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="117" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -8369,27 +8393,27 @@
       <c r="E10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="82"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="55"/>
       <c r="S10" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="121"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="58" t="s">
         <v>66</v>
       </c>
@@ -8402,27 +8426,27 @@
       <c r="E11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="82"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="55"/>
       <c r="S11" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="121"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
@@ -8435,20 +8459,20 @@
       <c r="E12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="1